--- a/Code/Results/Cases/Case_1_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.8670594792648317</v>
+        <v>0.8670594792648287</v>
       </c>
       <c r="D2">
         <v>1.012637959351782</v>
       </c>
       <c r="E2">
-        <v>0.888852933454387</v>
+        <v>0.8888529334543839</v>
       </c>
       <c r="F2">
-        <v>0.9437275884991807</v>
+        <v>0.9437275884991794</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03952024268842</v>
+        <v>1.039520242688419</v>
       </c>
       <c r="J2">
-        <v>0.8941008803638992</v>
+        <v>0.8941008803638963</v>
       </c>
       <c r="K2">
         <v>1.023923990927112</v>
       </c>
       <c r="L2">
-        <v>0.902113568921747</v>
+        <v>0.9021135689217442</v>
       </c>
       <c r="M2">
-        <v>0.9560308435536581</v>
+        <v>0.9560308435536568</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8915546622247338</v>
+        <v>0.8915546622247346</v>
       </c>
       <c r="D3">
         <v>1.018789239104503</v>
       </c>
       <c r="E3">
-        <v>0.9099701739886205</v>
+        <v>0.9099701739886211</v>
       </c>
       <c r="F3">
-        <v>0.9601030729857234</v>
+        <v>0.9601030729857237</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.042864837823924</v>
       </c>
       <c r="J3">
-        <v>0.9155120296852635</v>
+        <v>0.9155120296852642</v>
       </c>
       <c r="K3">
         <v>1.029187222735716</v>
       </c>
       <c r="L3">
-        <v>0.921901198752495</v>
+        <v>0.9219011987524955</v>
       </c>
       <c r="M3">
-        <v>0.9712732442261433</v>
+        <v>0.9712732442261434</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9058417215384669</v>
+        <v>0.905841721538468</v>
       </c>
       <c r="D4">
         <v>1.022467899472703</v>
       </c>
       <c r="E4">
-        <v>0.9223088193976132</v>
+        <v>0.9223088193976141</v>
       </c>
       <c r="F4">
-        <v>0.9697495618593106</v>
+        <v>0.9697495618593108</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044826396712631</v>
+        <v>1.04482639671263</v>
       </c>
       <c r="J4">
-        <v>0.9280045484814758</v>
+        <v>0.9280045484814768</v>
       </c>
       <c r="K4">
         <v>1.032302513290323</v>
       </c>
       <c r="L4">
-        <v>0.9334451096261371</v>
+        <v>0.9334451096261381</v>
       </c>
       <c r="M4">
-        <v>0.9802273353232852</v>
+        <v>0.9802273353232857</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9115438312359708</v>
+        <v>0.9115438312359754</v>
       </c>
       <c r="D5">
-        <v>1.023953490830178</v>
+        <v>1.023953490830179</v>
       </c>
       <c r="E5">
-        <v>0.927237159513038</v>
+        <v>0.9272371595130421</v>
       </c>
       <c r="F5">
-        <v>0.9736169150854056</v>
+        <v>0.973616915085408</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.045609941506973</v>
       </c>
       <c r="J5">
-        <v>0.9329904798214648</v>
+        <v>0.932990479821469</v>
       </c>
       <c r="K5">
-        <v>1.033553590008144</v>
+        <v>1.033553590008145</v>
       </c>
       <c r="L5">
-        <v>0.9380519609436282</v>
+        <v>0.9380519609436324</v>
       </c>
       <c r="M5">
-        <v>0.9838116515156785</v>
+        <v>0.9838116515156806</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9124850141634476</v>
+        <v>0.9124850141634495</v>
       </c>
       <c r="D6">
         <v>1.024199619036821</v>
       </c>
       <c r="E6">
-        <v>0.9280508208818837</v>
+        <v>0.9280508208818855</v>
       </c>
       <c r="F6">
-        <v>0.9742561455359701</v>
+        <v>0.9742561455359708</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.045739264706206</v>
       </c>
       <c r="J6">
-        <v>0.9338134308424246</v>
+        <v>0.9338134308424267</v>
       </c>
       <c r="K6">
         <v>1.033760469579801</v>
       </c>
       <c r="L6">
-        <v>0.9388123115576382</v>
+        <v>0.9388123115576402</v>
       </c>
       <c r="M6">
-        <v>0.9844037901654208</v>
+        <v>0.9844037901654216</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9059190332582704</v>
+        <v>0.9059190332582709</v>
       </c>
       <c r="D7">
         <v>1.022487977091724</v>
       </c>
       <c r="E7">
-        <v>0.9223756260370035</v>
+        <v>0.9223756260370038</v>
       </c>
       <c r="F7">
-        <v>0.9698019338789642</v>
+        <v>0.9698019338789647</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.044837019896169</v>
       </c>
       <c r="J7">
-        <v>0.9280721508557653</v>
+        <v>0.9280721508557656</v>
       </c>
       <c r="K7">
-        <v>1.032319448591287</v>
+        <v>1.032319448591288</v>
       </c>
       <c r="L7">
-        <v>0.9335075742707877</v>
+        <v>0.9335075742707878</v>
       </c>
       <c r="M7">
-        <v>0.9802758956580329</v>
+        <v>0.9802758956580334</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8757123293534269</v>
+        <v>0.8757123293534285</v>
       </c>
       <c r="D8">
         <v>1.014787412832402</v>
       </c>
       <c r="E8">
-        <v>0.8963066289010609</v>
+        <v>0.8963066289010621</v>
       </c>
       <c r="F8">
-        <v>0.9494868081774566</v>
+        <v>0.9494868081774573</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.040697870977177</v>
       </c>
       <c r="J8">
-        <v>0.9016625974218236</v>
+        <v>0.9016625974218253</v>
       </c>
       <c r="K8">
-        <v>1.025770736535644</v>
+        <v>1.025770736535645</v>
       </c>
       <c r="L8">
-        <v>0.9091020855680495</v>
+        <v>0.9091020855680507</v>
       </c>
       <c r="M8">
-        <v>0.9613974619374299</v>
+        <v>0.9613974619374305</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8048983377366736</v>
+        <v>0.8048983377366762</v>
       </c>
       <c r="D9">
-        <v>0.9980280416314204</v>
+        <v>0.9980280416314206</v>
       </c>
       <c r="E9">
-        <v>0.8355459101331318</v>
+        <v>0.8355459101331343</v>
       </c>
       <c r="F9">
-        <v>0.9033235012708882</v>
+        <v>0.9033235012708889</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.031272645701894</v>
       </c>
       <c r="J9">
-        <v>0.8398899348553415</v>
+        <v>0.8398899348553438</v>
       </c>
       <c r="K9">
         <v>1.011153193711477</v>
       </c>
       <c r="L9">
-        <v>0.8520212974059473</v>
+        <v>0.8520212974059497</v>
       </c>
       <c r="M9">
-        <v>0.918207452047879</v>
+        <v>0.91820745204788</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7223928536171205</v>
+        <v>0.722392853617119</v>
       </c>
       <c r="D10">
-        <v>0.9811870139996598</v>
+        <v>0.9811870139996587</v>
       </c>
       <c r="E10">
-        <v>0.7657192106445365</v>
+        <v>0.7657192106445351</v>
       </c>
       <c r="F10">
-        <v>0.8530276472524788</v>
+        <v>0.8530276472524773</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J10">
-        <v>0.768506569866919</v>
+        <v>0.7685065698669176</v>
       </c>
       <c r="K10">
-        <v>0.995904458670577</v>
+        <v>0.9959044586705759</v>
       </c>
       <c r="L10">
-        <v>0.7861644761246408</v>
+        <v>0.7861644761246394</v>
       </c>
       <c r="M10">
-        <v>0.8706766641426242</v>
+        <v>0.8706766641426229</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7223928536171205</v>
+        <v>0.722392853617119</v>
       </c>
       <c r="D11">
-        <v>0.9811870139996598</v>
+        <v>0.9811870139996587</v>
       </c>
       <c r="E11">
-        <v>0.7657192106445365</v>
+        <v>0.7657192106445351</v>
       </c>
       <c r="F11">
-        <v>0.8530276472524788</v>
+        <v>0.8530276472524773</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J11">
-        <v>0.768506569866919</v>
+        <v>0.7685065698669176</v>
       </c>
       <c r="K11">
-        <v>0.995904458670577</v>
+        <v>0.9959044586705759</v>
       </c>
       <c r="L11">
-        <v>0.7861644761246408</v>
+        <v>0.7861644761246394</v>
       </c>
       <c r="M11">
-        <v>0.8706766641426242</v>
+        <v>0.8706766641426229</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7223928536171205</v>
+        <v>0.722392853617119</v>
       </c>
       <c r="D12">
-        <v>0.9811870139996598</v>
+        <v>0.9811870139996587</v>
       </c>
       <c r="E12">
-        <v>0.7657192106445365</v>
+        <v>0.7657192106445351</v>
       </c>
       <c r="F12">
-        <v>0.8530276472524788</v>
+        <v>0.8530276472524773</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J12">
-        <v>0.768506569866919</v>
+        <v>0.7685065698669176</v>
       </c>
       <c r="K12">
-        <v>0.995904458670577</v>
+        <v>0.9959044586705759</v>
       </c>
       <c r="L12">
-        <v>0.7861644761246408</v>
+        <v>0.7861644761246394</v>
       </c>
       <c r="M12">
-        <v>0.8706766641426242</v>
+        <v>0.8706766641426229</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7223928536171205</v>
+        <v>0.722392853617119</v>
       </c>
       <c r="D13">
-        <v>0.9811870139996598</v>
+        <v>0.9811870139996587</v>
       </c>
       <c r="E13">
-        <v>0.7657192106445365</v>
+        <v>0.7657192106445351</v>
       </c>
       <c r="F13">
-        <v>0.8530276472524788</v>
+        <v>0.8530276472524773</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J13">
-        <v>0.768506569866919</v>
+        <v>0.7685065698669176</v>
       </c>
       <c r="K13">
-        <v>0.995904458670577</v>
+        <v>0.9959044586705759</v>
       </c>
       <c r="L13">
-        <v>0.7861644761246408</v>
+        <v>0.7861644761246394</v>
       </c>
       <c r="M13">
-        <v>0.8706766641426242</v>
+        <v>0.8706766641426229</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7223928536171205</v>
+        <v>0.722392853617119</v>
       </c>
       <c r="D14">
-        <v>0.9811870139996598</v>
+        <v>0.9811870139996587</v>
       </c>
       <c r="E14">
-        <v>0.7657192106445365</v>
+        <v>0.7657192106445351</v>
       </c>
       <c r="F14">
-        <v>0.8530276472524788</v>
+        <v>0.8530276472524773</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J14">
-        <v>0.768506569866919</v>
+        <v>0.7685065698669176</v>
       </c>
       <c r="K14">
-        <v>0.995904458670577</v>
+        <v>0.9959044586705759</v>
       </c>
       <c r="L14">
-        <v>0.7861644761246408</v>
+        <v>0.7861644761246394</v>
       </c>
       <c r="M14">
-        <v>0.8706766641426242</v>
+        <v>0.8706766641426229</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7223928536171205</v>
+        <v>0.722392853617119</v>
       </c>
       <c r="D15">
-        <v>0.9811870139996598</v>
+        <v>0.9811870139996587</v>
       </c>
       <c r="E15">
-        <v>0.7657192106445365</v>
+        <v>0.7657192106445351</v>
       </c>
       <c r="F15">
-        <v>0.8530276472524788</v>
+        <v>0.8530276472524773</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J15">
-        <v>0.768506569866919</v>
+        <v>0.7685065698669176</v>
       </c>
       <c r="K15">
-        <v>0.995904458670577</v>
+        <v>0.9959044586705759</v>
       </c>
       <c r="L15">
-        <v>0.7861644761246408</v>
+        <v>0.7861644761246394</v>
       </c>
       <c r="M15">
-        <v>0.8706766641426242</v>
+        <v>0.8706766641426229</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7223928536171205</v>
+        <v>0.722392853617119</v>
       </c>
       <c r="D16">
-        <v>0.9811870139996598</v>
+        <v>0.9811870139996587</v>
       </c>
       <c r="E16">
-        <v>0.7657192106445365</v>
+        <v>0.7657192106445351</v>
       </c>
       <c r="F16">
-        <v>0.8530276472524788</v>
+        <v>0.8530276472524773</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J16">
-        <v>0.768506569866919</v>
+        <v>0.7685065698669176</v>
       </c>
       <c r="K16">
-        <v>0.995904458670577</v>
+        <v>0.9959044586705759</v>
       </c>
       <c r="L16">
-        <v>0.7861644761246408</v>
+        <v>0.7861644761246394</v>
       </c>
       <c r="M16">
-        <v>0.8706766641426242</v>
+        <v>0.8706766641426229</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7223928536171205</v>
+        <v>0.722392853617119</v>
       </c>
       <c r="D17">
-        <v>0.9811870139996598</v>
+        <v>0.9811870139996587</v>
       </c>
       <c r="E17">
-        <v>0.7657192106445365</v>
+        <v>0.7657192106445351</v>
       </c>
       <c r="F17">
-        <v>0.8530276472524788</v>
+        <v>0.8530276472524773</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J17">
-        <v>0.768506569866919</v>
+        <v>0.7685065698669176</v>
       </c>
       <c r="K17">
-        <v>0.995904458670577</v>
+        <v>0.9959044586705759</v>
       </c>
       <c r="L17">
-        <v>0.7861644761246408</v>
+        <v>0.7861644761246394</v>
       </c>
       <c r="M17">
-        <v>0.8706766641426242</v>
+        <v>0.8706766641426229</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7223928536171205</v>
+        <v>0.722392853617119</v>
       </c>
       <c r="D18">
-        <v>0.9811870139996598</v>
+        <v>0.9811870139996587</v>
       </c>
       <c r="E18">
-        <v>0.7657192106445365</v>
+        <v>0.7657192106445351</v>
       </c>
       <c r="F18">
-        <v>0.8530276472524788</v>
+        <v>0.8530276472524773</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J18">
-        <v>0.768506569866919</v>
+        <v>0.7685065698669176</v>
       </c>
       <c r="K18">
-        <v>0.995904458670577</v>
+        <v>0.9959044586705759</v>
       </c>
       <c r="L18">
-        <v>0.7861644761246408</v>
+        <v>0.7861644761246394</v>
       </c>
       <c r="M18">
-        <v>0.8706766641426242</v>
+        <v>0.8706766641426229</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7223928536171205</v>
+        <v>0.722392853617119</v>
       </c>
       <c r="D19">
-        <v>0.9811870139996598</v>
+        <v>0.9811870139996587</v>
       </c>
       <c r="E19">
-        <v>0.7657192106445365</v>
+        <v>0.7657192106445351</v>
       </c>
       <c r="F19">
-        <v>0.8530276472524788</v>
+        <v>0.8530276472524773</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J19">
-        <v>0.768506569866919</v>
+        <v>0.7685065698669176</v>
       </c>
       <c r="K19">
-        <v>0.995904458670577</v>
+        <v>0.9959044586705759</v>
       </c>
       <c r="L19">
-        <v>0.7861644761246408</v>
+        <v>0.7861644761246394</v>
       </c>
       <c r="M19">
-        <v>0.8706766641426242</v>
+        <v>0.8706766641426229</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7223928536171205</v>
+        <v>0.722392853617119</v>
       </c>
       <c r="D20">
-        <v>0.9811870139996598</v>
+        <v>0.9811870139996587</v>
       </c>
       <c r="E20">
-        <v>0.7657192106445365</v>
+        <v>0.7657192106445351</v>
       </c>
       <c r="F20">
-        <v>0.8530276472524788</v>
+        <v>0.8530276472524773</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J20">
-        <v>0.768506569866919</v>
+        <v>0.7685065698669176</v>
       </c>
       <c r="K20">
-        <v>0.995904458670577</v>
+        <v>0.9959044586705759</v>
       </c>
       <c r="L20">
-        <v>0.7861644761246408</v>
+        <v>0.7861644761246394</v>
       </c>
       <c r="M20">
-        <v>0.8706766641426242</v>
+        <v>0.8706766641426229</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7223928536171205</v>
+        <v>0.722392853617119</v>
       </c>
       <c r="D21">
-        <v>0.9811870139996598</v>
+        <v>0.9811870139996587</v>
       </c>
       <c r="E21">
-        <v>0.7657192106445365</v>
+        <v>0.7657192106445351</v>
       </c>
       <c r="F21">
-        <v>0.8530276472524788</v>
+        <v>0.8530276472524773</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J21">
-        <v>0.768506569866919</v>
+        <v>0.7685065698669176</v>
       </c>
       <c r="K21">
-        <v>0.995904458670577</v>
+        <v>0.9959044586705759</v>
       </c>
       <c r="L21">
-        <v>0.7861644761246408</v>
+        <v>0.7861644761246394</v>
       </c>
       <c r="M21">
-        <v>0.8706766641426242</v>
+        <v>0.8706766641426229</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7223928536171205</v>
+        <v>0.722392853617119</v>
       </c>
       <c r="D22">
-        <v>0.9811870139996598</v>
+        <v>0.9811870139996587</v>
       </c>
       <c r="E22">
-        <v>0.7657192106445365</v>
+        <v>0.7657192106445351</v>
       </c>
       <c r="F22">
-        <v>0.8530276472524788</v>
+        <v>0.8530276472524773</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J22">
-        <v>0.768506569866919</v>
+        <v>0.7685065698669176</v>
       </c>
       <c r="K22">
-        <v>0.995904458670577</v>
+        <v>0.9959044586705759</v>
       </c>
       <c r="L22">
-        <v>0.7861644761246408</v>
+        <v>0.7861644761246394</v>
       </c>
       <c r="M22">
-        <v>0.8706766641426242</v>
+        <v>0.8706766641426229</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7223928536171205</v>
+        <v>0.722392853617119</v>
       </c>
       <c r="D23">
-        <v>0.9811870139996598</v>
+        <v>0.9811870139996587</v>
       </c>
       <c r="E23">
-        <v>0.7657192106445365</v>
+        <v>0.7657192106445351</v>
       </c>
       <c r="F23">
-        <v>0.8530276472524788</v>
+        <v>0.8530276472524773</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J23">
-        <v>0.768506569866919</v>
+        <v>0.7685065698669176</v>
       </c>
       <c r="K23">
-        <v>0.995904458670577</v>
+        <v>0.9959044586705759</v>
       </c>
       <c r="L23">
-        <v>0.7861644761246408</v>
+        <v>0.7861644761246394</v>
       </c>
       <c r="M23">
-        <v>0.8706766641426242</v>
+        <v>0.8706766641426229</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7223928536171205</v>
+        <v>0.722392853617119</v>
       </c>
       <c r="D24">
-        <v>0.9811870139996598</v>
+        <v>0.9811870139996587</v>
       </c>
       <c r="E24">
-        <v>0.7657192106445365</v>
+        <v>0.7657192106445351</v>
       </c>
       <c r="F24">
-        <v>0.8530276472524788</v>
+        <v>0.8530276472524773</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J24">
-        <v>0.768506569866919</v>
+        <v>0.7685065698669176</v>
       </c>
       <c r="K24">
-        <v>0.995904458670577</v>
+        <v>0.9959044586705759</v>
       </c>
       <c r="L24">
-        <v>0.7861644761246408</v>
+        <v>0.7861644761246394</v>
       </c>
       <c r="M24">
-        <v>0.8706766641426242</v>
+        <v>0.8706766641426229</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7223928536171205</v>
+        <v>0.722392853617119</v>
       </c>
       <c r="D25">
-        <v>0.9811870139996598</v>
+        <v>0.9811870139996587</v>
       </c>
       <c r="E25">
-        <v>0.7657192106445365</v>
+        <v>0.7657192106445351</v>
       </c>
       <c r="F25">
-        <v>0.8530276472524788</v>
+        <v>0.8530276472524773</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J25">
-        <v>0.768506569866919</v>
+        <v>0.7685065698669176</v>
       </c>
       <c r="K25">
-        <v>0.995904458670577</v>
+        <v>0.9959044586705759</v>
       </c>
       <c r="L25">
-        <v>0.7861644761246408</v>
+        <v>0.7861644761246394</v>
       </c>
       <c r="M25">
-        <v>0.8706766641426242</v>
+        <v>0.8706766641426229</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.8670594792648287</v>
+        <v>0.8670594792648317</v>
       </c>
       <c r="D2">
         <v>1.012637959351782</v>
       </c>
       <c r="E2">
-        <v>0.8888529334543839</v>
+        <v>0.888852933454387</v>
       </c>
       <c r="F2">
-        <v>0.9437275884991794</v>
+        <v>0.9437275884991807</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039520242688419</v>
+        <v>1.03952024268842</v>
       </c>
       <c r="J2">
-        <v>0.8941008803638963</v>
+        <v>0.8941008803638992</v>
       </c>
       <c r="K2">
         <v>1.023923990927112</v>
       </c>
       <c r="L2">
-        <v>0.9021135689217442</v>
+        <v>0.902113568921747</v>
       </c>
       <c r="M2">
-        <v>0.9560308435536568</v>
+        <v>0.9560308435536581</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8915546622247346</v>
+        <v>0.8915546622247338</v>
       </c>
       <c r="D3">
         <v>1.018789239104503</v>
       </c>
       <c r="E3">
-        <v>0.9099701739886211</v>
+        <v>0.9099701739886205</v>
       </c>
       <c r="F3">
-        <v>0.9601030729857237</v>
+        <v>0.9601030729857234</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.042864837823924</v>
       </c>
       <c r="J3">
-        <v>0.9155120296852642</v>
+        <v>0.9155120296852635</v>
       </c>
       <c r="K3">
         <v>1.029187222735716</v>
       </c>
       <c r="L3">
-        <v>0.9219011987524955</v>
+        <v>0.921901198752495</v>
       </c>
       <c r="M3">
-        <v>0.9712732442261434</v>
+        <v>0.9712732442261433</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.905841721538468</v>
+        <v>0.9058417215384669</v>
       </c>
       <c r="D4">
         <v>1.022467899472703</v>
       </c>
       <c r="E4">
-        <v>0.9223088193976141</v>
+        <v>0.9223088193976132</v>
       </c>
       <c r="F4">
-        <v>0.9697495618593108</v>
+        <v>0.9697495618593106</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04482639671263</v>
+        <v>1.044826396712631</v>
       </c>
       <c r="J4">
-        <v>0.9280045484814768</v>
+        <v>0.9280045484814758</v>
       </c>
       <c r="K4">
         <v>1.032302513290323</v>
       </c>
       <c r="L4">
-        <v>0.9334451096261381</v>
+        <v>0.9334451096261371</v>
       </c>
       <c r="M4">
-        <v>0.9802273353232857</v>
+        <v>0.9802273353232852</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9115438312359754</v>
+        <v>0.9115438312359708</v>
       </c>
       <c r="D5">
-        <v>1.023953490830179</v>
+        <v>1.023953490830178</v>
       </c>
       <c r="E5">
-        <v>0.9272371595130421</v>
+        <v>0.927237159513038</v>
       </c>
       <c r="F5">
-        <v>0.973616915085408</v>
+        <v>0.9736169150854056</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.045609941506973</v>
       </c>
       <c r="J5">
-        <v>0.932990479821469</v>
+        <v>0.9329904798214648</v>
       </c>
       <c r="K5">
-        <v>1.033553590008145</v>
+        <v>1.033553590008144</v>
       </c>
       <c r="L5">
-        <v>0.9380519609436324</v>
+        <v>0.9380519609436282</v>
       </c>
       <c r="M5">
-        <v>0.9838116515156806</v>
+        <v>0.9838116515156785</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9124850141634495</v>
+        <v>0.9124850141634476</v>
       </c>
       <c r="D6">
         <v>1.024199619036821</v>
       </c>
       <c r="E6">
-        <v>0.9280508208818855</v>
+        <v>0.9280508208818837</v>
       </c>
       <c r="F6">
-        <v>0.9742561455359708</v>
+        <v>0.9742561455359701</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.045739264706206</v>
       </c>
       <c r="J6">
-        <v>0.9338134308424267</v>
+        <v>0.9338134308424246</v>
       </c>
       <c r="K6">
         <v>1.033760469579801</v>
       </c>
       <c r="L6">
-        <v>0.9388123115576402</v>
+        <v>0.9388123115576382</v>
       </c>
       <c r="M6">
-        <v>0.9844037901654216</v>
+        <v>0.9844037901654208</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9059190332582709</v>
+        <v>0.9059190332582704</v>
       </c>
       <c r="D7">
         <v>1.022487977091724</v>
       </c>
       <c r="E7">
-        <v>0.9223756260370038</v>
+        <v>0.9223756260370035</v>
       </c>
       <c r="F7">
-        <v>0.9698019338789647</v>
+        <v>0.9698019338789642</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.044837019896169</v>
       </c>
       <c r="J7">
-        <v>0.9280721508557656</v>
+        <v>0.9280721508557653</v>
       </c>
       <c r="K7">
-        <v>1.032319448591288</v>
+        <v>1.032319448591287</v>
       </c>
       <c r="L7">
-        <v>0.9335075742707878</v>
+        <v>0.9335075742707877</v>
       </c>
       <c r="M7">
-        <v>0.9802758956580334</v>
+        <v>0.9802758956580329</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8757123293534285</v>
+        <v>0.8757123293534269</v>
       </c>
       <c r="D8">
         <v>1.014787412832402</v>
       </c>
       <c r="E8">
-        <v>0.8963066289010621</v>
+        <v>0.8963066289010609</v>
       </c>
       <c r="F8">
-        <v>0.9494868081774573</v>
+        <v>0.9494868081774566</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.040697870977177</v>
       </c>
       <c r="J8">
-        <v>0.9016625974218253</v>
+        <v>0.9016625974218236</v>
       </c>
       <c r="K8">
-        <v>1.025770736535645</v>
+        <v>1.025770736535644</v>
       </c>
       <c r="L8">
-        <v>0.9091020855680507</v>
+        <v>0.9091020855680495</v>
       </c>
       <c r="M8">
-        <v>0.9613974619374305</v>
+        <v>0.9613974619374299</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8048983377366762</v>
+        <v>0.8048983377366736</v>
       </c>
       <c r="D9">
-        <v>0.9980280416314206</v>
+        <v>0.9980280416314204</v>
       </c>
       <c r="E9">
-        <v>0.8355459101331343</v>
+        <v>0.8355459101331318</v>
       </c>
       <c r="F9">
-        <v>0.9033235012708889</v>
+        <v>0.9033235012708882</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.031272645701894</v>
       </c>
       <c r="J9">
-        <v>0.8398899348553438</v>
+        <v>0.8398899348553415</v>
       </c>
       <c r="K9">
         <v>1.011153193711477</v>
       </c>
       <c r="L9">
-        <v>0.8520212974059497</v>
+        <v>0.8520212974059473</v>
       </c>
       <c r="M9">
-        <v>0.91820745204788</v>
+        <v>0.918207452047879</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.722392853617119</v>
+        <v>0.7223928536171205</v>
       </c>
       <c r="D10">
-        <v>0.9811870139996587</v>
+        <v>0.9811870139996598</v>
       </c>
       <c r="E10">
-        <v>0.7657192106445351</v>
+        <v>0.7657192106445365</v>
       </c>
       <c r="F10">
-        <v>0.8530276472524773</v>
+        <v>0.8530276472524788</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J10">
-        <v>0.7685065698669176</v>
+        <v>0.768506569866919</v>
       </c>
       <c r="K10">
-        <v>0.9959044586705759</v>
+        <v>0.995904458670577</v>
       </c>
       <c r="L10">
-        <v>0.7861644761246394</v>
+        <v>0.7861644761246408</v>
       </c>
       <c r="M10">
-        <v>0.8706766641426229</v>
+        <v>0.8706766641426242</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.722392853617119</v>
+        <v>0.7223928536171205</v>
       </c>
       <c r="D11">
-        <v>0.9811870139996587</v>
+        <v>0.9811870139996598</v>
       </c>
       <c r="E11">
-        <v>0.7657192106445351</v>
+        <v>0.7657192106445365</v>
       </c>
       <c r="F11">
-        <v>0.8530276472524773</v>
+        <v>0.8530276472524788</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J11">
-        <v>0.7685065698669176</v>
+        <v>0.768506569866919</v>
       </c>
       <c r="K11">
-        <v>0.9959044586705759</v>
+        <v>0.995904458670577</v>
       </c>
       <c r="L11">
-        <v>0.7861644761246394</v>
+        <v>0.7861644761246408</v>
       </c>
       <c r="M11">
-        <v>0.8706766641426229</v>
+        <v>0.8706766641426242</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.722392853617119</v>
+        <v>0.7223928536171205</v>
       </c>
       <c r="D12">
-        <v>0.9811870139996587</v>
+        <v>0.9811870139996598</v>
       </c>
       <c r="E12">
-        <v>0.7657192106445351</v>
+        <v>0.7657192106445365</v>
       </c>
       <c r="F12">
-        <v>0.8530276472524773</v>
+        <v>0.8530276472524788</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J12">
-        <v>0.7685065698669176</v>
+        <v>0.768506569866919</v>
       </c>
       <c r="K12">
-        <v>0.9959044586705759</v>
+        <v>0.995904458670577</v>
       </c>
       <c r="L12">
-        <v>0.7861644761246394</v>
+        <v>0.7861644761246408</v>
       </c>
       <c r="M12">
-        <v>0.8706766641426229</v>
+        <v>0.8706766641426242</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.722392853617119</v>
+        <v>0.7223928536171205</v>
       </c>
       <c r="D13">
-        <v>0.9811870139996587</v>
+        <v>0.9811870139996598</v>
       </c>
       <c r="E13">
-        <v>0.7657192106445351</v>
+        <v>0.7657192106445365</v>
       </c>
       <c r="F13">
-        <v>0.8530276472524773</v>
+        <v>0.8530276472524788</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J13">
-        <v>0.7685065698669176</v>
+        <v>0.768506569866919</v>
       </c>
       <c r="K13">
-        <v>0.9959044586705759</v>
+        <v>0.995904458670577</v>
       </c>
       <c r="L13">
-        <v>0.7861644761246394</v>
+        <v>0.7861644761246408</v>
       </c>
       <c r="M13">
-        <v>0.8706766641426229</v>
+        <v>0.8706766641426242</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.722392853617119</v>
+        <v>0.7223928536171205</v>
       </c>
       <c r="D14">
-        <v>0.9811870139996587</v>
+        <v>0.9811870139996598</v>
       </c>
       <c r="E14">
-        <v>0.7657192106445351</v>
+        <v>0.7657192106445365</v>
       </c>
       <c r="F14">
-        <v>0.8530276472524773</v>
+        <v>0.8530276472524788</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J14">
-        <v>0.7685065698669176</v>
+        <v>0.768506569866919</v>
       </c>
       <c r="K14">
-        <v>0.9959044586705759</v>
+        <v>0.995904458670577</v>
       </c>
       <c r="L14">
-        <v>0.7861644761246394</v>
+        <v>0.7861644761246408</v>
       </c>
       <c r="M14">
-        <v>0.8706766641426229</v>
+        <v>0.8706766641426242</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.722392853617119</v>
+        <v>0.7223928536171205</v>
       </c>
       <c r="D15">
-        <v>0.9811870139996587</v>
+        <v>0.9811870139996598</v>
       </c>
       <c r="E15">
-        <v>0.7657192106445351</v>
+        <v>0.7657192106445365</v>
       </c>
       <c r="F15">
-        <v>0.8530276472524773</v>
+        <v>0.8530276472524788</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J15">
-        <v>0.7685065698669176</v>
+        <v>0.768506569866919</v>
       </c>
       <c r="K15">
-        <v>0.9959044586705759</v>
+        <v>0.995904458670577</v>
       </c>
       <c r="L15">
-        <v>0.7861644761246394</v>
+        <v>0.7861644761246408</v>
       </c>
       <c r="M15">
-        <v>0.8706766641426229</v>
+        <v>0.8706766641426242</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.722392853617119</v>
+        <v>0.7223928536171205</v>
       </c>
       <c r="D16">
-        <v>0.9811870139996587</v>
+        <v>0.9811870139996598</v>
       </c>
       <c r="E16">
-        <v>0.7657192106445351</v>
+        <v>0.7657192106445365</v>
       </c>
       <c r="F16">
-        <v>0.8530276472524773</v>
+        <v>0.8530276472524788</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J16">
-        <v>0.7685065698669176</v>
+        <v>0.768506569866919</v>
       </c>
       <c r="K16">
-        <v>0.9959044586705759</v>
+        <v>0.995904458670577</v>
       </c>
       <c r="L16">
-        <v>0.7861644761246394</v>
+        <v>0.7861644761246408</v>
       </c>
       <c r="M16">
-        <v>0.8706766641426229</v>
+        <v>0.8706766641426242</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.722392853617119</v>
+        <v>0.7223928536171205</v>
       </c>
       <c r="D17">
-        <v>0.9811870139996587</v>
+        <v>0.9811870139996598</v>
       </c>
       <c r="E17">
-        <v>0.7657192106445351</v>
+        <v>0.7657192106445365</v>
       </c>
       <c r="F17">
-        <v>0.8530276472524773</v>
+        <v>0.8530276472524788</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J17">
-        <v>0.7685065698669176</v>
+        <v>0.768506569866919</v>
       </c>
       <c r="K17">
-        <v>0.9959044586705759</v>
+        <v>0.995904458670577</v>
       </c>
       <c r="L17">
-        <v>0.7861644761246394</v>
+        <v>0.7861644761246408</v>
       </c>
       <c r="M17">
-        <v>0.8706766641426229</v>
+        <v>0.8706766641426242</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.722392853617119</v>
+        <v>0.7223928536171205</v>
       </c>
       <c r="D18">
-        <v>0.9811870139996587</v>
+        <v>0.9811870139996598</v>
       </c>
       <c r="E18">
-        <v>0.7657192106445351</v>
+        <v>0.7657192106445365</v>
       </c>
       <c r="F18">
-        <v>0.8530276472524773</v>
+        <v>0.8530276472524788</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J18">
-        <v>0.7685065698669176</v>
+        <v>0.768506569866919</v>
       </c>
       <c r="K18">
-        <v>0.9959044586705759</v>
+        <v>0.995904458670577</v>
       </c>
       <c r="L18">
-        <v>0.7861644761246394</v>
+        <v>0.7861644761246408</v>
       </c>
       <c r="M18">
-        <v>0.8706766641426229</v>
+        <v>0.8706766641426242</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.722392853617119</v>
+        <v>0.7223928536171205</v>
       </c>
       <c r="D19">
-        <v>0.9811870139996587</v>
+        <v>0.9811870139996598</v>
       </c>
       <c r="E19">
-        <v>0.7657192106445351</v>
+        <v>0.7657192106445365</v>
       </c>
       <c r="F19">
-        <v>0.8530276472524773</v>
+        <v>0.8530276472524788</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J19">
-        <v>0.7685065698669176</v>
+        <v>0.768506569866919</v>
       </c>
       <c r="K19">
-        <v>0.9959044586705759</v>
+        <v>0.995904458670577</v>
       </c>
       <c r="L19">
-        <v>0.7861644761246394</v>
+        <v>0.7861644761246408</v>
       </c>
       <c r="M19">
-        <v>0.8706766641426229</v>
+        <v>0.8706766641426242</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.722392853617119</v>
+        <v>0.7223928536171205</v>
       </c>
       <c r="D20">
-        <v>0.9811870139996587</v>
+        <v>0.9811870139996598</v>
       </c>
       <c r="E20">
-        <v>0.7657192106445351</v>
+        <v>0.7657192106445365</v>
       </c>
       <c r="F20">
-        <v>0.8530276472524773</v>
+        <v>0.8530276472524788</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J20">
-        <v>0.7685065698669176</v>
+        <v>0.768506569866919</v>
       </c>
       <c r="K20">
-        <v>0.9959044586705759</v>
+        <v>0.995904458670577</v>
       </c>
       <c r="L20">
-        <v>0.7861644761246394</v>
+        <v>0.7861644761246408</v>
       </c>
       <c r="M20">
-        <v>0.8706766641426229</v>
+        <v>0.8706766641426242</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.722392853617119</v>
+        <v>0.7223928536171205</v>
       </c>
       <c r="D21">
-        <v>0.9811870139996587</v>
+        <v>0.9811870139996598</v>
       </c>
       <c r="E21">
-        <v>0.7657192106445351</v>
+        <v>0.7657192106445365</v>
       </c>
       <c r="F21">
-        <v>0.8530276472524773</v>
+        <v>0.8530276472524788</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J21">
-        <v>0.7685065698669176</v>
+        <v>0.768506569866919</v>
       </c>
       <c r="K21">
-        <v>0.9959044586705759</v>
+        <v>0.995904458670577</v>
       </c>
       <c r="L21">
-        <v>0.7861644761246394</v>
+        <v>0.7861644761246408</v>
       </c>
       <c r="M21">
-        <v>0.8706766641426229</v>
+        <v>0.8706766641426242</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.722392853617119</v>
+        <v>0.7223928536171205</v>
       </c>
       <c r="D22">
-        <v>0.9811870139996587</v>
+        <v>0.9811870139996598</v>
       </c>
       <c r="E22">
-        <v>0.7657192106445351</v>
+        <v>0.7657192106445365</v>
       </c>
       <c r="F22">
-        <v>0.8530276472524773</v>
+        <v>0.8530276472524788</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J22">
-        <v>0.7685065698669176</v>
+        <v>0.768506569866919</v>
       </c>
       <c r="K22">
-        <v>0.9959044586705759</v>
+        <v>0.995904458670577</v>
       </c>
       <c r="L22">
-        <v>0.7861644761246394</v>
+        <v>0.7861644761246408</v>
       </c>
       <c r="M22">
-        <v>0.8706766641426229</v>
+        <v>0.8706766641426242</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.722392853617119</v>
+        <v>0.7223928536171205</v>
       </c>
       <c r="D23">
-        <v>0.9811870139996587</v>
+        <v>0.9811870139996598</v>
       </c>
       <c r="E23">
-        <v>0.7657192106445351</v>
+        <v>0.7657192106445365</v>
       </c>
       <c r="F23">
-        <v>0.8530276472524773</v>
+        <v>0.8530276472524788</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J23">
-        <v>0.7685065698669176</v>
+        <v>0.768506569866919</v>
       </c>
       <c r="K23">
-        <v>0.9959044586705759</v>
+        <v>0.995904458670577</v>
       </c>
       <c r="L23">
-        <v>0.7861644761246394</v>
+        <v>0.7861644761246408</v>
       </c>
       <c r="M23">
-        <v>0.8706766641426229</v>
+        <v>0.8706766641426242</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.722392853617119</v>
+        <v>0.7223928536171205</v>
       </c>
       <c r="D24">
-        <v>0.9811870139996587</v>
+        <v>0.9811870139996598</v>
       </c>
       <c r="E24">
-        <v>0.7657192106445351</v>
+        <v>0.7657192106445365</v>
       </c>
       <c r="F24">
-        <v>0.8530276472524773</v>
+        <v>0.8530276472524788</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J24">
-        <v>0.7685065698669176</v>
+        <v>0.768506569866919</v>
       </c>
       <c r="K24">
-        <v>0.9959044586705759</v>
+        <v>0.995904458670577</v>
       </c>
       <c r="L24">
-        <v>0.7861644761246394</v>
+        <v>0.7861644761246408</v>
       </c>
       <c r="M24">
-        <v>0.8706766641426229</v>
+        <v>0.8706766641426242</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.722392853617119</v>
+        <v>0.7223928536171205</v>
       </c>
       <c r="D25">
-        <v>0.9811870139996587</v>
+        <v>0.9811870139996598</v>
       </c>
       <c r="E25">
-        <v>0.7657192106445351</v>
+        <v>0.7657192106445365</v>
       </c>
       <c r="F25">
-        <v>0.8530276472524773</v>
+        <v>0.8530276472524788</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.021223534630713</v>
       </c>
       <c r="J25">
-        <v>0.7685065698669176</v>
+        <v>0.768506569866919</v>
       </c>
       <c r="K25">
-        <v>0.9959044586705759</v>
+        <v>0.995904458670577</v>
       </c>
       <c r="L25">
-        <v>0.7861644761246394</v>
+        <v>0.7861644761246408</v>
       </c>
       <c r="M25">
-        <v>0.8706766641426229</v>
+        <v>0.8706766641426242</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_bus/vm_pu.xlsx
@@ -418,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8670594792648317</v>
+        <v>0.8731370295996895</v>
       </c>
       <c r="D2">
-        <v>1.012637959351782</v>
+        <v>1.013498419324027</v>
       </c>
       <c r="E2">
-        <v>0.888852933454387</v>
+        <v>0.8940741957645152</v>
       </c>
       <c r="F2">
-        <v>0.9437275884991807</v>
+        <v>0.9468799640483612</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03952024268842</v>
+        <v>1.040097730854937</v>
       </c>
       <c r="J2">
-        <v>0.8941008803638992</v>
+        <v>0.8999098008164743</v>
       </c>
       <c r="K2">
-        <v>1.023923990927112</v>
+        <v>1.024772849066806</v>
       </c>
       <c r="L2">
-        <v>0.902113568921747</v>
+        <v>0.9072371392478235</v>
       </c>
       <c r="M2">
-        <v>0.9560308435536581</v>
+        <v>0.9591325430017754</v>
+      </c>
+      <c r="N2">
+        <v>0.9011877759547309</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8915546622247338</v>
+        <v>0.8973758809962434</v>
       </c>
       <c r="D3">
-        <v>1.018789239104503</v>
+        <v>1.019609031382778</v>
       </c>
       <c r="E3">
-        <v>0.9099701739886205</v>
+        <v>0.9149822716111631</v>
       </c>
       <c r="F3">
-        <v>0.9601030729857234</v>
+        <v>0.9631133800614271</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042864837823924</v>
+        <v>1.043415922384363</v>
       </c>
       <c r="J3">
-        <v>0.9155120296852635</v>
+        <v>0.9211171464819286</v>
       </c>
       <c r="K3">
-        <v>1.029187222735716</v>
+        <v>1.029997011271105</v>
       </c>
       <c r="L3">
-        <v>0.921901198752495</v>
+        <v>0.9268324198749563</v>
       </c>
       <c r="M3">
-        <v>0.9712732442261433</v>
+        <v>0.9742410507872723</v>
+      </c>
+      <c r="N3">
+        <v>0.9224252384835461</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9058417215384669</v>
+        <v>0.9115415368930623</v>
       </c>
       <c r="D4">
-        <v>1.022467899472703</v>
+        <v>1.023268087768294</v>
       </c>
       <c r="E4">
-        <v>0.9223088193976132</v>
+        <v>0.9272220607120504</v>
       </c>
       <c r="F4">
-        <v>0.9697495618593106</v>
+        <v>0.9726918043036664</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044826396712631</v>
+        <v>1.045364849934519</v>
       </c>
       <c r="J4">
-        <v>0.9280045484814758</v>
+        <v>0.9335147618224986</v>
       </c>
       <c r="K4">
-        <v>1.032302513290323</v>
+        <v>1.033093569654001</v>
       </c>
       <c r="L4">
-        <v>0.9334451096261371</v>
+        <v>0.9382861840711365</v>
       </c>
       <c r="M4">
-        <v>0.9802273353232852</v>
+        <v>0.9831313855088006</v>
+      </c>
+      <c r="N4">
+        <v>0.9348404598599261</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9115438312359708</v>
+        <v>0.9172001302624695</v>
       </c>
       <c r="D5">
-        <v>1.023953490830178</v>
+        <v>1.024746586846808</v>
       </c>
       <c r="E5">
-        <v>0.927237159513038</v>
+        <v>0.9321150233728835</v>
       </c>
       <c r="F5">
-        <v>0.9736169150854056</v>
+        <v>0.9765346135032529</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045609941506973</v>
+        <v>1.046143847101512</v>
       </c>
       <c r="J5">
-        <v>0.9329904798214648</v>
+        <v>0.9384670390565927</v>
       </c>
       <c r="K5">
-        <v>1.033553590008144</v>
+        <v>1.034337892226235</v>
       </c>
       <c r="L5">
-        <v>0.9380519609436282</v>
+        <v>0.9428609454353483</v>
       </c>
       <c r="M5">
-        <v>0.9838116515156785</v>
+        <v>0.9866927979115173</v>
+      </c>
+      <c r="N5">
+        <v>0.9397997698957273</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9124850141634476</v>
+        <v>0.9181343831557591</v>
       </c>
       <c r="D6">
-        <v>1.024199619036821</v>
+        <v>1.024991582129916</v>
       </c>
       <c r="E6">
-        <v>0.9280508208818837</v>
+        <v>0.9329230544038304</v>
       </c>
       <c r="F6">
-        <v>0.9742561455359701</v>
+        <v>0.9771699275316291</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045739264706206</v>
+        <v>1.046272445154718</v>
       </c>
       <c r="J6">
-        <v>0.9338134308424246</v>
+        <v>0.9392846516769698</v>
       </c>
       <c r="K6">
-        <v>1.033760469579801</v>
+        <v>1.034543694204848</v>
       </c>
       <c r="L6">
-        <v>0.9388123115576382</v>
+        <v>0.9436161988127226</v>
       </c>
       <c r="M6">
-        <v>0.9844037901654208</v>
+        <v>0.9872812868681009</v>
+      </c>
+      <c r="N6">
+        <v>0.9406185436198066</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9059190332582704</v>
+        <v>0.9116182406501789</v>
       </c>
       <c r="D7">
-        <v>1.022487977091724</v>
+        <v>1.023288066553994</v>
       </c>
       <c r="E7">
-        <v>0.9223756260370035</v>
+        <v>0.9272883728499272</v>
       </c>
       <c r="F7">
-        <v>0.9698019338789642</v>
+        <v>0.9727438339854513</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044837019896169</v>
+        <v>1.045375409654475</v>
       </c>
       <c r="J7">
-        <v>0.9280721508557653</v>
+        <v>0.9335818925302773</v>
       </c>
       <c r="K7">
-        <v>1.032319448591287</v>
+        <v>1.033110410740874</v>
       </c>
       <c r="L7">
-        <v>0.9335075742707877</v>
+        <v>0.9383481994673787</v>
       </c>
       <c r="M7">
-        <v>0.9802758956580329</v>
+        <v>0.9831796260304464</v>
+      </c>
+      <c r="N7">
+        <v>0.9349076859010099</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8757123293534269</v>
+        <v>0.8816915858563523</v>
       </c>
       <c r="D8">
-        <v>1.014787412832402</v>
+        <v>1.015632380197538</v>
       </c>
       <c r="E8">
-        <v>0.8963066289010609</v>
+        <v>0.9014476376226801</v>
       </c>
       <c r="F8">
-        <v>0.9494868081774566</v>
+        <v>0.9525849389613744</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040697870977177</v>
+        <v>1.041265275216448</v>
       </c>
       <c r="J8">
-        <v>0.9016625974218236</v>
+        <v>0.9073929307859566</v>
       </c>
       <c r="K8">
-        <v>1.025770736535644</v>
+        <v>1.026604683893519</v>
       </c>
       <c r="L8">
-        <v>0.9091020855680495</v>
+        <v>0.9141516485944494</v>
       </c>
       <c r="M8">
-        <v>0.9613974619374299</v>
+        <v>0.9644479327517838</v>
+      </c>
+      <c r="N8">
+        <v>0.9086815328270967</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8048983377366736</v>
+        <v>0.8120467894400908</v>
       </c>
       <c r="D9">
-        <v>0.9980280416314204</v>
+        <v>0.9990521257340486</v>
       </c>
       <c r="E9">
-        <v>0.8355459101331318</v>
+        <v>0.8416422327047167</v>
       </c>
       <c r="F9">
-        <v>0.9033235012708882</v>
+        <v>0.9070546900835215</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031272645701894</v>
+        <v>1.03195760240403</v>
       </c>
       <c r="J9">
-        <v>0.8398899348553415</v>
+        <v>0.846572667839107</v>
       </c>
       <c r="K9">
-        <v>1.011153193711477</v>
+        <v>1.012160600279623</v>
       </c>
       <c r="L9">
-        <v>0.8520212974059473</v>
+        <v>0.8579602786954705</v>
       </c>
       <c r="M9">
-        <v>0.918207452047879</v>
+        <v>0.9218601551674669</v>
+      </c>
+      <c r="N9">
+        <v>0.8477748981306806</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7223928536171205</v>
+        <v>0.7334749809515225</v>
       </c>
       <c r="D10">
-        <v>0.9811870139996598</v>
+        <v>0.9827842997260914</v>
       </c>
       <c r="E10">
-        <v>0.7657192106445365</v>
+        <v>0.775021592227602</v>
       </c>
       <c r="F10">
-        <v>0.8530276472524788</v>
+        <v>0.8588151725267091</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021223534630713</v>
+        <v>1.022288594526882</v>
       </c>
       <c r="J10">
-        <v>0.768506569866919</v>
+        <v>0.7784686480428681</v>
       </c>
       <c r="K10">
-        <v>0.995904458670577</v>
+        <v>0.9974715051041512</v>
       </c>
       <c r="L10">
-        <v>0.7861644761246408</v>
+        <v>0.79512676632738</v>
       </c>
       <c r="M10">
-        <v>0.8706766641426242</v>
+        <v>0.8763060842582592</v>
+      </c>
+      <c r="N10">
+        <v>0.7795741628146908</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7223928536171205</v>
+        <v>0.7334749809515225</v>
       </c>
       <c r="D11">
-        <v>0.9811870139996598</v>
+        <v>0.9827842997260914</v>
       </c>
       <c r="E11">
-        <v>0.7657192106445365</v>
+        <v>0.775021592227602</v>
       </c>
       <c r="F11">
-        <v>0.8530276472524788</v>
+        <v>0.8588151725267091</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021223534630713</v>
+        <v>1.022288594526882</v>
       </c>
       <c r="J11">
-        <v>0.768506569866919</v>
+        <v>0.7784686480428681</v>
       </c>
       <c r="K11">
-        <v>0.995904458670577</v>
+        <v>0.9974715051041512</v>
       </c>
       <c r="L11">
-        <v>0.7861644761246408</v>
+        <v>0.79512676632738</v>
       </c>
       <c r="M11">
-        <v>0.8706766641426242</v>
+        <v>0.8763060842582592</v>
+      </c>
+      <c r="N11">
+        <v>0.7795741628146908</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7223928536171205</v>
+        <v>0.7334749809515225</v>
       </c>
       <c r="D12">
-        <v>0.9811870139996598</v>
+        <v>0.9827842997260914</v>
       </c>
       <c r="E12">
-        <v>0.7657192106445365</v>
+        <v>0.775021592227602</v>
       </c>
       <c r="F12">
-        <v>0.8530276472524788</v>
+        <v>0.8588151725267091</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021223534630713</v>
+        <v>1.022288594526882</v>
       </c>
       <c r="J12">
-        <v>0.768506569866919</v>
+        <v>0.7784686480428681</v>
       </c>
       <c r="K12">
-        <v>0.995904458670577</v>
+        <v>0.9974715051041512</v>
       </c>
       <c r="L12">
-        <v>0.7861644761246408</v>
+        <v>0.79512676632738</v>
       </c>
       <c r="M12">
-        <v>0.8706766641426242</v>
+        <v>0.8763060842582592</v>
+      </c>
+      <c r="N12">
+        <v>0.7795741628146908</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7223928536171205</v>
+        <v>0.7334749809515225</v>
       </c>
       <c r="D13">
-        <v>0.9811870139996598</v>
+        <v>0.9827842997260914</v>
       </c>
       <c r="E13">
-        <v>0.7657192106445365</v>
+        <v>0.775021592227602</v>
       </c>
       <c r="F13">
-        <v>0.8530276472524788</v>
+        <v>0.8588151725267091</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021223534630713</v>
+        <v>1.022288594526882</v>
       </c>
       <c r="J13">
-        <v>0.768506569866919</v>
+        <v>0.7784686480428681</v>
       </c>
       <c r="K13">
-        <v>0.995904458670577</v>
+        <v>0.9974715051041512</v>
       </c>
       <c r="L13">
-        <v>0.7861644761246408</v>
+        <v>0.79512676632738</v>
       </c>
       <c r="M13">
-        <v>0.8706766641426242</v>
+        <v>0.8763060842582592</v>
+      </c>
+      <c r="N13">
+        <v>0.7795741628146908</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7223928536171205</v>
+        <v>0.7334749809515225</v>
       </c>
       <c r="D14">
-        <v>0.9811870139996598</v>
+        <v>0.9827842997260914</v>
       </c>
       <c r="E14">
-        <v>0.7657192106445365</v>
+        <v>0.775021592227602</v>
       </c>
       <c r="F14">
-        <v>0.8530276472524788</v>
+        <v>0.8588151725267091</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021223534630713</v>
+        <v>1.022288594526882</v>
       </c>
       <c r="J14">
-        <v>0.768506569866919</v>
+        <v>0.7784686480428681</v>
       </c>
       <c r="K14">
-        <v>0.995904458670577</v>
+        <v>0.9974715051041512</v>
       </c>
       <c r="L14">
-        <v>0.7861644761246408</v>
+        <v>0.79512676632738</v>
       </c>
       <c r="M14">
-        <v>0.8706766641426242</v>
+        <v>0.8763060842582592</v>
+      </c>
+      <c r="N14">
+        <v>0.7795741628146908</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7223928536171205</v>
+        <v>0.7334749809515225</v>
       </c>
       <c r="D15">
-        <v>0.9811870139996598</v>
+        <v>0.9827842997260914</v>
       </c>
       <c r="E15">
-        <v>0.7657192106445365</v>
+        <v>0.775021592227602</v>
       </c>
       <c r="F15">
-        <v>0.8530276472524788</v>
+        <v>0.8588151725267091</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021223534630713</v>
+        <v>1.022288594526882</v>
       </c>
       <c r="J15">
-        <v>0.768506569866919</v>
+        <v>0.7784686480428681</v>
       </c>
       <c r="K15">
-        <v>0.995904458670577</v>
+        <v>0.9974715051041512</v>
       </c>
       <c r="L15">
-        <v>0.7861644761246408</v>
+        <v>0.79512676632738</v>
       </c>
       <c r="M15">
-        <v>0.8706766641426242</v>
+        <v>0.8763060842582592</v>
+      </c>
+      <c r="N15">
+        <v>0.7795741628146908</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7223928536171205</v>
+        <v>0.7334749809515225</v>
       </c>
       <c r="D16">
-        <v>0.9811870139996598</v>
+        <v>0.9827842997260914</v>
       </c>
       <c r="E16">
-        <v>0.7657192106445365</v>
+        <v>0.775021592227602</v>
       </c>
       <c r="F16">
-        <v>0.8530276472524788</v>
+        <v>0.8588151725267091</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021223534630713</v>
+        <v>1.022288594526882</v>
       </c>
       <c r="J16">
-        <v>0.768506569866919</v>
+        <v>0.7784686480428681</v>
       </c>
       <c r="K16">
-        <v>0.995904458670577</v>
+        <v>0.9974715051041512</v>
       </c>
       <c r="L16">
-        <v>0.7861644761246408</v>
+        <v>0.79512676632738</v>
       </c>
       <c r="M16">
-        <v>0.8706766641426242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8763060842582592</v>
+      </c>
+      <c r="N16">
+        <v>0.7795741628146908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7223928536171205</v>
+        <v>0.7334749809515225</v>
       </c>
       <c r="D17">
-        <v>0.9811870139996598</v>
+        <v>0.9827842997260914</v>
       </c>
       <c r="E17">
-        <v>0.7657192106445365</v>
+        <v>0.775021592227602</v>
       </c>
       <c r="F17">
-        <v>0.8530276472524788</v>
+        <v>0.8588151725267091</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021223534630713</v>
+        <v>1.022288594526882</v>
       </c>
       <c r="J17">
-        <v>0.768506569866919</v>
+        <v>0.7784686480428681</v>
       </c>
       <c r="K17">
-        <v>0.995904458670577</v>
+        <v>0.9974715051041512</v>
       </c>
       <c r="L17">
-        <v>0.7861644761246408</v>
+        <v>0.79512676632738</v>
       </c>
       <c r="M17">
-        <v>0.8706766641426242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8763060842582592</v>
+      </c>
+      <c r="N17">
+        <v>0.7795741628146908</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7223928536171205</v>
+        <v>0.7334749809515225</v>
       </c>
       <c r="D18">
-        <v>0.9811870139996598</v>
+        <v>0.9827842997260914</v>
       </c>
       <c r="E18">
-        <v>0.7657192106445365</v>
+        <v>0.775021592227602</v>
       </c>
       <c r="F18">
-        <v>0.8530276472524788</v>
+        <v>0.8588151725267091</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021223534630713</v>
+        <v>1.022288594526882</v>
       </c>
       <c r="J18">
-        <v>0.768506569866919</v>
+        <v>0.7784686480428681</v>
       </c>
       <c r="K18">
-        <v>0.995904458670577</v>
+        <v>0.9974715051041512</v>
       </c>
       <c r="L18">
-        <v>0.7861644761246408</v>
+        <v>0.79512676632738</v>
       </c>
       <c r="M18">
-        <v>0.8706766641426242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8763060842582592</v>
+      </c>
+      <c r="N18">
+        <v>0.7795741628146908</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7223928536171205</v>
+        <v>0.7334749809515225</v>
       </c>
       <c r="D19">
-        <v>0.9811870139996598</v>
+        <v>0.9827842997260914</v>
       </c>
       <c r="E19">
-        <v>0.7657192106445365</v>
+        <v>0.775021592227602</v>
       </c>
       <c r="F19">
-        <v>0.8530276472524788</v>
+        <v>0.8588151725267091</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.021223534630713</v>
+        <v>1.022288594526882</v>
       </c>
       <c r="J19">
-        <v>0.768506569866919</v>
+        <v>0.7784686480428681</v>
       </c>
       <c r="K19">
-        <v>0.995904458670577</v>
+        <v>0.9974715051041512</v>
       </c>
       <c r="L19">
-        <v>0.7861644761246408</v>
+        <v>0.79512676632738</v>
       </c>
       <c r="M19">
-        <v>0.8706766641426242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8763060842582592</v>
+      </c>
+      <c r="N19">
+        <v>0.7795741628146908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7223928536171205</v>
+        <v>0.7334749809515225</v>
       </c>
       <c r="D20">
-        <v>0.9811870139996598</v>
+        <v>0.9827842997260914</v>
       </c>
       <c r="E20">
-        <v>0.7657192106445365</v>
+        <v>0.775021592227602</v>
       </c>
       <c r="F20">
-        <v>0.8530276472524788</v>
+        <v>0.8588151725267091</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021223534630713</v>
+        <v>1.022288594526882</v>
       </c>
       <c r="J20">
-        <v>0.768506569866919</v>
+        <v>0.7784686480428681</v>
       </c>
       <c r="K20">
-        <v>0.995904458670577</v>
+        <v>0.9974715051041512</v>
       </c>
       <c r="L20">
-        <v>0.7861644761246408</v>
+        <v>0.79512676632738</v>
       </c>
       <c r="M20">
-        <v>0.8706766641426242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8763060842582592</v>
+      </c>
+      <c r="N20">
+        <v>0.7795741628146908</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7223928536171205</v>
+        <v>0.7334749809515225</v>
       </c>
       <c r="D21">
-        <v>0.9811870139996598</v>
+        <v>0.9827842997260914</v>
       </c>
       <c r="E21">
-        <v>0.7657192106445365</v>
+        <v>0.775021592227602</v>
       </c>
       <c r="F21">
-        <v>0.8530276472524788</v>
+        <v>0.8588151725267091</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021223534630713</v>
+        <v>1.022288594526882</v>
       </c>
       <c r="J21">
-        <v>0.768506569866919</v>
+        <v>0.7784686480428681</v>
       </c>
       <c r="K21">
-        <v>0.995904458670577</v>
+        <v>0.9974715051041512</v>
       </c>
       <c r="L21">
-        <v>0.7861644761246408</v>
+        <v>0.79512676632738</v>
       </c>
       <c r="M21">
-        <v>0.8706766641426242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8763060842582592</v>
+      </c>
+      <c r="N21">
+        <v>0.7795741628146908</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7223928536171205</v>
+        <v>0.7334749809515225</v>
       </c>
       <c r="D22">
-        <v>0.9811870139996598</v>
+        <v>0.9827842997260914</v>
       </c>
       <c r="E22">
-        <v>0.7657192106445365</v>
+        <v>0.775021592227602</v>
       </c>
       <c r="F22">
-        <v>0.8530276472524788</v>
+        <v>0.8588151725267091</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021223534630713</v>
+        <v>1.022288594526882</v>
       </c>
       <c r="J22">
-        <v>0.768506569866919</v>
+        <v>0.7784686480428681</v>
       </c>
       <c r="K22">
-        <v>0.995904458670577</v>
+        <v>0.9974715051041512</v>
       </c>
       <c r="L22">
-        <v>0.7861644761246408</v>
+        <v>0.79512676632738</v>
       </c>
       <c r="M22">
-        <v>0.8706766641426242</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8763060842582592</v>
+      </c>
+      <c r="N22">
+        <v>0.7795741628146908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7223928536171205</v>
+        <v>0.7334749809515225</v>
       </c>
       <c r="D23">
-        <v>0.9811870139996598</v>
+        <v>0.9827842997260914</v>
       </c>
       <c r="E23">
-        <v>0.7657192106445365</v>
+        <v>0.775021592227602</v>
       </c>
       <c r="F23">
-        <v>0.8530276472524788</v>
+        <v>0.8588151725267091</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021223534630713</v>
+        <v>1.022288594526882</v>
       </c>
       <c r="J23">
-        <v>0.768506569866919</v>
+        <v>0.7784686480428681</v>
       </c>
       <c r="K23">
-        <v>0.995904458670577</v>
+        <v>0.9974715051041512</v>
       </c>
       <c r="L23">
-        <v>0.7861644761246408</v>
+        <v>0.79512676632738</v>
       </c>
       <c r="M23">
-        <v>0.8706766641426242</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8763060842582592</v>
+      </c>
+      <c r="N23">
+        <v>0.7795741628146908</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7223928536171205</v>
+        <v>0.7334749809515225</v>
       </c>
       <c r="D24">
-        <v>0.9811870139996598</v>
+        <v>0.9827842997260914</v>
       </c>
       <c r="E24">
-        <v>0.7657192106445365</v>
+        <v>0.775021592227602</v>
       </c>
       <c r="F24">
-        <v>0.8530276472524788</v>
+        <v>0.8588151725267091</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021223534630713</v>
+        <v>1.022288594526882</v>
       </c>
       <c r="J24">
-        <v>0.768506569866919</v>
+        <v>0.7784686480428681</v>
       </c>
       <c r="K24">
-        <v>0.995904458670577</v>
+        <v>0.9974715051041512</v>
       </c>
       <c r="L24">
-        <v>0.7861644761246408</v>
+        <v>0.79512676632738</v>
       </c>
       <c r="M24">
-        <v>0.8706766641426242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8763060842582592</v>
+      </c>
+      <c r="N24">
+        <v>0.7795741628146908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7223928536171205</v>
+        <v>0.7334749809515225</v>
       </c>
       <c r="D25">
-        <v>0.9811870139996598</v>
+        <v>0.9827842997260914</v>
       </c>
       <c r="E25">
-        <v>0.7657192106445365</v>
+        <v>0.775021592227602</v>
       </c>
       <c r="F25">
-        <v>0.8530276472524788</v>
+        <v>0.8588151725267091</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.021223534630713</v>
+        <v>1.022288594526882</v>
       </c>
       <c r="J25">
-        <v>0.768506569866919</v>
+        <v>0.7784686480428681</v>
       </c>
       <c r="K25">
-        <v>0.995904458670577</v>
+        <v>0.9974715051041512</v>
       </c>
       <c r="L25">
-        <v>0.7861644761246408</v>
+        <v>0.79512676632738</v>
       </c>
       <c r="M25">
-        <v>0.8706766641426242</v>
+        <v>0.8763060842582592</v>
+      </c>
+      <c r="N25">
+        <v>0.7795741628146908</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8731370295996895</v>
+        <v>0.9187845959075966</v>
       </c>
       <c r="D2">
-        <v>1.013498419324027</v>
+        <v>1.02633455963112</v>
       </c>
       <c r="E2">
-        <v>0.8940741957645152</v>
+        <v>0.9351735191444482</v>
       </c>
       <c r="F2">
-        <v>0.9468799640483612</v>
+        <v>0.890748143181287</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040097730854937</v>
+        <v>1.039279878875931</v>
       </c>
       <c r="J2">
-        <v>0.8999098008164743</v>
+        <v>0.9436990102855402</v>
       </c>
       <c r="K2">
-        <v>1.024772849066806</v>
+        <v>1.037438809783654</v>
       </c>
       <c r="L2">
-        <v>0.9072371392478235</v>
+        <v>0.9476165004948681</v>
       </c>
       <c r="M2">
-        <v>0.9591325430017754</v>
+        <v>0.9039731456015214</v>
       </c>
       <c r="N2">
-        <v>0.9011877759547309</v>
+        <v>0.9450391711239352</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8973758809962434</v>
+        <v>0.9326744868666602</v>
       </c>
       <c r="D3">
-        <v>1.019609031382778</v>
+        <v>1.029356661436854</v>
       </c>
       <c r="E3">
-        <v>0.9149822716111631</v>
+        <v>0.9469406606328719</v>
       </c>
       <c r="F3">
-        <v>0.9631133800614271</v>
+        <v>0.9083969536145237</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043415922384363</v>
+        <v>1.040864596300502</v>
       </c>
       <c r="J3">
-        <v>0.9211171464819286</v>
+        <v>0.9551854115288381</v>
       </c>
       <c r="K3">
-        <v>1.029997011271105</v>
+        <v>1.039627207261034</v>
       </c>
       <c r="L3">
-        <v>0.9268324198749563</v>
+        <v>0.9583006914342757</v>
       </c>
       <c r="M3">
-        <v>0.9742410507872723</v>
+        <v>0.9203536007598152</v>
       </c>
       <c r="N3">
-        <v>0.9224252384835461</v>
+        <v>0.956541884374507</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9115415368930623</v>
+        <v>0.9411177171854023</v>
       </c>
       <c r="D4">
-        <v>1.023268087768294</v>
+        <v>1.031234366117685</v>
       </c>
       <c r="E4">
-        <v>0.9272220607120504</v>
+        <v>0.9541043564232922</v>
       </c>
       <c r="F4">
-        <v>0.9726918043036664</v>
+        <v>0.9190934098460182</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045364849934519</v>
+        <v>1.041820925179744</v>
       </c>
       <c r="J4">
-        <v>0.9335147618224986</v>
+        <v>0.9621577688020021</v>
       </c>
       <c r="K4">
-        <v>1.033093569654001</v>
+        <v>1.040969886554804</v>
       </c>
       <c r="L4">
-        <v>0.9382861840711365</v>
+        <v>0.9647901911313699</v>
       </c>
       <c r="M4">
-        <v>0.9831313855088006</v>
+        <v>0.9302774600096996</v>
       </c>
       <c r="N4">
-        <v>0.9348404598599261</v>
+        <v>0.9635241431947396</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9172001302624695</v>
+        <v>0.9445520623410546</v>
       </c>
       <c r="D5">
-        <v>1.024746586846808</v>
+        <v>1.032006720000047</v>
       </c>
       <c r="E5">
-        <v>0.9321150233728835</v>
+        <v>0.9570204661561401</v>
       </c>
       <c r="F5">
-        <v>0.9765346135032529</v>
+        <v>0.9234384627164823</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046143847101512</v>
+        <v>1.042207869082636</v>
       </c>
       <c r="J5">
-        <v>0.9384670390565927</v>
+        <v>0.9649913845163619</v>
       </c>
       <c r="K5">
-        <v>1.034337892226235</v>
+        <v>1.04151829656326</v>
       </c>
       <c r="L5">
-        <v>0.9428609454353483</v>
+        <v>0.967428429301044</v>
       </c>
       <c r="M5">
-        <v>0.9866927979115173</v>
+        <v>0.9343075429889268</v>
       </c>
       <c r="N5">
-        <v>0.9397997698957273</v>
+        <v>0.9663617829684339</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9181343831557591</v>
+        <v>0.9451223343083192</v>
       </c>
       <c r="D6">
-        <v>1.024991582129916</v>
+        <v>1.032135443514591</v>
       </c>
       <c r="E6">
-        <v>0.9329230544038304</v>
+        <v>0.9575048066477747</v>
       </c>
       <c r="F6">
-        <v>0.9771699275316291</v>
+        <v>0.9241596604851439</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046272445154718</v>
+        <v>1.042271990167483</v>
       </c>
       <c r="J6">
-        <v>0.9392846516769698</v>
+        <v>0.9654617597264727</v>
       </c>
       <c r="K6">
-        <v>1.034543694204848</v>
+        <v>1.041609474253562</v>
       </c>
       <c r="L6">
-        <v>0.9436161988127226</v>
+        <v>0.9678664196613532</v>
       </c>
       <c r="M6">
-        <v>0.9872812868681009</v>
+        <v>0.9349763901309412</v>
       </c>
       <c r="N6">
-        <v>0.9406185436198066</v>
+        <v>0.9668328261652959</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9116182406501789</v>
+        <v>0.9411640418958221</v>
       </c>
       <c r="D7">
-        <v>1.023288066553994</v>
+        <v>1.031244751395088</v>
       </c>
       <c r="E7">
-        <v>0.9272883728499272</v>
+        <v>0.9541436824225341</v>
       </c>
       <c r="F7">
-        <v>0.9727438339854513</v>
+        <v>0.919152039806361</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045375409654475</v>
+        <v>1.041826153163312</v>
       </c>
       <c r="J7">
-        <v>0.9335818925302773</v>
+        <v>0.9621960002926931</v>
       </c>
       <c r="K7">
-        <v>1.033110410740874</v>
+        <v>1.040977275729545</v>
       </c>
       <c r="L7">
-        <v>0.9383481994673787</v>
+        <v>0.9648257832872443</v>
       </c>
       <c r="M7">
-        <v>0.9831796260304464</v>
+        <v>0.930331844657045</v>
       </c>
       <c r="N7">
-        <v>0.9349076859010099</v>
+        <v>0.9635624289785326</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8816915858563523</v>
+        <v>0.9236016633415823</v>
       </c>
       <c r="D8">
-        <v>1.015632380197538</v>
+        <v>1.027373064824379</v>
       </c>
       <c r="E8">
-        <v>0.9014476376226801</v>
+        <v>0.9392518179835988</v>
       </c>
       <c r="F8">
-        <v>0.9525849389613744</v>
+        <v>0.89687693808539</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041265275216448</v>
+        <v>1.039830714173705</v>
       </c>
       <c r="J8">
-        <v>0.9073929307859566</v>
+        <v>0.9476846186835812</v>
       </c>
       <c r="K8">
-        <v>1.026604683893519</v>
+        <v>1.038194589367382</v>
       </c>
       <c r="L8">
-        <v>0.9141516485944494</v>
+        <v>0.9513227842134356</v>
       </c>
       <c r="M8">
-        <v>0.9644479327517838</v>
+        <v>0.9096621832366166</v>
       </c>
       <c r="N8">
-        <v>0.9086815328270967</v>
+        <v>0.9490304395430569</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8120467894400908</v>
+        <v>0.8875732420976574</v>
       </c>
       <c r="D9">
-        <v>0.9990521257340486</v>
+        <v>1.019860518040081</v>
       </c>
       <c r="E9">
-        <v>0.8416422327047167</v>
+        <v>0.9088209940839346</v>
       </c>
       <c r="F9">
-        <v>0.9070546900835215</v>
+        <v>0.8507750582992381</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03195760240403</v>
+        <v>1.035699127170729</v>
       </c>
       <c r="J9">
-        <v>0.846572667839107</v>
+        <v>0.917832713084117</v>
       </c>
       <c r="K9">
-        <v>1.012160600279623</v>
+        <v>1.03263938546995</v>
       </c>
       <c r="L9">
-        <v>0.8579602786954705</v>
+        <v>0.9235896018517318</v>
       </c>
       <c r="M9">
-        <v>0.9218601551674669</v>
+        <v>0.8668630770987205</v>
       </c>
       <c r="N9">
-        <v>0.8477748981306806</v>
+        <v>0.9191361408135802</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7334749809515225</v>
+        <v>0.858242400360488</v>
       </c>
       <c r="D10">
-        <v>0.9827842997260914</v>
+        <v>1.014195363427737</v>
       </c>
       <c r="E10">
-        <v>0.775021592227602</v>
+        <v>0.8841824376192107</v>
       </c>
       <c r="F10">
-        <v>0.8588151725267091</v>
+        <v>0.8126577879890901</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022288594526882</v>
+        <v>1.032353092559849</v>
       </c>
       <c r="J10">
-        <v>0.7784686480428681</v>
+        <v>0.8934778445688419</v>
       </c>
       <c r="K10">
-        <v>0.9974715051041512</v>
+        <v>1.028312960566716</v>
       </c>
       <c r="L10">
-        <v>0.79512676632738</v>
+        <v>0.9010132582509537</v>
       </c>
       <c r="M10">
-        <v>0.8763060842582592</v>
+        <v>0.8314965166873196</v>
       </c>
       <c r="N10">
-        <v>0.7795741628146908</v>
+        <v>0.894746685591471</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7334749809515225</v>
+        <v>0.8435176582005325</v>
       </c>
       <c r="D11">
-        <v>0.9827842997260914</v>
+        <v>1.011510245348069</v>
       </c>
       <c r="E11">
-        <v>0.775021592227602</v>
+        <v>0.871864606596224</v>
       </c>
       <c r="F11">
-        <v>0.8588151725267091</v>
+        <v>0.7932516094628526</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022288594526882</v>
+        <v>1.030692811393211</v>
       </c>
       <c r="J11">
-        <v>0.7784686480428681</v>
+        <v>0.8812398263378749</v>
       </c>
       <c r="K11">
-        <v>0.9974715051041512</v>
+        <v>1.026218311474454</v>
       </c>
       <c r="L11">
-        <v>0.79512676632738</v>
+        <v>0.8896883253810518</v>
       </c>
       <c r="M11">
-        <v>0.8763060842582592</v>
+        <v>0.8135108263646412</v>
       </c>
       <c r="N11">
-        <v>0.7795741628146908</v>
+        <v>0.8824912879708955</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7334749809515225</v>
+        <v>0.8376272519999682</v>
       </c>
       <c r="D12">
-        <v>0.9827842997260914</v>
+        <v>1.010466493452348</v>
       </c>
       <c r="E12">
-        <v>0.775021592227602</v>
+        <v>0.866947286239684</v>
       </c>
       <c r="F12">
-        <v>0.8588151725267091</v>
+        <v>0.78542742211448</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022288594526882</v>
+        <v>1.030033542169658</v>
       </c>
       <c r="J12">
-        <v>0.7784686480428681</v>
+        <v>0.8763425153289408</v>
       </c>
       <c r="K12">
-        <v>0.9974715051041512</v>
+        <v>1.025395882057178</v>
       </c>
       <c r="L12">
-        <v>0.79512676632738</v>
+        <v>0.8851603966713563</v>
       </c>
       <c r="M12">
-        <v>0.8763060842582592</v>
+        <v>0.8062647881768318</v>
       </c>
       <c r="N12">
-        <v>0.7795741628146908</v>
+        <v>0.8775870222185991</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7334749809515225</v>
+        <v>0.8389125368603633</v>
       </c>
       <c r="D13">
-        <v>0.9827842997260914</v>
+        <v>1.010692747233954</v>
       </c>
       <c r="E13">
-        <v>0.775021592227602</v>
+        <v>0.8680197330739274</v>
       </c>
       <c r="F13">
-        <v>0.8588151725267091</v>
+        <v>0.7871378584881522</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022288594526882</v>
+        <v>1.030177134875901</v>
       </c>
       <c r="J13">
-        <v>0.7784686480428681</v>
+        <v>0.8774111840745021</v>
       </c>
       <c r="K13">
-        <v>0.9974715051041512</v>
+        <v>1.025574562858119</v>
       </c>
       <c r="L13">
-        <v>0.79512676632738</v>
+        <v>0.8861482583120635</v>
       </c>
       <c r="M13">
-        <v>0.8763060842582592</v>
+        <v>0.8078485373549886</v>
       </c>
       <c r="N13">
-        <v>0.7795741628146908</v>
+        <v>0.8786572085963574</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7334749809515225</v>
+        <v>0.8430402898759156</v>
       </c>
       <c r="D14">
-        <v>0.9827842997260914</v>
+        <v>1.011425007390841</v>
       </c>
       <c r="E14">
-        <v>0.775021592227602</v>
+        <v>0.8714658767956273</v>
       </c>
       <c r="F14">
-        <v>0.8588151725267091</v>
+        <v>0.7926188997489946</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022288594526882</v>
+        <v>1.030639271630376</v>
       </c>
       <c r="J14">
-        <v>0.7784686480428681</v>
+        <v>0.8808429740566376</v>
       </c>
       <c r="K14">
-        <v>0.9974715051041512</v>
+        <v>1.02615132450671</v>
       </c>
       <c r="L14">
-        <v>0.79512676632738</v>
+        <v>0.8893213183710843</v>
       </c>
       <c r="M14">
-        <v>0.8763060842582592</v>
+        <v>0.8129247422374307</v>
       </c>
       <c r="N14">
-        <v>0.7795741628146908</v>
+        <v>0.8820938721138996</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7334749809515225</v>
+        <v>0.8455230077855291</v>
       </c>
       <c r="D15">
-        <v>0.9827842997260914</v>
+        <v>1.011869566258656</v>
       </c>
       <c r="E15">
-        <v>0.775021592227602</v>
+        <v>0.8735400316405009</v>
       </c>
       <c r="F15">
-        <v>0.8588151725267091</v>
+        <v>0.7959069532649298</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022288594526882</v>
+        <v>1.030917931379721</v>
       </c>
       <c r="J15">
-        <v>0.7784686480428681</v>
+        <v>0.8829068737179958</v>
       </c>
       <c r="K15">
-        <v>0.9974715051041512</v>
+        <v>1.02650035459203</v>
       </c>
       <c r="L15">
-        <v>0.79512676632738</v>
+        <v>0.8912301684236069</v>
       </c>
       <c r="M15">
-        <v>0.8763060842582592</v>
+        <v>0.8159707254040528</v>
       </c>
       <c r="N15">
-        <v>0.7795741628146908</v>
+        <v>0.8841607027495093</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7334749809515225</v>
+        <v>0.8591685097431524</v>
       </c>
       <c r="D16">
-        <v>0.9827842997260914</v>
+        <v>1.014367838862679</v>
       </c>
       <c r="E16">
-        <v>0.775021592227602</v>
+        <v>0.8849583541236552</v>
       </c>
       <c r="F16">
-        <v>0.8588151725267091</v>
+        <v>0.813871627803766</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022288594526882</v>
+        <v>1.032458040906097</v>
       </c>
       <c r="J16">
-        <v>0.7784686480428681</v>
+        <v>0.8942473340042698</v>
       </c>
       <c r="K16">
-        <v>0.9974715051041512</v>
+        <v>1.028446503892567</v>
       </c>
       <c r="L16">
-        <v>0.79512676632738</v>
+        <v>0.9017257920468512</v>
       </c>
       <c r="M16">
-        <v>0.8763060842582592</v>
+        <v>0.832622061232446</v>
       </c>
       <c r="N16">
-        <v>0.7795741628146908</v>
+        <v>0.8955172677901588</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7334749809515225</v>
+        <v>0.8671225913778869</v>
       </c>
       <c r="D17">
-        <v>0.9827842997260914</v>
+        <v>1.015866525841915</v>
       </c>
       <c r="E17">
-        <v>0.775021592227602</v>
+        <v>0.8916280927236701</v>
       </c>
       <c r="F17">
-        <v>0.8588151725267091</v>
+        <v>0.8242670920073857</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022288594526882</v>
+        <v>1.033361628386569</v>
       </c>
       <c r="J17">
-        <v>0.7784686480428681</v>
+        <v>0.9008550681406616</v>
       </c>
       <c r="K17">
-        <v>0.9974715051041512</v>
+        <v>1.029601961391372</v>
       </c>
       <c r="L17">
-        <v>0.79512676632738</v>
+        <v>0.907846564162413</v>
       </c>
       <c r="M17">
-        <v>0.8763060842582592</v>
+        <v>0.8422635999324951</v>
       </c>
       <c r="N17">
-        <v>0.7795741628146908</v>
+        <v>0.9021343856669422</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7334749809515225</v>
+        <v>0.8715769201544327</v>
       </c>
       <c r="D18">
-        <v>0.9827842997260914</v>
+        <v>1.01671929121136</v>
       </c>
       <c r="E18">
-        <v>0.775021592227602</v>
+        <v>0.8953675017277903</v>
       </c>
       <c r="F18">
-        <v>0.8588151725267091</v>
+        <v>0.8300664112124083</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022288594526882</v>
+        <v>1.033869214019955</v>
       </c>
       <c r="J18">
-        <v>0.7784686480428681</v>
+        <v>0.9045544418803523</v>
       </c>
       <c r="K18">
-        <v>0.9974715051041512</v>
+        <v>1.030255536395219</v>
       </c>
       <c r="L18">
-        <v>0.79512676632738</v>
+        <v>0.9112749323856997</v>
       </c>
       <c r="M18">
-        <v>0.8763060842582592</v>
+        <v>0.847643888437031</v>
       </c>
       <c r="N18">
-        <v>0.7795741628146908</v>
+        <v>0.9058390129416674</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7334749809515225</v>
+        <v>0.8730668787793511</v>
       </c>
       <c r="D19">
-        <v>0.9827842997260914</v>
+        <v>1.017006686723203</v>
       </c>
       <c r="E19">
-        <v>0.775021592227602</v>
+        <v>0.8966190010831178</v>
       </c>
       <c r="F19">
-        <v>0.8588151725267091</v>
+        <v>0.8320028943808804</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022288594526882</v>
+        <v>1.034039223329983</v>
       </c>
       <c r="J19">
-        <v>0.7784686480428681</v>
+        <v>0.9057916992553702</v>
       </c>
       <c r="K19">
-        <v>0.9974715051041512</v>
+        <v>1.030475175642361</v>
       </c>
       <c r="L19">
-        <v>0.79512676632738</v>
+        <v>0.9124218053356872</v>
       </c>
       <c r="M19">
-        <v>0.8763060842582592</v>
+        <v>0.8494406691686769</v>
       </c>
       <c r="N19">
-        <v>0.7795741628146908</v>
+        <v>0.9070780273640729</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7334749809515225</v>
+        <v>0.866288981806171</v>
       </c>
       <c r="D20">
-        <v>0.9827842997260914</v>
+        <v>1.015708006854391</v>
       </c>
       <c r="E20">
-        <v>0.775021592227602</v>
+        <v>0.8909286186438049</v>
       </c>
       <c r="F20">
-        <v>0.8588151725267091</v>
+        <v>0.8231800510113854</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022288594526882</v>
+        <v>1.033266754056741</v>
       </c>
       <c r="J20">
-        <v>0.7784686480428681</v>
+        <v>0.9001626631774285</v>
       </c>
       <c r="K20">
-        <v>0.9974715051041512</v>
+        <v>1.029480161092664</v>
       </c>
       <c r="L20">
-        <v>0.79512676632738</v>
+        <v>0.9072050105435977</v>
       </c>
       <c r="M20">
-        <v>0.8763060842582592</v>
+        <v>0.841255219852963</v>
       </c>
       <c r="N20">
-        <v>0.7795741628146908</v>
+        <v>0.9014409974092413</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7334749809515225</v>
+        <v>0.8418377069782613</v>
       </c>
       <c r="D21">
-        <v>0.9827842997260914</v>
+        <v>1.011210784335872</v>
       </c>
       <c r="E21">
-        <v>0.775021592227602</v>
+        <v>0.8704615721711024</v>
       </c>
       <c r="F21">
-        <v>0.8588151725267091</v>
+        <v>0.7910239239466671</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022288594526882</v>
+        <v>1.030504480307798</v>
       </c>
       <c r="J21">
-        <v>0.7784686480428681</v>
+        <v>0.8798431997542622</v>
       </c>
       <c r="K21">
-        <v>0.9974715051041512</v>
+        <v>1.025982832785545</v>
       </c>
       <c r="L21">
-        <v>0.79512676632738</v>
+        <v>0.8883967999274709</v>
       </c>
       <c r="M21">
-        <v>0.8763060842582592</v>
+        <v>0.8114473999791382</v>
       </c>
       <c r="N21">
-        <v>0.7795741628146908</v>
+        <v>0.8810926780173388</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>0.7334749809515225</v>
+        <v>0.8238992306747437</v>
       </c>
       <c r="D22">
-        <v>0.9827842997260914</v>
+        <v>1.008102259991106</v>
       </c>
       <c r="E22">
-        <v>0.775021592227602</v>
+        <v>0.8555107804793939</v>
       </c>
       <c r="F22">
-        <v>0.8588151725267091</v>
+        <v>0.7670380298802439</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022288594526882</v>
+        <v>1.028509556116443</v>
       </c>
       <c r="J22">
-        <v>0.7784686480428681</v>
+        <v>0.864925556540019</v>
       </c>
       <c r="K22">
-        <v>0.9974715051041512</v>
+        <v>1.023514900337999</v>
       </c>
       <c r="L22">
-        <v>0.79512676632738</v>
+        <v>0.8746140666599503</v>
       </c>
       <c r="M22">
-        <v>0.8763060842582592</v>
+        <v>0.7892491998652774</v>
       </c>
       <c r="N22">
-        <v>0.7795741628146908</v>
+        <v>0.866153850038654</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7334749809515225</v>
+        <v>0.8337149867345914</v>
       </c>
       <c r="D23">
-        <v>0.9827842997260914</v>
+        <v>1.009782948984827</v>
       </c>
       <c r="E23">
-        <v>0.775021592227602</v>
+        <v>0.863684652576176</v>
       </c>
       <c r="F23">
-        <v>0.8588151725267091</v>
+        <v>0.7802096211590138</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022288594526882</v>
+        <v>1.029597387853191</v>
       </c>
       <c r="J23">
-        <v>0.7784686480428681</v>
+        <v>0.8730893466946585</v>
       </c>
       <c r="K23">
-        <v>0.9974715051041512</v>
+        <v>1.024854682061048</v>
       </c>
       <c r="L23">
-        <v>0.79512676632738</v>
+        <v>0.8821539244257487</v>
       </c>
       <c r="M23">
-        <v>0.8763060842582592</v>
+        <v>0.8014345451459171</v>
       </c>
       <c r="N23">
-        <v>0.7795741628146908</v>
+        <v>0.8743292337117127</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.7334749809515225</v>
+        <v>0.8666662185336397</v>
       </c>
       <c r="D24">
-        <v>0.9827842997260914</v>
+        <v>1.015779700110103</v>
       </c>
       <c r="E24">
-        <v>0.775021592227602</v>
+        <v>0.8912451410783885</v>
       </c>
       <c r="F24">
-        <v>0.8588151725267091</v>
+        <v>0.8236720426197011</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022288594526882</v>
+        <v>1.033309683109205</v>
       </c>
       <c r="J24">
-        <v>0.7784686480428681</v>
+        <v>0.9004760031352739</v>
       </c>
       <c r="K24">
-        <v>0.9974715051041512</v>
+        <v>1.029535259658665</v>
       </c>
       <c r="L24">
-        <v>0.79512676632738</v>
+        <v>0.9074953332727365</v>
       </c>
       <c r="M24">
-        <v>0.8763060842582592</v>
+        <v>0.8417116049867573</v>
       </c>
       <c r="N24">
-        <v>0.7795741628146908</v>
+        <v>0.9017547823457671</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7334749809515225</v>
+        <v>0.8976436890228273</v>
       </c>
       <c r="D25">
-        <v>0.9827842997260914</v>
+        <v>1.02190030093762</v>
       </c>
       <c r="E25">
-        <v>0.775021592227602</v>
+        <v>0.9173094830522646</v>
       </c>
       <c r="F25">
-        <v>0.8588151725267091</v>
+        <v>0.8637283407558254</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.022288594526882</v>
+        <v>1.036854693953109</v>
       </c>
       <c r="J25">
-        <v>0.7784686480428681</v>
+        <v>0.9261854764611712</v>
       </c>
       <c r="K25">
-        <v>0.9974715051041512</v>
+        <v>1.034167896083411</v>
       </c>
       <c r="L25">
-        <v>0.79512676632738</v>
+        <v>0.93134315664624</v>
       </c>
       <c r="M25">
-        <v>0.8763060842582592</v>
+        <v>0.8788882079796961</v>
       </c>
       <c r="N25">
-        <v>0.7795741628146908</v>
+        <v>0.9275007660727052</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9187845959075966</v>
+        <v>0.9878331782215695</v>
       </c>
       <c r="D2">
-        <v>1.02633455963112</v>
+        <v>1.027144172804355</v>
       </c>
       <c r="E2">
-        <v>0.9351735191444482</v>
+        <v>0.9959958136374506</v>
       </c>
       <c r="F2">
-        <v>0.890748143181287</v>
+        <v>0.9640303571623214</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039279878875931</v>
+        <v>1.043680449383873</v>
       </c>
       <c r="J2">
-        <v>0.9436990102855402</v>
+        <v>1.010383988186711</v>
       </c>
       <c r="K2">
-        <v>1.037438809783654</v>
+        <v>1.038237867830319</v>
       </c>
       <c r="L2">
-        <v>0.9476165004948681</v>
+        <v>1.007511216460548</v>
       </c>
       <c r="M2">
-        <v>0.9039731456015214</v>
+        <v>0.976014641829468</v>
       </c>
       <c r="N2">
-        <v>0.9450391711239352</v>
+        <v>1.007501942593559</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9326744868666602</v>
+        <v>0.9920464486252848</v>
       </c>
       <c r="D3">
-        <v>1.029356661436854</v>
+        <v>1.029437033921957</v>
       </c>
       <c r="E3">
-        <v>0.9469406606328719</v>
+        <v>0.9993190743040264</v>
       </c>
       <c r="F3">
-        <v>0.9083969536145237</v>
+        <v>0.9709727984037309</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040864596300502</v>
+        <v>1.044770172370866</v>
       </c>
       <c r="J3">
-        <v>0.9551854115288381</v>
+        <v>1.012756309074974</v>
       </c>
       <c r="K3">
-        <v>1.039627207261034</v>
+        <v>1.039706622923066</v>
       </c>
       <c r="L3">
-        <v>0.9583006914342757</v>
+        <v>1.009960675122144</v>
       </c>
       <c r="M3">
-        <v>0.9203536007598152</v>
+        <v>0.9819910730952776</v>
       </c>
       <c r="N3">
-        <v>0.956541884374507</v>
+        <v>1.008293697019923</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9411177171854023</v>
+        <v>0.9947128660946702</v>
       </c>
       <c r="D4">
-        <v>1.031234366117685</v>
+        <v>1.030890716456739</v>
       </c>
       <c r="E4">
-        <v>0.9541043564232922</v>
+        <v>1.001428110433476</v>
       </c>
       <c r="F4">
-        <v>0.9190934098460182</v>
+        <v>0.9753526955637591</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041820925179744</v>
+        <v>1.045447628665352</v>
       </c>
       <c r="J4">
-        <v>0.9621577688020021</v>
+        <v>1.014252791110967</v>
       </c>
       <c r="K4">
-        <v>1.040969886554804</v>
+        <v>1.040630082326203</v>
       </c>
       <c r="L4">
-        <v>0.9647901911313699</v>
+        <v>1.011509329925643</v>
       </c>
       <c r="M4">
-        <v>0.9302774600096996</v>
+        <v>0.9857579847456988</v>
       </c>
       <c r="N4">
-        <v>0.9635241431947396</v>
+        <v>1.008793074604049</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9445520623410546</v>
+        <v>0.995820035218295</v>
       </c>
       <c r="D5">
-        <v>1.032006720000047</v>
+        <v>1.0314948515281</v>
       </c>
       <c r="E5">
-        <v>0.9570204661561401</v>
+        <v>1.002305212423851</v>
       </c>
       <c r="F5">
-        <v>0.9234384627164823</v>
+        <v>0.9771684744929208</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042207869082636</v>
+        <v>1.0457259495885</v>
       </c>
       <c r="J5">
-        <v>0.9649913845163619</v>
+        <v>1.014872992363759</v>
       </c>
       <c r="K5">
-        <v>1.04151829656326</v>
+        <v>1.041012004151161</v>
       </c>
       <c r="L5">
-        <v>0.967428429301044</v>
+        <v>1.012151991009246</v>
       </c>
       <c r="M5">
-        <v>0.9343075429889268</v>
+        <v>0.9873187540500388</v>
       </c>
       <c r="N5">
-        <v>0.9663617829684339</v>
+        <v>1.009000017196956</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9451223343083192</v>
+        <v>0.9960051399594114</v>
       </c>
       <c r="D6">
-        <v>1.032135443514591</v>
+        <v>1.031595883366724</v>
       </c>
       <c r="E6">
-        <v>0.9575048066477747</v>
+        <v>1.002451932517565</v>
       </c>
       <c r="F6">
-        <v>0.9241596604851439</v>
+        <v>0.9774718924638061</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042271990167483</v>
+        <v>1.045772304767457</v>
       </c>
       <c r="J6">
-        <v>0.9654617597264727</v>
+        <v>1.014976612577503</v>
       </c>
       <c r="K6">
-        <v>1.041609474253562</v>
+        <v>1.0410757650973</v>
       </c>
       <c r="L6">
-        <v>0.9678664196613532</v>
+        <v>1.01225941279725</v>
       </c>
       <c r="M6">
-        <v>0.9349763901309412</v>
+        <v>0.9875795068406179</v>
       </c>
       <c r="N6">
-        <v>0.9668328261652959</v>
+        <v>1.009034590951588</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9411640418958221</v>
+        <v>0.9947277136525901</v>
       </c>
       <c r="D7">
-        <v>1.031244751395088</v>
+        <v>1.030898816188368</v>
       </c>
       <c r="E7">
-        <v>0.9541436824225341</v>
+        <v>1.001439867325772</v>
       </c>
       <c r="F7">
-        <v>0.919152039806361</v>
+        <v>0.9753770566767026</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041826153163312</v>
+        <v>1.045451372889792</v>
       </c>
       <c r="J7">
-        <v>0.9621960002926931</v>
+        <v>1.014261112917992</v>
       </c>
       <c r="K7">
-        <v>1.040977275729545</v>
+        <v>1.040635210154629</v>
       </c>
       <c r="L7">
-        <v>0.9648257832872443</v>
+        <v>1.011517949791893</v>
       </c>
       <c r="M7">
-        <v>0.930331844657045</v>
+        <v>0.985778928098324</v>
       </c>
       <c r="N7">
-        <v>0.9635624289785326</v>
+        <v>1.008795851421508</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9236016633415823</v>
+        <v>0.9892697976408601</v>
       </c>
       <c r="D8">
-        <v>1.027373064824379</v>
+        <v>1.027925367747707</v>
       </c>
       <c r="E8">
-        <v>0.9392518179835988</v>
+        <v>0.9971277069563286</v>
       </c>
       <c r="F8">
-        <v>0.89687693808539</v>
+        <v>0.9664006969822521</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039830714173705</v>
+        <v>1.044054543405249</v>
       </c>
       <c r="J8">
-        <v>0.9476846186835812</v>
+        <v>1.011193906014885</v>
       </c>
       <c r="K8">
-        <v>1.038194589367382</v>
+        <v>1.038739905248518</v>
       </c>
       <c r="L8">
-        <v>0.9513227842134356</v>
+        <v>1.008346726362165</v>
       </c>
       <c r="M8">
-        <v>0.9096621832366166</v>
+        <v>0.9780558832189248</v>
       </c>
       <c r="N8">
-        <v>0.9490304395430569</v>
+        <v>1.007772262738724</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8875732420976574</v>
+        <v>0.9791680795551903</v>
       </c>
       <c r="D9">
-        <v>1.019860518040081</v>
+        <v>1.022447864404838</v>
       </c>
       <c r="E9">
-        <v>0.9088209940839346</v>
+        <v>0.9891952566733038</v>
       </c>
       <c r="F9">
-        <v>0.8507750582992381</v>
+        <v>0.9496561746003614</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035699127170729</v>
+        <v>1.041374382759595</v>
       </c>
       <c r="J9">
-        <v>0.917832713084117</v>
+        <v>1.005478538430671</v>
       </c>
       <c r="K9">
-        <v>1.03263938546995</v>
+        <v>1.03518694464162</v>
       </c>
       <c r="L9">
-        <v>0.9235896018517318</v>
+        <v>1.002466099990162</v>
       </c>
       <c r="M9">
-        <v>0.8668630770987205</v>
+        <v>0.9636225099675141</v>
       </c>
       <c r="N9">
-        <v>0.9191361408135802</v>
+        <v>1.005864511602944</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.858242400360488</v>
+        <v>0.9720690645552084</v>
       </c>
       <c r="D10">
-        <v>1.014195363427737</v>
+        <v>1.018623438325829</v>
       </c>
       <c r="E10">
-        <v>0.8841824376192107</v>
+        <v>0.9836563307529789</v>
       </c>
       <c r="F10">
-        <v>0.8126577879890901</v>
+        <v>0.9377667296643812</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032353092559849</v>
+        <v>1.039430079242869</v>
       </c>
       <c r="J10">
-        <v>0.8934778445688419</v>
+        <v>1.001436421809726</v>
       </c>
       <c r="K10">
-        <v>1.028312960566716</v>
+        <v>1.032664389694223</v>
       </c>
       <c r="L10">
-        <v>0.9010132582509537</v>
+        <v>0.998327081268529</v>
       </c>
       <c r="M10">
-        <v>0.8314965166873196</v>
+        <v>0.9533585222511103</v>
       </c>
       <c r="N10">
-        <v>0.894746685591471</v>
+        <v>1.004515187641833</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8435176582005325</v>
+        <v>0.9688989781372815</v>
       </c>
       <c r="D11">
-        <v>1.011510245348069</v>
+        <v>1.016923295331665</v>
       </c>
       <c r="E11">
-        <v>0.871864606596224</v>
+        <v>0.9811919845911032</v>
       </c>
       <c r="F11">
-        <v>0.7932516094628526</v>
+        <v>0.9324198064222083</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030692811393211</v>
+        <v>1.038548206518425</v>
       </c>
       <c r="J11">
-        <v>0.8812398263378749</v>
+        <v>0.9996253800375892</v>
       </c>
       <c r="K11">
-        <v>1.026218311474454</v>
+        <v>1.031532967527974</v>
       </c>
       <c r="L11">
-        <v>0.8896883253810518</v>
+        <v>0.996477527798362</v>
       </c>
       <c r="M11">
-        <v>0.8135108263646412</v>
+        <v>0.9487395742368203</v>
       </c>
       <c r="N11">
-        <v>0.8824912879708955</v>
+        <v>1.003910654561352</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8376272519999682</v>
+        <v>0.9677061094965151</v>
       </c>
       <c r="D12">
-        <v>1.010466493452348</v>
+        <v>1.01628486062961</v>
       </c>
       <c r="E12">
-        <v>0.866947286239684</v>
+        <v>0.9802660975476495</v>
       </c>
       <c r="F12">
-        <v>0.78542742211448</v>
+        <v>0.9304013219137919</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030033542169658</v>
+        <v>1.038214387694913</v>
       </c>
       <c r="J12">
-        <v>0.8763425153289408</v>
+        <v>0.9989430015649639</v>
       </c>
       <c r="K12">
-        <v>1.025395882057178</v>
+        <v>1.031106580264738</v>
       </c>
       <c r="L12">
-        <v>0.8851603966713563</v>
+        <v>0.9957813918335894</v>
       </c>
       <c r="M12">
-        <v>0.8062647881768318</v>
+        <v>0.9469955130271465</v>
       </c>
       <c r="N12">
-        <v>0.8775870222185991</v>
+        <v>1.003682881045397</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8389125368603633</v>
+        <v>0.9679626943233829</v>
       </c>
       <c r="D13">
-        <v>1.010692747233954</v>
+        <v>1.016422125443295</v>
       </c>
       <c r="E13">
-        <v>0.8680197330739274</v>
+        <v>0.9804651898776126</v>
       </c>
       <c r="F13">
-        <v>0.7871378584881522</v>
+        <v>0.9308358038176093</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030177134875901</v>
+        <v>1.038286280081929</v>
       </c>
       <c r="J13">
-        <v>0.8774111840745021</v>
+        <v>0.9990898212955982</v>
       </c>
       <c r="K13">
-        <v>1.025574562858119</v>
+        <v>1.031198323221498</v>
       </c>
       <c r="L13">
-        <v>0.8861482583120635</v>
+        <v>0.9959311373045128</v>
       </c>
       <c r="M13">
-        <v>0.8078485373549886</v>
+        <v>0.9473709414046783</v>
       </c>
       <c r="N13">
-        <v>0.8786572085963574</v>
+        <v>1.003731888132511</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8430402898759156</v>
+        <v>0.9688006940779555</v>
       </c>
       <c r="D14">
-        <v>1.011425007390841</v>
+        <v>1.016870665193473</v>
       </c>
       <c r="E14">
-        <v>0.8714658767956273</v>
+        <v>0.9811156687903637</v>
       </c>
       <c r="F14">
-        <v>0.7926188997489946</v>
+        <v>0.932253634527758</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030639271630376</v>
+        <v>1.038520741992606</v>
       </c>
       <c r="J14">
-        <v>0.8808429740566376</v>
+        <v>0.9995691751656691</v>
       </c>
       <c r="K14">
-        <v>1.02615132450671</v>
+        <v>1.031497848708413</v>
       </c>
       <c r="L14">
-        <v>0.8893213183710843</v>
+        <v>0.9964201743758375</v>
       </c>
       <c r="M14">
-        <v>0.8129247422374307</v>
+        <v>0.9485960017867174</v>
       </c>
       <c r="N14">
-        <v>0.8820938721138996</v>
+        <v>1.003891893570249</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8455230077855291</v>
+        <v>0.9693149497976995</v>
       </c>
       <c r="D15">
-        <v>1.011869566258656</v>
+        <v>1.017146098378676</v>
       </c>
       <c r="E15">
-        <v>0.8735400316405009</v>
+        <v>0.9815150372457947</v>
       </c>
       <c r="F15">
-        <v>0.7959069532649298</v>
+        <v>0.9331228326691485</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030917931379721</v>
+        <v>1.038664365518764</v>
       </c>
       <c r="J15">
-        <v>0.8829068737179958</v>
+        <v>0.9998632214223087</v>
       </c>
       <c r="K15">
-        <v>1.02650035459203</v>
+        <v>1.031681576662158</v>
       </c>
       <c r="L15">
-        <v>0.8912301684236069</v>
+        <v>0.9967202602625406</v>
       </c>
       <c r="M15">
-        <v>0.8159707254040528</v>
+        <v>0.9493469731564073</v>
       </c>
       <c r="N15">
-        <v>0.8841607027495093</v>
+        <v>1.003990045505696</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>0.8591685097431524</v>
+        <v>0.9722773508293105</v>
       </c>
       <c r="D16">
-        <v>1.014367838862679</v>
+        <v>1.018735316647326</v>
       </c>
       <c r="E16">
-        <v>0.8849583541236552</v>
+        <v>0.9838184408458832</v>
       </c>
       <c r="F16">
-        <v>0.813871627803766</v>
+        <v>0.9381171898438696</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032458040906097</v>
+        <v>1.039487743479638</v>
       </c>
       <c r="J16">
-        <v>0.8942473340042698</v>
+        <v>1.001555288738671</v>
       </c>
       <c r="K16">
-        <v>1.028446503892567</v>
+        <v>1.032738633285383</v>
       </c>
       <c r="L16">
-        <v>0.9017257920468512</v>
+        <v>0.9984485791644521</v>
       </c>
       <c r="M16">
-        <v>0.832622061232446</v>
+        <v>0.9536612103146086</v>
       </c>
       <c r="N16">
-        <v>0.8955172677901588</v>
+        <v>1.004554866684492</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8671225913778869</v>
+        <v>0.9741092230716003</v>
       </c>
       <c r="D17">
-        <v>1.015866525841915</v>
+        <v>1.019720173171305</v>
       </c>
       <c r="E17">
-        <v>0.8916280927236701</v>
+        <v>0.9852452330808984</v>
       </c>
       <c r="F17">
-        <v>0.8242670920073857</v>
+        <v>0.9411951068414233</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033361628386569</v>
+        <v>1.039993357097258</v>
       </c>
       <c r="J17">
-        <v>0.9008550681406616</v>
+        <v>1.002600036292543</v>
       </c>
       <c r="K17">
-        <v>1.029601961391372</v>
+        <v>1.033391050900007</v>
       </c>
       <c r="L17">
-        <v>0.907846564162413</v>
+        <v>0.9995170091001108</v>
       </c>
       <c r="M17">
-        <v>0.8422635999324951</v>
+        <v>0.956319233141421</v>
       </c>
       <c r="N17">
-        <v>0.9021343856669422</v>
+        <v>1.00490361746001</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8715769201544327</v>
+        <v>0.9751685100653833</v>
       </c>
       <c r="D18">
-        <v>1.01671929121136</v>
+        <v>1.020290385428146</v>
       </c>
       <c r="E18">
-        <v>0.8953675017277903</v>
+        <v>0.9860711371632421</v>
       </c>
       <c r="F18">
-        <v>0.8300664112124083</v>
+        <v>0.9429714167692457</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033869214019955</v>
+        <v>1.040284433576854</v>
       </c>
       <c r="J18">
-        <v>0.9045544418803523</v>
+        <v>1.003203595074019</v>
       </c>
       <c r="K18">
-        <v>1.030255536395219</v>
+        <v>1.033767836431245</v>
       </c>
       <c r="L18">
-        <v>0.9112749323856997</v>
+        <v>1.000134711873749</v>
       </c>
       <c r="M18">
-        <v>0.847643888437031</v>
+        <v>0.9578529262523525</v>
       </c>
       <c r="N18">
-        <v>0.9058390129416674</v>
+        <v>1.005105095310361</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8730668787793511</v>
+        <v>0.9755281631761659</v>
       </c>
       <c r="D19">
-        <v>1.017006686723203</v>
+        <v>1.020484102795378</v>
       </c>
       <c r="E19">
-        <v>0.8966190010831178</v>
+        <v>0.9863516948371176</v>
       </c>
       <c r="F19">
-        <v>0.8320028943808804</v>
+        <v>0.9435739447673328</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034039223329983</v>
+        <v>1.040383039017029</v>
       </c>
       <c r="J19">
-        <v>0.9057916992553702</v>
+        <v>1.003408420778893</v>
       </c>
       <c r="K19">
-        <v>1.030475175642361</v>
+        <v>1.033895680170738</v>
       </c>
       <c r="L19">
-        <v>0.9124218053356872</v>
+        <v>1.000344415528493</v>
       </c>
       <c r="M19">
-        <v>0.8494406691686769</v>
+        <v>0.958373107150422</v>
       </c>
       <c r="N19">
-        <v>0.9070780273640729</v>
+        <v>1.005173469695655</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.866288981806171</v>
+        <v>0.9739136397867585</v>
       </c>
       <c r="D20">
-        <v>1.015708006854391</v>
+        <v>1.019614947781526</v>
       </c>
       <c r="E20">
-        <v>0.8909286186438049</v>
+        <v>0.9850928096893369</v>
       </c>
       <c r="F20">
-        <v>0.8231800510113854</v>
+        <v>0.9408668568783934</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033266754056741</v>
+        <v>1.039939508374257</v>
       </c>
       <c r="J20">
-        <v>0.9001626631774285</v>
+        <v>1.002488551033029</v>
       </c>
       <c r="K20">
-        <v>1.029480161092664</v>
+        <v>1.033321443150013</v>
       </c>
       <c r="L20">
-        <v>0.9072050105435977</v>
+        <v>0.9994029485625493</v>
       </c>
       <c r="M20">
-        <v>0.841255219852963</v>
+        <v>0.9560357932152227</v>
       </c>
       <c r="N20">
-        <v>0.9014409974092413</v>
+        <v>1.004866401966285</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8418377069782613</v>
+        <v>0.9685543556902335</v>
       </c>
       <c r="D21">
-        <v>1.011210784335872</v>
+        <v>1.016738775090216</v>
       </c>
       <c r="E21">
-        <v>0.8704615721711024</v>
+        <v>0.9809244145204489</v>
       </c>
       <c r="F21">
-        <v>0.7910239239466671</v>
+        <v>0.9318370349695325</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030504480307798</v>
+        <v>1.038451873479745</v>
       </c>
       <c r="J21">
-        <v>0.8798431997542622</v>
+        <v>0.9994282891715692</v>
       </c>
       <c r="K21">
-        <v>1.025982832785545</v>
+        <v>1.031409817132995</v>
       </c>
       <c r="L21">
-        <v>0.8883967999274709</v>
+        <v>0.9962764215519347</v>
       </c>
       <c r="M21">
-        <v>0.8114473999791382</v>
+        <v>0.9482360538882184</v>
       </c>
       <c r="N21">
-        <v>0.8810926780173388</v>
+        <v>1.003844866443676</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8238992306747437</v>
+        <v>0.9650953959892129</v>
       </c>
       <c r="D22">
-        <v>1.008102259991106</v>
+        <v>1.01489017605468</v>
       </c>
       <c r="E22">
-        <v>0.8555107804793939</v>
+        <v>0.978242374732891</v>
       </c>
       <c r="F22">
-        <v>0.7670380298802439</v>
+        <v>0.9259706980053493</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028509556116443</v>
+        <v>1.037480227170605</v>
       </c>
       <c r="J22">
-        <v>0.864925556540019</v>
+        <v>0.9974478839418419</v>
       </c>
       <c r="K22">
-        <v>1.023514900337999</v>
+        <v>1.03017231644446</v>
       </c>
       <c r="L22">
-        <v>0.8746140666599503</v>
+        <v>0.9942575377058569</v>
       </c>
       <c r="M22">
-        <v>0.7892491998652774</v>
+        <v>0.943166613479654</v>
       </c>
       <c r="N22">
-        <v>0.866153850038654</v>
+        <v>1.003183838109775</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8337149867345914</v>
+        <v>0.9669378523412256</v>
       </c>
       <c r="D23">
-        <v>1.009782948984827</v>
+        <v>1.01587407196043</v>
       </c>
       <c r="E23">
-        <v>0.863684652576176</v>
+        <v>0.979670194764529</v>
       </c>
       <c r="F23">
-        <v>0.7802096211590138</v>
+        <v>0.9290993895795688</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029597387853191</v>
+        <v>1.037998845367867</v>
       </c>
       <c r="J23">
-        <v>0.8730893466946585</v>
+        <v>0.9985032666917372</v>
       </c>
       <c r="K23">
-        <v>1.024854682061048</v>
+        <v>1.030831800180437</v>
       </c>
       <c r="L23">
-        <v>0.8821539244257487</v>
+        <v>0.9953330059493278</v>
       </c>
       <c r="M23">
-        <v>0.8014345451459171</v>
+        <v>0.9458704837275422</v>
       </c>
       <c r="N23">
-        <v>0.8743292337117127</v>
+        <v>1.003536102914695</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8666662185336397</v>
+        <v>0.9740020438589283</v>
       </c>
       <c r="D24">
-        <v>1.015779700110103</v>
+        <v>1.019662507681095</v>
       </c>
       <c r="E24">
-        <v>0.8912451410783885</v>
+        <v>0.9851617027442855</v>
       </c>
       <c r="F24">
-        <v>0.8236720426197011</v>
+        <v>0.941015237394451</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033309683109205</v>
+        <v>1.039963852141111</v>
       </c>
       <c r="J24">
-        <v>0.9004760031352739</v>
+        <v>1.002538944383291</v>
       </c>
       <c r="K24">
-        <v>1.029535259658665</v>
+        <v>1.033352907493407</v>
       </c>
       <c r="L24">
-        <v>0.9074953332727365</v>
+        <v>0.9994545045511587</v>
       </c>
       <c r="M24">
-        <v>0.8417116049867573</v>
+        <v>0.9561639189248652</v>
       </c>
       <c r="N24">
-        <v>0.9017547823457671</v>
+        <v>1.00488322403606</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8976436890228273</v>
+        <v>0.9818408198973738</v>
       </c>
       <c r="D25">
-        <v>1.02190030093762</v>
+        <v>1.023893383779977</v>
       </c>
       <c r="E25">
-        <v>0.9173094830522646</v>
+        <v>0.9912881164894548</v>
       </c>
       <c r="F25">
-        <v>0.8637283407558254</v>
+        <v>0.9541048946324061</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036854693953109</v>
+        <v>1.042094216035494</v>
       </c>
       <c r="J25">
-        <v>0.9261854764611712</v>
+        <v>1.006995157617426</v>
       </c>
       <c r="K25">
-        <v>1.034167896083411</v>
+        <v>1.036131772377404</v>
       </c>
       <c r="L25">
-        <v>0.93134315664624</v>
+        <v>1.004023195641613</v>
       </c>
       <c r="M25">
-        <v>0.8788882079796961</v>
+        <v>0.9674600640791484</v>
       </c>
       <c r="N25">
-        <v>0.9275007660727052</v>
+        <v>1.006370778661645</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9878331782215695</v>
+        <v>1.017487223972259</v>
       </c>
       <c r="D2">
-        <v>1.027144172804355</v>
+        <v>1.02931213346166</v>
       </c>
       <c r="E2">
-        <v>0.9959958136374506</v>
+        <v>1.018881255138838</v>
       </c>
       <c r="F2">
-        <v>0.9640303571623214</v>
+        <v>1.015850058452286</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043680449383873</v>
+        <v>1.03127810702048</v>
       </c>
       <c r="J2">
-        <v>1.010383988186711</v>
+        <v>1.022701060423484</v>
       </c>
       <c r="K2">
-        <v>1.038237867830319</v>
+        <v>1.032126410341878</v>
       </c>
       <c r="L2">
-        <v>1.007511216460548</v>
+        <v>1.021726154768394</v>
       </c>
       <c r="M2">
-        <v>0.976014641829468</v>
+        <v>1.018703985416108</v>
       </c>
       <c r="N2">
-        <v>1.007501942593559</v>
+        <v>1.011669028973444</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9920464486252848</v>
+        <v>1.01835376443172</v>
       </c>
       <c r="D3">
-        <v>1.029437033921957</v>
+        <v>1.029776817588451</v>
       </c>
       <c r="E3">
-        <v>0.9993190743040264</v>
+        <v>1.019613570787166</v>
       </c>
       <c r="F3">
-        <v>0.9709727984037309</v>
+        <v>1.017357151644581</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044770172370866</v>
+        <v>1.031429782335551</v>
       </c>
       <c r="J3">
-        <v>1.012756309074974</v>
+        <v>1.02320394480444</v>
       </c>
       <c r="K3">
-        <v>1.039706622923066</v>
+        <v>1.032400138692849</v>
       </c>
       <c r="L3">
-        <v>1.009960675122144</v>
+        <v>1.022264578470865</v>
       </c>
       <c r="M3">
-        <v>0.9819910730952776</v>
+        <v>1.020014387534297</v>
       </c>
       <c r="N3">
-        <v>1.008293697019923</v>
+        <v>1.011836079773503</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9947128660946702</v>
+        <v>1.018914469661225</v>
       </c>
       <c r="D4">
-        <v>1.030890716456739</v>
+        <v>1.030077299771513</v>
       </c>
       <c r="E4">
-        <v>1.001428110433476</v>
+        <v>1.020087827955235</v>
       </c>
       <c r="F4">
-        <v>0.9753526955637591</v>
+        <v>1.018332298454257</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045447628665352</v>
+        <v>1.031526382426304</v>
       </c>
       <c r="J4">
-        <v>1.014252791110967</v>
+        <v>1.023528726554068</v>
       </c>
       <c r="K4">
-        <v>1.040630082326203</v>
+        <v>1.032576335224361</v>
       </c>
       <c r="L4">
-        <v>1.011509329925643</v>
+        <v>1.022612710326617</v>
       </c>
       <c r="M4">
-        <v>0.9857579847456988</v>
+        <v>1.020861779680625</v>
       </c>
       <c r="N4">
-        <v>1.008793074604049</v>
+        <v>1.01194393703005</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.995820035218295</v>
+        <v>1.019150188680727</v>
       </c>
       <c r="D5">
-        <v>1.0314948515281</v>
+        <v>1.030203573104563</v>
       </c>
       <c r="E5">
-        <v>1.002305212423851</v>
+        <v>1.02028730059287</v>
       </c>
       <c r="F5">
-        <v>0.9771684744929208</v>
+        <v>1.018742244339011</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0457259495885</v>
+        <v>1.031566622907646</v>
       </c>
       <c r="J5">
-        <v>1.014872992363759</v>
+        <v>1.0236651165352</v>
       </c>
       <c r="K5">
-        <v>1.041012004151161</v>
+        <v>1.032650186031522</v>
       </c>
       <c r="L5">
-        <v>1.012151991009246</v>
+        <v>1.022759001212207</v>
       </c>
       <c r="M5">
-        <v>0.9873187540500388</v>
+        <v>1.021217901296118</v>
       </c>
       <c r="N5">
-        <v>1.009000017196956</v>
+        <v>1.011989223633202</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9960051399594114</v>
+        <v>1.019189766843842</v>
       </c>
       <c r="D6">
-        <v>1.031595883366724</v>
+        <v>1.030224772010273</v>
       </c>
       <c r="E6">
-        <v>1.002451932517565</v>
+        <v>1.020320798468572</v>
       </c>
       <c r="F6">
-        <v>0.9774718924638061</v>
+        <v>1.01881107584612</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045772304767457</v>
+        <v>1.031573357736513</v>
       </c>
       <c r="J6">
-        <v>1.014976612577503</v>
+        <v>1.023688008309982</v>
       </c>
       <c r="K6">
-        <v>1.0410757650973</v>
+        <v>1.03266257284691</v>
       </c>
       <c r="L6">
-        <v>1.01225941279725</v>
+        <v>1.022783560343519</v>
       </c>
       <c r="M6">
-        <v>0.9875795068406179</v>
+        <v>1.021277688635989</v>
       </c>
       <c r="N6">
-        <v>1.009034590951588</v>
+        <v>1.011996824130689</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9947277136525901</v>
+        <v>1.01891761935655</v>
       </c>
       <c r="D7">
-        <v>1.030898816188368</v>
+        <v>1.030078987238034</v>
       </c>
       <c r="E7">
-        <v>1.001439867325772</v>
+        <v>1.020090492946452</v>
       </c>
       <c r="F7">
-        <v>0.9753770566767026</v>
+        <v>1.018337776188531</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045451372889792</v>
+        <v>1.031526921576921</v>
       </c>
       <c r="J7">
-        <v>1.014261112917992</v>
+        <v>1.023530549586644</v>
       </c>
       <c r="K7">
-        <v>1.040635210154629</v>
+        <v>1.032577322896888</v>
       </c>
       <c r="L7">
-        <v>1.011517949791893</v>
+        <v>1.022614665323681</v>
       </c>
       <c r="M7">
-        <v>0.985778928098324</v>
+        <v>1.020866538669908</v>
       </c>
       <c r="N7">
-        <v>1.008795851421508</v>
+        <v>1.01194454237439</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9892697976408601</v>
+        <v>1.017780076043553</v>
       </c>
       <c r="D8">
-        <v>1.027925367747707</v>
+        <v>1.029469215984238</v>
       </c>
       <c r="E8">
-        <v>0.9971277069563286</v>
+        <v>1.01912866132626</v>
       </c>
       <c r="F8">
-        <v>0.9664006969822521</v>
+        <v>1.016359399335016</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044054543405249</v>
+        <v>1.031329685756408</v>
       </c>
       <c r="J8">
-        <v>1.011193906014885</v>
+        <v>1.022871140352561</v>
       </c>
       <c r="K8">
-        <v>1.038739905248518</v>
+        <v>1.032219108841939</v>
       </c>
       <c r="L8">
-        <v>1.008346726362165</v>
+        <v>1.021908172016391</v>
       </c>
       <c r="M8">
-        <v>0.9780558832189248</v>
+        <v>1.019146953074435</v>
       </c>
       <c r="N8">
-        <v>1.007772262738724</v>
+        <v>1.011725533309507</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9791680795551903</v>
+        <v>1.015775563108537</v>
       </c>
       <c r="D9">
-        <v>1.022447864404838</v>
+        <v>1.028393263782479</v>
       </c>
       <c r="E9">
-        <v>0.9891952566733038</v>
+        <v>1.017436890588403</v>
       </c>
       <c r="F9">
-        <v>0.9496561746003614</v>
+        <v>1.0128727125858</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041374382759595</v>
+        <v>1.030970330652424</v>
       </c>
       <c r="J9">
-        <v>1.005478538430671</v>
+        <v>1.021704455974072</v>
       </c>
       <c r="K9">
-        <v>1.03518694464162</v>
+        <v>1.031580857031715</v>
       </c>
       <c r="L9">
-        <v>1.002466099990162</v>
+        <v>1.020661236985051</v>
       </c>
       <c r="M9">
-        <v>0.9636225099675141</v>
+        <v>1.016112627444113</v>
       </c>
       <c r="N9">
-        <v>1.005864511602944</v>
+        <v>1.011337811583503</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9720690645552084</v>
+        <v>1.01443923093143</v>
       </c>
       <c r="D10">
-        <v>1.018623438325829</v>
+        <v>1.027675077339633</v>
       </c>
       <c r="E10">
-        <v>0.9836563307529789</v>
+        <v>1.016311174283142</v>
       </c>
       <c r="F10">
-        <v>0.9377667296643812</v>
+        <v>1.010547610988209</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039430079242869</v>
+        <v>1.030722859125941</v>
       </c>
       <c r="J10">
-        <v>1.001436421809726</v>
+        <v>1.020923507278758</v>
       </c>
       <c r="K10">
-        <v>1.032664389694223</v>
+        <v>1.031150685971699</v>
       </c>
       <c r="L10">
-        <v>0.998327081268529</v>
+        <v>1.019828625830677</v>
       </c>
       <c r="M10">
-        <v>0.9533585222511103</v>
+        <v>1.014086682790126</v>
       </c>
       <c r="N10">
-        <v>1.004515187641833</v>
+        <v>1.011078127862708</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9688989781372815</v>
+        <v>1.013860590171416</v>
       </c>
       <c r="D11">
-        <v>1.016923295331665</v>
+        <v>1.02736390463972</v>
       </c>
       <c r="E11">
-        <v>0.9811919845911032</v>
+        <v>1.015824241447203</v>
       </c>
       <c r="F11">
-        <v>0.9324198064222083</v>
+        <v>1.009540599817928</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038548206518425</v>
+        <v>1.030613833683442</v>
       </c>
       <c r="J11">
-        <v>0.9996253800375892</v>
+        <v>1.020584601112025</v>
       </c>
       <c r="K11">
-        <v>1.031532967527974</v>
+        <v>1.030963321697168</v>
       </c>
       <c r="L11">
-        <v>0.996477527798362</v>
+        <v>1.019467787566779</v>
       </c>
       <c r="M11">
-        <v>0.9487395742368203</v>
+        <v>1.013208646544352</v>
       </c>
       <c r="N11">
-        <v>1.003910654561352</v>
+        <v>1.010965398085158</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9677061094965151</v>
+        <v>1.013645657395943</v>
       </c>
       <c r="D12">
-        <v>1.01628486062961</v>
+        <v>1.02724829380366</v>
       </c>
       <c r="E12">
-        <v>0.9802660975476495</v>
+        <v>1.015643450192308</v>
       </c>
       <c r="F12">
-        <v>0.9304013219137919</v>
+        <v>1.009166511384362</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038214387694913</v>
+        <v>1.030573056523672</v>
       </c>
       <c r="J12">
-        <v>0.9989430015649639</v>
+        <v>1.020458603685779</v>
       </c>
       <c r="K12">
-        <v>1.031106580264738</v>
+        <v>1.030893562349268</v>
       </c>
       <c r="L12">
-        <v>0.9957813918335894</v>
+        <v>1.019333709605487</v>
       </c>
       <c r="M12">
-        <v>0.9469955130271465</v>
+        <v>1.012882381557092</v>
       </c>
       <c r="N12">
-        <v>1.003682881045397</v>
+        <v>1.010923482492095</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9679626943233829</v>
+        <v>1.013691761195465</v>
       </c>
       <c r="D13">
-        <v>1.016422125443295</v>
+        <v>1.027273093936771</v>
       </c>
       <c r="E13">
-        <v>0.9804651898776126</v>
+        <v>1.015682227021974</v>
       </c>
       <c r="F13">
-        <v>0.9308358038176093</v>
+        <v>1.00924675650702</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038286280081929</v>
+        <v>1.03058181603729</v>
       </c>
       <c r="J13">
-        <v>0.9990898212955982</v>
+        <v>1.020485635654205</v>
       </c>
       <c r="K13">
-        <v>1.031198323221498</v>
+        <v>1.030908533368429</v>
       </c>
       <c r="L13">
-        <v>0.9959311373045128</v>
+        <v>1.019362471885179</v>
       </c>
       <c r="M13">
-        <v>0.9473709414046783</v>
+        <v>1.012952372156785</v>
       </c>
       <c r="N13">
-        <v>1.003731888132511</v>
+        <v>1.010932475461566</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9688006940779555</v>
+        <v>1.013842823756706</v>
       </c>
       <c r="D14">
-        <v>1.016870665193473</v>
+        <v>1.027354348762568</v>
       </c>
       <c r="E14">
-        <v>0.9811156687903637</v>
+        <v>1.015809295605169</v>
       </c>
       <c r="F14">
-        <v>0.932253634527758</v>
+        <v>1.009509678392401</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038520741992606</v>
+        <v>1.03061046874504</v>
       </c>
       <c r="J14">
-        <v>0.9995691751656691</v>
+        <v>1.020574188421478</v>
       </c>
       <c r="K14">
-        <v>1.031497848708413</v>
+        <v>1.030957558706021</v>
       </c>
       <c r="L14">
-        <v>0.9964201743758375</v>
+        <v>1.019456705588666</v>
       </c>
       <c r="M14">
-        <v>0.9485960017867174</v>
+        <v>1.01318167991995</v>
       </c>
       <c r="N14">
-        <v>1.003891893570249</v>
+        <v>1.010961934200442</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9693149497976995</v>
+        <v>1.01393589841386</v>
       </c>
       <c r="D15">
-        <v>1.017146098378676</v>
+        <v>1.027404408953737</v>
       </c>
       <c r="E15">
-        <v>0.9815150372457947</v>
+        <v>1.01588759701424</v>
       </c>
       <c r="F15">
-        <v>0.9331228326691485</v>
+        <v>1.009671667822847</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038664365518764</v>
+        <v>1.03062808550175</v>
       </c>
       <c r="J15">
-        <v>0.9998632214223087</v>
+        <v>1.020628733788942</v>
       </c>
       <c r="K15">
-        <v>1.031681576662158</v>
+        <v>1.030987743142735</v>
       </c>
       <c r="L15">
-        <v>0.9967202602625406</v>
+        <v>1.019514759923142</v>
       </c>
       <c r="M15">
-        <v>0.9493469731564073</v>
+        <v>1.013322947530232</v>
       </c>
       <c r="N15">
-        <v>1.003990045505696</v>
+        <v>1.010980079041521</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9722773508293105</v>
+        <v>1.014477633426438</v>
       </c>
       <c r="D16">
-        <v>1.018735316647326</v>
+        <v>1.027695724911785</v>
       </c>
       <c r="E16">
-        <v>0.9838184408458832</v>
+        <v>1.016343501211346</v>
       </c>
       <c r="F16">
-        <v>0.9381171898438696</v>
+        <v>1.010614437749121</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039487743479638</v>
+        <v>1.03073005545699</v>
       </c>
       <c r="J16">
-        <v>1.001555288738671</v>
+        <v>1.020945983569446</v>
       </c>
       <c r="K16">
-        <v>1.032738633285383</v>
+        <v>1.0311630976828</v>
       </c>
       <c r="L16">
-        <v>0.9984485791644521</v>
+        <v>1.019852566929909</v>
       </c>
       <c r="M16">
-        <v>0.9536612103146086</v>
+        <v>1.014144938141879</v>
       </c>
       <c r="N16">
-        <v>1.004554866684492</v>
+        <v>1.011085603369246</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9741092230716003</v>
+        <v>1.014817449589588</v>
       </c>
       <c r="D17">
-        <v>1.019720173171305</v>
+        <v>1.027878409109007</v>
       </c>
       <c r="E17">
-        <v>0.9852452330808984</v>
+        <v>1.016629614839232</v>
       </c>
       <c r="F17">
-        <v>0.9411951068414233</v>
+        <v>1.011205747763272</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039993357097258</v>
+        <v>1.030793518572678</v>
       </c>
       <c r="J17">
-        <v>1.002600036292543</v>
+        <v>1.021144785209788</v>
       </c>
       <c r="K17">
-        <v>1.033391050900007</v>
+        <v>1.031272799832006</v>
       </c>
       <c r="L17">
-        <v>0.9995170091001108</v>
+        <v>1.020064381008362</v>
       </c>
       <c r="M17">
-        <v>0.956319233141421</v>
+        <v>1.014660336618111</v>
       </c>
       <c r="N17">
-        <v>1.00490361746001</v>
+        <v>1.011151719747342</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9751685100653833</v>
+        <v>1.015015658585884</v>
       </c>
       <c r="D18">
-        <v>1.020290385428146</v>
+        <v>1.027984946960511</v>
       </c>
       <c r="E18">
-        <v>0.9860711371632421</v>
+        <v>1.016796549215266</v>
       </c>
       <c r="F18">
-        <v>0.9429714167692457</v>
+        <v>1.011550627378682</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040284433576854</v>
+        <v>1.030830355205504</v>
       </c>
       <c r="J18">
-        <v>1.003203595074019</v>
+        <v>1.021260670448846</v>
       </c>
       <c r="K18">
-        <v>1.033767836431245</v>
+        <v>1.03133668129616</v>
       </c>
       <c r="L18">
-        <v>1.000134711873749</v>
+        <v>1.02018789843791</v>
       </c>
       <c r="M18">
-        <v>0.9578529262523525</v>
+        <v>1.014960884035016</v>
       </c>
       <c r="N18">
-        <v>1.005105095310361</v>
+        <v>1.011190256806886</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9755281631761659</v>
+        <v>1.015083242721969</v>
       </c>
       <c r="D19">
-        <v>1.020484102795378</v>
+        <v>1.028021270385804</v>
       </c>
       <c r="E19">
-        <v>0.9863516948371176</v>
+        <v>1.016853477836779</v>
       </c>
       <c r="F19">
-        <v>0.9435739447673328</v>
+        <v>1.011668218935366</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040383039017029</v>
+        <v>1.03084288494361</v>
       </c>
       <c r="J19">
-        <v>1.003408420778893</v>
+        <v>1.021300172037322</v>
       </c>
       <c r="K19">
-        <v>1.033895680170738</v>
+        <v>1.031358445225631</v>
       </c>
       <c r="L19">
-        <v>1.000344415528493</v>
+        <v>1.020230009567149</v>
       </c>
       <c r="M19">
-        <v>0.958373107150422</v>
+        <v>1.015063350224497</v>
       </c>
       <c r="N19">
-        <v>1.005173469695655</v>
+        <v>1.011203392280303</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9739136397867585</v>
+        <v>1.014780990532145</v>
       </c>
       <c r="D20">
-        <v>1.019614947781526</v>
+        <v>1.027858810751427</v>
       </c>
       <c r="E20">
-        <v>0.9850928096893369</v>
+        <v>1.016598912467068</v>
       </c>
       <c r="F20">
-        <v>0.9408668568783934</v>
+        <v>1.01114230805951</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039939508374257</v>
+        <v>1.030786728229685</v>
       </c>
       <c r="J20">
-        <v>1.002488551033029</v>
+        <v>1.021123463162283</v>
       </c>
       <c r="K20">
-        <v>1.033321443150013</v>
+        <v>1.031261040780918</v>
       </c>
       <c r="L20">
-        <v>0.9994029485625493</v>
+        <v>1.020041658477248</v>
       </c>
       <c r="M20">
-        <v>0.9560357932152227</v>
+        <v>1.014605047112591</v>
       </c>
       <c r="N20">
-        <v>1.004866401966285</v>
+        <v>1.011144628930033</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9685543556902335</v>
+        <v>1.013798339591511</v>
       </c>
       <c r="D21">
-        <v>1.016738775090216</v>
+        <v>1.02733042198637</v>
       </c>
       <c r="E21">
-        <v>0.9809244145204489</v>
+        <v>1.015771874935634</v>
       </c>
       <c r="F21">
-        <v>0.9318370349695325</v>
+        <v>1.009432255589612</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038451873479745</v>
+        <v>1.030602038969318</v>
       </c>
       <c r="J21">
-        <v>0.9994282891715692</v>
+        <v>1.020548114945576</v>
       </c>
       <c r="K21">
-        <v>1.031409817132995</v>
+        <v>1.030943126483237</v>
       </c>
       <c r="L21">
-        <v>0.9962764215519347</v>
+        <v>1.019428957394461</v>
       </c>
       <c r="M21">
-        <v>0.9482360538882184</v>
+        <v>1.013114157938795</v>
       </c>
       <c r="N21">
-        <v>1.003844866443676</v>
+        <v>1.010953260515087</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9650953959892129</v>
+        <v>1.013180508995158</v>
       </c>
       <c r="D22">
-        <v>1.01489017605468</v>
+        <v>1.02699804501512</v>
       </c>
       <c r="E22">
-        <v>0.978242374732891</v>
+        <v>1.015252331077349</v>
       </c>
       <c r="F22">
-        <v>0.9259706980053493</v>
+        <v>1.008356845567309</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037480227170605</v>
+        <v>1.030484296263105</v>
       </c>
       <c r="J22">
-        <v>0.9974478839418419</v>
+        <v>1.020185719355757</v>
       </c>
       <c r="K22">
-        <v>1.03017231644446</v>
+        <v>1.030742293256814</v>
       </c>
       <c r="L22">
-        <v>0.9942575377058569</v>
+        <v>1.019043458661276</v>
       </c>
       <c r="M22">
-        <v>0.943166613479654</v>
+        <v>1.012176061416318</v>
       </c>
       <c r="N22">
-        <v>1.003183838109775</v>
+        <v>1.010832692389759</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9669378523412256</v>
+        <v>1.013508032524834</v>
       </c>
       <c r="D23">
-        <v>1.01587407196043</v>
+        <v>1.027174258783478</v>
       </c>
       <c r="E23">
-        <v>0.979670194764529</v>
+        <v>1.015527708462222</v>
       </c>
       <c r="F23">
-        <v>0.9290993895795688</v>
+        <v>1.008926964639655</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037998845367867</v>
+        <v>1.030546867413042</v>
       </c>
       <c r="J23">
-        <v>0.9985032666917372</v>
+        <v>1.020377893812617</v>
       </c>
       <c r="K23">
-        <v>1.030831800180437</v>
+        <v>1.030848848282859</v>
       </c>
       <c r="L23">
-        <v>0.9953330059493278</v>
+        <v>1.019247844245998</v>
       </c>
       <c r="M23">
-        <v>0.9458704837275422</v>
+        <v>1.012673433517302</v>
       </c>
       <c r="N23">
-        <v>1.003536102914695</v>
+        <v>1.01089663123874</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9740020438589283</v>
+        <v>1.014797464810807</v>
       </c>
       <c r="D24">
-        <v>1.019662507681095</v>
+        <v>1.02786766646373</v>
       </c>
       <c r="E24">
-        <v>0.9851617027442855</v>
+        <v>1.01661278539566</v>
       </c>
       <c r="F24">
-        <v>0.941015237394451</v>
+        <v>1.011170973796057</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039963852141111</v>
+        <v>1.030789797050603</v>
       </c>
       <c r="J24">
-        <v>1.002538944383291</v>
+        <v>1.021133097901357</v>
       </c>
       <c r="K24">
-        <v>1.033352907493407</v>
+        <v>1.03126635451738</v>
       </c>
       <c r="L24">
-        <v>0.9994545045511587</v>
+        <v>1.020051925904059</v>
       </c>
       <c r="M24">
-        <v>0.9561639189248652</v>
+        <v>1.014630030293273</v>
       </c>
       <c r="N24">
-        <v>1.00488322403606</v>
+        <v>1.01114783305012</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9818408198973738</v>
+        <v>1.016293777521099</v>
       </c>
       <c r="D25">
-        <v>1.023893383779977</v>
+        <v>1.028671586101681</v>
       </c>
       <c r="E25">
-        <v>0.9912881164894548</v>
+        <v>1.017873881703742</v>
       </c>
       <c r="F25">
-        <v>0.9541048946324061</v>
+        <v>1.013774197225789</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042094216035494</v>
+        <v>1.031064627606064</v>
       </c>
       <c r="J25">
-        <v>1.006995157617426</v>
+        <v>1.022006629743806</v>
       </c>
       <c r="K25">
-        <v>1.036131772377404</v>
+        <v>1.031746687782904</v>
       </c>
       <c r="L25">
-        <v>1.004023195641613</v>
+        <v>1.020983834312269</v>
       </c>
       <c r="M25">
-        <v>0.9674600640791484</v>
+        <v>1.01689759523932</v>
       </c>
       <c r="N25">
-        <v>1.006370778661645</v>
+        <v>1.011438259443949</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017487223972259</v>
+        <v>0.9878331782215691</v>
       </c>
       <c r="D2">
-        <v>1.02931213346166</v>
+        <v>1.027144172804355</v>
       </c>
       <c r="E2">
-        <v>1.018881255138838</v>
+        <v>0.9959958136374506</v>
       </c>
       <c r="F2">
-        <v>1.015850058452286</v>
+        <v>0.9640303571623208</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03127810702048</v>
+        <v>1.043680449383873</v>
       </c>
       <c r="J2">
-        <v>1.022701060423484</v>
+        <v>1.010383988186711</v>
       </c>
       <c r="K2">
-        <v>1.032126410341878</v>
+        <v>1.038237867830319</v>
       </c>
       <c r="L2">
-        <v>1.021726154768394</v>
+        <v>1.007511216460548</v>
       </c>
       <c r="M2">
-        <v>1.018703985416108</v>
+        <v>0.9760146418294672</v>
       </c>
       <c r="N2">
-        <v>1.011669028973444</v>
+        <v>1.007501942593559</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01835376443172</v>
+        <v>0.9920464486252842</v>
       </c>
       <c r="D3">
-        <v>1.029776817588451</v>
+        <v>1.029437033921957</v>
       </c>
       <c r="E3">
-        <v>1.019613570787166</v>
+        <v>0.9993190743040262</v>
       </c>
       <c r="F3">
-        <v>1.017357151644581</v>
+        <v>0.9709727984037307</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031429782335551</v>
+        <v>1.044770172370866</v>
       </c>
       <c r="J3">
-        <v>1.02320394480444</v>
+        <v>1.012756309074973</v>
       </c>
       <c r="K3">
-        <v>1.032400138692849</v>
+        <v>1.039706622923066</v>
       </c>
       <c r="L3">
-        <v>1.022264578470865</v>
+        <v>1.009960675122143</v>
       </c>
       <c r="M3">
-        <v>1.020014387534297</v>
+        <v>0.9819910730952773</v>
       </c>
       <c r="N3">
-        <v>1.011836079773503</v>
+        <v>1.008293697019923</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018914469661225</v>
+        <v>0.9947128660946698</v>
       </c>
       <c r="D4">
-        <v>1.030077299771513</v>
+        <v>1.030890716456738</v>
       </c>
       <c r="E4">
-        <v>1.020087827955235</v>
+        <v>1.001428110433475</v>
       </c>
       <c r="F4">
-        <v>1.018332298454257</v>
+        <v>0.9753526955637588</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031526382426304</v>
+        <v>1.045447628665352</v>
       </c>
       <c r="J4">
-        <v>1.023528726554068</v>
+        <v>1.014252791110966</v>
       </c>
       <c r="K4">
-        <v>1.032576335224361</v>
+        <v>1.040630082326202</v>
       </c>
       <c r="L4">
-        <v>1.022612710326617</v>
+        <v>1.011509329925643</v>
       </c>
       <c r="M4">
-        <v>1.020861779680625</v>
+        <v>0.9857579847456984</v>
       </c>
       <c r="N4">
-        <v>1.01194393703005</v>
+        <v>1.008793074604049</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019150188680727</v>
+        <v>0.9958200352182949</v>
       </c>
       <c r="D5">
-        <v>1.030203573104563</v>
+        <v>1.0314948515281</v>
       </c>
       <c r="E5">
-        <v>1.02028730059287</v>
+        <v>1.002305212423851</v>
       </c>
       <c r="F5">
-        <v>1.018742244339011</v>
+        <v>0.97716847449292</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031566622907646</v>
+        <v>1.0457259495885</v>
       </c>
       <c r="J5">
-        <v>1.0236651165352</v>
+        <v>1.014872992363759</v>
       </c>
       <c r="K5">
-        <v>1.032650186031522</v>
+        <v>1.041012004151161</v>
       </c>
       <c r="L5">
-        <v>1.022759001212207</v>
+        <v>1.012151991009246</v>
       </c>
       <c r="M5">
-        <v>1.021217901296118</v>
+        <v>0.9873187540500379</v>
       </c>
       <c r="N5">
-        <v>1.011989223633202</v>
+        <v>1.009000017196956</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019189766843842</v>
+        <v>0.9960051399594113</v>
       </c>
       <c r="D6">
-        <v>1.030224772010273</v>
+        <v>1.031595883366724</v>
       </c>
       <c r="E6">
-        <v>1.020320798468572</v>
+        <v>1.002451932517565</v>
       </c>
       <c r="F6">
-        <v>1.01881107584612</v>
+        <v>0.9774718924638064</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031573357736513</v>
+        <v>1.045772304767457</v>
       </c>
       <c r="J6">
-        <v>1.023688008309982</v>
+        <v>1.014976612577503</v>
       </c>
       <c r="K6">
-        <v>1.03266257284691</v>
+        <v>1.041075765097301</v>
       </c>
       <c r="L6">
-        <v>1.022783560343519</v>
+        <v>1.01225941279725</v>
       </c>
       <c r="M6">
-        <v>1.021277688635989</v>
+        <v>0.9875795068406181</v>
       </c>
       <c r="N6">
-        <v>1.011996824130689</v>
+        <v>1.009034590951588</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01891761935655</v>
+        <v>0.9947277136525889</v>
       </c>
       <c r="D7">
-        <v>1.030078987238034</v>
+        <v>1.030898816188368</v>
       </c>
       <c r="E7">
-        <v>1.020090492946452</v>
+        <v>1.001439867325771</v>
       </c>
       <c r="F7">
-        <v>1.018337776188531</v>
+        <v>0.9753770566767018</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031526921576921</v>
+        <v>1.045451372889791</v>
       </c>
       <c r="J7">
-        <v>1.023530549586644</v>
+        <v>1.014261112917991</v>
       </c>
       <c r="K7">
-        <v>1.032577322896888</v>
+        <v>1.040635210154628</v>
       </c>
       <c r="L7">
-        <v>1.022614665323681</v>
+        <v>1.011517949791892</v>
       </c>
       <c r="M7">
-        <v>1.020866538669908</v>
+        <v>0.985778928098323</v>
       </c>
       <c r="N7">
-        <v>1.01194454237439</v>
+        <v>1.008795851421508</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017780076043553</v>
+        <v>0.9892697976408595</v>
       </c>
       <c r="D8">
-        <v>1.029469215984238</v>
+        <v>1.027925367747707</v>
       </c>
       <c r="E8">
-        <v>1.01912866132626</v>
+        <v>0.9971277069563279</v>
       </c>
       <c r="F8">
-        <v>1.016359399335016</v>
+        <v>0.9664006969822517</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031329685756408</v>
+        <v>1.044054543405249</v>
       </c>
       <c r="J8">
-        <v>1.022871140352561</v>
+        <v>1.011193906014884</v>
       </c>
       <c r="K8">
-        <v>1.032219108841939</v>
+        <v>1.038739905248518</v>
       </c>
       <c r="L8">
-        <v>1.021908172016391</v>
+        <v>1.008346726362164</v>
       </c>
       <c r="M8">
-        <v>1.019146953074435</v>
+        <v>0.9780558832189243</v>
       </c>
       <c r="N8">
-        <v>1.011725533309507</v>
+        <v>1.007772262738724</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015775563108537</v>
+        <v>0.9791680795551898</v>
       </c>
       <c r="D9">
-        <v>1.028393263782479</v>
+        <v>1.022447864404838</v>
       </c>
       <c r="E9">
-        <v>1.017436890588403</v>
+        <v>0.9891952566733034</v>
       </c>
       <c r="F9">
-        <v>1.0128727125858</v>
+        <v>0.9496561746003616</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030970330652424</v>
+        <v>1.041374382759595</v>
       </c>
       <c r="J9">
-        <v>1.021704455974072</v>
+        <v>1.00547853843067</v>
       </c>
       <c r="K9">
-        <v>1.031580857031715</v>
+        <v>1.03518694464162</v>
       </c>
       <c r="L9">
-        <v>1.020661236985051</v>
+        <v>1.002466099990161</v>
       </c>
       <c r="M9">
-        <v>1.016112627444113</v>
+        <v>0.9636225099675141</v>
       </c>
       <c r="N9">
-        <v>1.011337811583503</v>
+        <v>1.005864511602944</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01443923093143</v>
+        <v>0.9720690645552075</v>
       </c>
       <c r="D10">
-        <v>1.027675077339633</v>
+        <v>1.018623438325828</v>
       </c>
       <c r="E10">
-        <v>1.016311174283142</v>
+        <v>0.9836563307529782</v>
       </c>
       <c r="F10">
-        <v>1.010547610988209</v>
+        <v>0.9377667296643805</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030722859125941</v>
+        <v>1.039430079242869</v>
       </c>
       <c r="J10">
-        <v>1.020923507278758</v>
+        <v>1.001436421809725</v>
       </c>
       <c r="K10">
-        <v>1.031150685971699</v>
+        <v>1.032664389694222</v>
       </c>
       <c r="L10">
-        <v>1.019828625830677</v>
+        <v>0.9983270812685281</v>
       </c>
       <c r="M10">
-        <v>1.014086682790126</v>
+        <v>0.9533585222511096</v>
       </c>
       <c r="N10">
-        <v>1.011078127862708</v>
+        <v>1.004515187641832</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013860590171416</v>
+        <v>0.9688989781372813</v>
       </c>
       <c r="D11">
-        <v>1.02736390463972</v>
+        <v>1.016923295331665</v>
       </c>
       <c r="E11">
-        <v>1.015824241447203</v>
+        <v>0.9811919845911028</v>
       </c>
       <c r="F11">
-        <v>1.009540599817928</v>
+        <v>0.9324198064222079</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030613833683442</v>
+        <v>1.038548206518425</v>
       </c>
       <c r="J11">
-        <v>1.020584601112025</v>
+        <v>0.9996253800375889</v>
       </c>
       <c r="K11">
-        <v>1.030963321697168</v>
+        <v>1.031532967527974</v>
       </c>
       <c r="L11">
-        <v>1.019467787566779</v>
+        <v>0.9964775277983616</v>
       </c>
       <c r="M11">
-        <v>1.013208646544352</v>
+        <v>0.94873957423682</v>
       </c>
       <c r="N11">
-        <v>1.010965398085158</v>
+        <v>1.003910654561352</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.013645657395943</v>
+        <v>0.9677061094965148</v>
       </c>
       <c r="D12">
-        <v>1.02724829380366</v>
+        <v>1.01628486062961</v>
       </c>
       <c r="E12">
-        <v>1.015643450192308</v>
+        <v>0.980266097547649</v>
       </c>
       <c r="F12">
-        <v>1.009166511384362</v>
+        <v>0.9304013219137915</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030573056523672</v>
+        <v>1.038214387694913</v>
       </c>
       <c r="J12">
-        <v>1.020458603685779</v>
+        <v>0.9989430015649634</v>
       </c>
       <c r="K12">
-        <v>1.030893562349268</v>
+        <v>1.031106580264738</v>
       </c>
       <c r="L12">
-        <v>1.019333709605487</v>
+        <v>0.9957813918335889</v>
       </c>
       <c r="M12">
-        <v>1.012882381557092</v>
+        <v>0.9469955130271462</v>
       </c>
       <c r="N12">
-        <v>1.010923482492095</v>
+        <v>1.003682881045397</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.013691761195465</v>
+        <v>0.9679626943233823</v>
       </c>
       <c r="D13">
-        <v>1.027273093936771</v>
+        <v>1.016422125443295</v>
       </c>
       <c r="E13">
-        <v>1.015682227021974</v>
+        <v>0.9804651898776118</v>
       </c>
       <c r="F13">
-        <v>1.00924675650702</v>
+        <v>0.9308358038176087</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03058181603729</v>
+        <v>1.038286280081929</v>
       </c>
       <c r="J13">
-        <v>1.020485635654205</v>
+        <v>0.9990898212955976</v>
       </c>
       <c r="K13">
-        <v>1.030908533368429</v>
+        <v>1.031198323221498</v>
       </c>
       <c r="L13">
-        <v>1.019362471885179</v>
+        <v>0.995931137304512</v>
       </c>
       <c r="M13">
-        <v>1.012952372156785</v>
+        <v>0.9473709414046777</v>
       </c>
       <c r="N13">
-        <v>1.010932475461566</v>
+        <v>1.003731888132511</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013842823756706</v>
+        <v>0.9688006940779549</v>
       </c>
       <c r="D14">
-        <v>1.027354348762568</v>
+        <v>1.016870665193472</v>
       </c>
       <c r="E14">
-        <v>1.015809295605169</v>
+        <v>0.9811156687903628</v>
       </c>
       <c r="F14">
-        <v>1.009509678392401</v>
+        <v>0.9322536345277571</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03061046874504</v>
+        <v>1.038520741992606</v>
       </c>
       <c r="J14">
-        <v>1.020574188421478</v>
+        <v>0.9995691751656682</v>
       </c>
       <c r="K14">
-        <v>1.030957558706021</v>
+        <v>1.031497848708413</v>
       </c>
       <c r="L14">
-        <v>1.019456705588666</v>
+        <v>0.9964201743758366</v>
       </c>
       <c r="M14">
-        <v>1.01318167991995</v>
+        <v>0.9485960017867169</v>
       </c>
       <c r="N14">
-        <v>1.010961934200442</v>
+        <v>1.003891893570249</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.01393589841386</v>
+        <v>0.9693149497976989</v>
       </c>
       <c r="D15">
-        <v>1.027404408953737</v>
+        <v>1.017146098378676</v>
       </c>
       <c r="E15">
-        <v>1.01588759701424</v>
+        <v>0.9815150372457943</v>
       </c>
       <c r="F15">
-        <v>1.009671667822847</v>
+        <v>0.933122832669148</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03062808550175</v>
+        <v>1.038664365518764</v>
       </c>
       <c r="J15">
-        <v>1.020628733788942</v>
+        <v>0.9998632214223081</v>
       </c>
       <c r="K15">
-        <v>1.030987743142735</v>
+        <v>1.031681576662158</v>
       </c>
       <c r="L15">
-        <v>1.019514759923142</v>
+        <v>0.9967202602625401</v>
       </c>
       <c r="M15">
-        <v>1.013322947530232</v>
+        <v>0.9493469731564069</v>
       </c>
       <c r="N15">
-        <v>1.010980079041521</v>
+        <v>1.003990045505696</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014477633426438</v>
+        <v>0.9722773508293102</v>
       </c>
       <c r="D16">
-        <v>1.027695724911785</v>
+        <v>1.018735316647326</v>
       </c>
       <c r="E16">
-        <v>1.016343501211346</v>
+        <v>0.9838184408458828</v>
       </c>
       <c r="F16">
-        <v>1.010614437749121</v>
+        <v>0.9381171898438687</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03073005545699</v>
+        <v>1.039487743479637</v>
       </c>
       <c r="J16">
-        <v>1.020945983569446</v>
+        <v>1.001555288738671</v>
       </c>
       <c r="K16">
-        <v>1.0311630976828</v>
+        <v>1.032738633285383</v>
       </c>
       <c r="L16">
-        <v>1.019852566929909</v>
+        <v>0.9984485791644517</v>
       </c>
       <c r="M16">
-        <v>1.014144938141879</v>
+        <v>0.9536612103146078</v>
       </c>
       <c r="N16">
-        <v>1.011085603369246</v>
+        <v>1.004554866684492</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014817449589588</v>
+        <v>0.9741092230715998</v>
       </c>
       <c r="D17">
-        <v>1.027878409109007</v>
+        <v>1.019720173171306</v>
       </c>
       <c r="E17">
-        <v>1.016629614839232</v>
+        <v>0.9852452330808976</v>
       </c>
       <c r="F17">
-        <v>1.011205747763272</v>
+        <v>0.9411951068414227</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030793518572678</v>
+        <v>1.039993357097258</v>
       </c>
       <c r="J17">
-        <v>1.021144785209788</v>
+        <v>1.002600036292542</v>
       </c>
       <c r="K17">
-        <v>1.031272799832006</v>
+        <v>1.033391050900007</v>
       </c>
       <c r="L17">
-        <v>1.020064381008362</v>
+        <v>0.9995170091001101</v>
       </c>
       <c r="M17">
-        <v>1.014660336618111</v>
+        <v>0.9563192331414203</v>
       </c>
       <c r="N17">
-        <v>1.011151719747342</v>
+        <v>1.00490361746001</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015015658585884</v>
+        <v>0.9751685100653829</v>
       </c>
       <c r="D18">
-        <v>1.027984946960511</v>
+        <v>1.020290385428147</v>
       </c>
       <c r="E18">
-        <v>1.016796549215266</v>
+        <v>0.9860711371632418</v>
       </c>
       <c r="F18">
-        <v>1.011550627378682</v>
+        <v>0.9429714167692456</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030830355205504</v>
+        <v>1.040284433576854</v>
       </c>
       <c r="J18">
-        <v>1.021260670448846</v>
+        <v>1.003203595074019</v>
       </c>
       <c r="K18">
-        <v>1.03133668129616</v>
+        <v>1.033767836431245</v>
       </c>
       <c r="L18">
-        <v>1.02018789843791</v>
+        <v>1.000134711873749</v>
       </c>
       <c r="M18">
-        <v>1.014960884035016</v>
+        <v>0.9578529262523523</v>
       </c>
       <c r="N18">
-        <v>1.011190256806886</v>
+        <v>1.005105095310361</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015083242721969</v>
+        <v>0.9755281631761659</v>
       </c>
       <c r="D19">
-        <v>1.028021270385804</v>
+        <v>1.020484102795379</v>
       </c>
       <c r="E19">
-        <v>1.016853477836779</v>
+        <v>0.9863516948371172</v>
       </c>
       <c r="F19">
-        <v>1.011668218935366</v>
+        <v>0.9435739447673327</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03084288494361</v>
+        <v>1.04038303901703</v>
       </c>
       <c r="J19">
-        <v>1.021300172037322</v>
+        <v>1.003408420778892</v>
       </c>
       <c r="K19">
-        <v>1.031358445225631</v>
+        <v>1.033895680170738</v>
       </c>
       <c r="L19">
-        <v>1.020230009567149</v>
+        <v>1.000344415528493</v>
       </c>
       <c r="M19">
-        <v>1.015063350224497</v>
+        <v>0.9583731071504219</v>
       </c>
       <c r="N19">
-        <v>1.011203392280303</v>
+        <v>1.005173469695654</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014780990532145</v>
+        <v>0.9739136397867575</v>
       </c>
       <c r="D20">
-        <v>1.027858810751427</v>
+        <v>1.019614947781526</v>
       </c>
       <c r="E20">
-        <v>1.016598912467068</v>
+        <v>0.9850928096893358</v>
       </c>
       <c r="F20">
-        <v>1.01114230805951</v>
+        <v>0.940866856878392</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030786728229685</v>
+        <v>1.039939508374257</v>
       </c>
       <c r="J20">
-        <v>1.021123463162283</v>
+        <v>1.002488551033028</v>
       </c>
       <c r="K20">
-        <v>1.031261040780918</v>
+        <v>1.033321443150012</v>
       </c>
       <c r="L20">
-        <v>1.020041658477248</v>
+        <v>0.999402948562548</v>
       </c>
       <c r="M20">
-        <v>1.014605047112591</v>
+        <v>0.9560357932152213</v>
       </c>
       <c r="N20">
-        <v>1.011144628930033</v>
+        <v>1.004866401966284</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.013798339591511</v>
+        <v>0.9685543556902335</v>
       </c>
       <c r="D21">
-        <v>1.02733042198637</v>
+        <v>1.016738775090216</v>
       </c>
       <c r="E21">
-        <v>1.015771874935634</v>
+        <v>0.9809244145204489</v>
       </c>
       <c r="F21">
-        <v>1.009432255589612</v>
+        <v>0.9318370349695327</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030602038969318</v>
+        <v>1.038451873479745</v>
       </c>
       <c r="J21">
-        <v>1.020548114945576</v>
+        <v>0.9994282891715691</v>
       </c>
       <c r="K21">
-        <v>1.030943126483237</v>
+        <v>1.031409817132995</v>
       </c>
       <c r="L21">
-        <v>1.019428957394461</v>
+        <v>0.9962764215519347</v>
       </c>
       <c r="M21">
-        <v>1.013114157938795</v>
+        <v>0.9482360538882186</v>
       </c>
       <c r="N21">
-        <v>1.010953260515087</v>
+        <v>1.003844866443677</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.013180508995158</v>
+        <v>0.9650953959892126</v>
       </c>
       <c r="D22">
-        <v>1.02699804501512</v>
+        <v>1.01489017605468</v>
       </c>
       <c r="E22">
-        <v>1.015252331077349</v>
+        <v>0.9782423747328906</v>
       </c>
       <c r="F22">
-        <v>1.008356845567309</v>
+        <v>0.9259706980053488</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030484296263105</v>
+        <v>1.037480227170605</v>
       </c>
       <c r="J22">
-        <v>1.020185719355757</v>
+        <v>0.9974478839418415</v>
       </c>
       <c r="K22">
-        <v>1.030742293256814</v>
+        <v>1.03017231644446</v>
       </c>
       <c r="L22">
-        <v>1.019043458661276</v>
+        <v>0.9942575377058566</v>
       </c>
       <c r="M22">
-        <v>1.012176061416318</v>
+        <v>0.9431666134796536</v>
       </c>
       <c r="N22">
-        <v>1.010832692389759</v>
+        <v>1.003183838109775</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.013508032524834</v>
+        <v>0.966937852341225</v>
       </c>
       <c r="D23">
-        <v>1.027174258783478</v>
+        <v>1.01587407196043</v>
       </c>
       <c r="E23">
-        <v>1.015527708462222</v>
+        <v>0.9796701947645283</v>
       </c>
       <c r="F23">
-        <v>1.008926964639655</v>
+        <v>0.9290993895795681</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030546867413042</v>
+        <v>1.037998845367867</v>
       </c>
       <c r="J23">
-        <v>1.020377893812617</v>
+        <v>0.9985032666917366</v>
       </c>
       <c r="K23">
-        <v>1.030848848282859</v>
+        <v>1.030831800180437</v>
       </c>
       <c r="L23">
-        <v>1.019247844245998</v>
+        <v>0.9953330059493272</v>
       </c>
       <c r="M23">
-        <v>1.012673433517302</v>
+        <v>0.9458704837275416</v>
       </c>
       <c r="N23">
-        <v>1.01089663123874</v>
+        <v>1.003536102914695</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014797464810807</v>
+        <v>0.9740020438589281</v>
       </c>
       <c r="D24">
-        <v>1.02786766646373</v>
+        <v>1.019662507681095</v>
       </c>
       <c r="E24">
-        <v>1.01661278539566</v>
+        <v>0.9851617027442852</v>
       </c>
       <c r="F24">
-        <v>1.011170973796057</v>
+        <v>0.941015237394451</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030789797050603</v>
+        <v>1.039963852141111</v>
       </c>
       <c r="J24">
-        <v>1.021133097901357</v>
+        <v>1.002538944383291</v>
       </c>
       <c r="K24">
-        <v>1.03126635451738</v>
+        <v>1.033352907493407</v>
       </c>
       <c r="L24">
-        <v>1.020051925904059</v>
+        <v>0.9994545045511581</v>
       </c>
       <c r="M24">
-        <v>1.014630030293273</v>
+        <v>0.9561639189248652</v>
       </c>
       <c r="N24">
-        <v>1.01114783305012</v>
+        <v>1.00488322403606</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016293777521099</v>
+        <v>0.9818408198973734</v>
       </c>
       <c r="D25">
-        <v>1.028671586101681</v>
+        <v>1.023893383779977</v>
       </c>
       <c r="E25">
-        <v>1.017873881703742</v>
+        <v>0.991288116489454</v>
       </c>
       <c r="F25">
-        <v>1.013774197225789</v>
+        <v>0.9541048946324058</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031064627606064</v>
+        <v>1.042094216035494</v>
       </c>
       <c r="J25">
-        <v>1.022006629743806</v>
+        <v>1.006995157617425</v>
       </c>
       <c r="K25">
-        <v>1.031746687782904</v>
+        <v>1.036131772377404</v>
       </c>
       <c r="L25">
-        <v>1.020983834312269</v>
+        <v>1.004023195641612</v>
       </c>
       <c r="M25">
-        <v>1.01689759523932</v>
+        <v>0.9674600640791479</v>
       </c>
       <c r="N25">
-        <v>1.011438259443949</v>
+        <v>1.006370778661645</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9878331782215691</v>
+        <v>0.9933911082959948</v>
       </c>
       <c r="D2">
-        <v>1.027144172804355</v>
+        <v>1.032083899322637</v>
       </c>
       <c r="E2">
-        <v>0.9959958136374506</v>
+        <v>1.000760501312575</v>
       </c>
       <c r="F2">
-        <v>0.9640303571623208</v>
+        <v>1.01375927743546</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043680449383873</v>
+        <v>1.043937669802388</v>
       </c>
       <c r="J2">
-        <v>1.010383988186711</v>
+        <v>1.015771303165718</v>
       </c>
       <c r="K2">
-        <v>1.038237867830319</v>
+        <v>1.043113642610204</v>
       </c>
       <c r="L2">
-        <v>1.007511216460548</v>
+        <v>1.012209251302159</v>
       </c>
       <c r="M2">
-        <v>0.9760146418294672</v>
+        <v>1.025030194842544</v>
       </c>
       <c r="N2">
-        <v>1.007501942593559</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.009196012097824</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.028382006929562</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.041555362044879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,81 +486,105 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9920464486252842</v>
+        <v>0.9969609297448403</v>
       </c>
       <c r="D3">
-        <v>1.029437033921957</v>
+        <v>1.03370634943365</v>
       </c>
       <c r="E3">
-        <v>0.9993190743040262</v>
+        <v>1.003538033669045</v>
       </c>
       <c r="F3">
-        <v>0.9709727984037307</v>
+        <v>1.016715448429185</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044770172370866</v>
+        <v>1.044501666236147</v>
       </c>
       <c r="J3">
-        <v>1.012756309074973</v>
+        <v>1.017534787140668</v>
       </c>
       <c r="K3">
-        <v>1.039706622923066</v>
+        <v>1.043925377663281</v>
       </c>
       <c r="L3">
-        <v>1.009960675122143</v>
+        <v>1.014125843973016</v>
       </c>
       <c r="M3">
-        <v>0.9819910730952773</v>
+        <v>1.027138827648739</v>
       </c>
       <c r="N3">
-        <v>1.008293697019923</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009796432437918</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.030050875088798</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.042126666209907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>0.9947128660946698</v>
+        <v>0.9992285821093561</v>
       </c>
       <c r="D4">
-        <v>1.030890716456738</v>
+        <v>1.034744297855781</v>
       </c>
       <c r="E4">
-        <v>1.001428110433475</v>
+        <v>1.005308103158728</v>
       </c>
       <c r="F4">
-        <v>0.9753526955637588</v>
+        <v>1.018600442319017</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045447628665352</v>
+        <v>1.04485230702466</v>
       </c>
       <c r="J4">
-        <v>1.014252791110966</v>
+        <v>1.018652041440983</v>
       </c>
       <c r="K4">
-        <v>1.040630082326202</v>
+        <v>1.044440722131699</v>
       </c>
       <c r="L4">
-        <v>1.011509329925643</v>
+        <v>1.015342883443916</v>
       </c>
       <c r="M4">
-        <v>0.9857579847456984</v>
+        <v>1.028479442218364</v>
       </c>
       <c r="N4">
-        <v>1.008793074604049</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.010176681686491</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.031111896503692</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.042491946432192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9958200352182949</v>
+        <v>1.000172591338621</v>
       </c>
       <c r="D5">
-        <v>1.0314948515281</v>
+        <v>1.035183509259187</v>
       </c>
       <c r="E5">
-        <v>1.002305212423851</v>
+        <v>1.006046408483589</v>
       </c>
       <c r="F5">
-        <v>0.97716847449292</v>
+        <v>1.019386635373802</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0457259495885</v>
+        <v>1.044998126084028</v>
       </c>
       <c r="J5">
-        <v>1.014872992363759</v>
+        <v>1.019116662092976</v>
       </c>
       <c r="K5">
-        <v>1.041012004151161</v>
+        <v>1.044660630559592</v>
       </c>
       <c r="L5">
-        <v>1.012151991009246</v>
+        <v>1.015849619022928</v>
       </c>
       <c r="M5">
-        <v>0.9873187540500379</v>
+        <v>1.029037699360175</v>
       </c>
       <c r="N5">
-        <v>1.009000017196956</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010334919261608</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.031553725315866</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042654582902106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9960051399594113</v>
+        <v>1.000331157101231</v>
       </c>
       <c r="D6">
-        <v>1.031595883366724</v>
+        <v>1.035263966009281</v>
       </c>
       <c r="E6">
-        <v>1.002451932517565</v>
+        <v>1.006170621300924</v>
       </c>
       <c r="F6">
-        <v>0.9774718924638064</v>
+        <v>1.019518538275606</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045772304767457</v>
+        <v>1.045024589583244</v>
       </c>
       <c r="J6">
-        <v>1.014976612577503</v>
+        <v>1.019194965695306</v>
       </c>
       <c r="K6">
-        <v>1.041075765097301</v>
+        <v>1.044704218375016</v>
       </c>
       <c r="L6">
-        <v>1.01225941279725</v>
+        <v>1.015934996562134</v>
       </c>
       <c r="M6">
-        <v>0.9875795068406181</v>
+        <v>1.029131380750933</v>
       </c>
       <c r="N6">
-        <v>1.009034590951588</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.010361762540965</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.031627868787014</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.042694116270506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9947277136525889</v>
+        <v>0.999242902582263</v>
       </c>
       <c r="D7">
-        <v>1.030898816188368</v>
+        <v>1.034768561412117</v>
       </c>
       <c r="E7">
-        <v>1.001439867325771</v>
+        <v>1.005319625908527</v>
       </c>
       <c r="F7">
-        <v>0.9753770566767018</v>
+        <v>1.018611693836624</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045451372889791</v>
+        <v>1.044860068550938</v>
       </c>
       <c r="J7">
-        <v>1.014261112917991</v>
+        <v>1.018659897046968</v>
       </c>
       <c r="K7">
-        <v>1.040635210154628</v>
+        <v>1.044461849693928</v>
       </c>
       <c r="L7">
-        <v>1.011517949791892</v>
+        <v>1.015351288902558</v>
       </c>
       <c r="M7">
-        <v>0.985778928098323</v>
+        <v>1.028487636157768</v>
       </c>
       <c r="N7">
-        <v>1.008795851421508</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.010179840559518</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.031118381543244</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.042526922866692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9892697976408595</v>
+        <v>0.9946084235004341</v>
       </c>
       <c r="D8">
-        <v>1.027925367747707</v>
+        <v>1.032657222221902</v>
       </c>
       <c r="E8">
-        <v>0.9971277069563279</v>
+        <v>1.001706852303998</v>
       </c>
       <c r="F8">
-        <v>0.9664006969822517</v>
+        <v>1.014765052529865</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044054543405249</v>
+        <v>1.04413825739027</v>
       </c>
       <c r="J8">
-        <v>1.011193906014884</v>
+        <v>1.016374188375087</v>
       </c>
       <c r="K8">
-        <v>1.038739905248518</v>
+        <v>1.043412280091141</v>
       </c>
       <c r="L8">
-        <v>1.008346726362164</v>
+        <v>1.012863752724349</v>
       </c>
       <c r="M8">
-        <v>0.9780558832189243</v>
+        <v>1.025748668166878</v>
       </c>
       <c r="N8">
-        <v>1.007772262738724</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.009401940123837</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.028950639934244</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.041789333818629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9791680795551898</v>
+        <v>0.9861023737622271</v>
       </c>
       <c r="D9">
-        <v>1.022447864404838</v>
+        <v>1.028814544350317</v>
       </c>
       <c r="E9">
-        <v>0.9891952566733034</v>
+        <v>0.9951222102146497</v>
       </c>
       <c r="F9">
-        <v>0.9496561746003616</v>
+        <v>1.007763891849143</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041374382759595</v>
+        <v>1.042745942601685</v>
       </c>
       <c r="J9">
-        <v>1.00547853843067</v>
+        <v>1.012155622056283</v>
       </c>
       <c r="K9">
-        <v>1.03518694464162</v>
+        <v>1.041456805545996</v>
       </c>
       <c r="L9">
-        <v>1.002466099990161</v>
+        <v>1.008294925021111</v>
       </c>
       <c r="M9">
-        <v>0.9636225099675141</v>
+        <v>1.020732248803885</v>
       </c>
       <c r="N9">
-        <v>1.005864511602944</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.007964347299179</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.024980403907032</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.040403546499868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9720690645552075</v>
+        <v>0.9802865249794535</v>
       </c>
       <c r="D10">
-        <v>1.018623438325828</v>
+        <v>1.026213451954382</v>
       </c>
       <c r="E10">
-        <v>0.9836563307529782</v>
+        <v>0.9906646209521998</v>
       </c>
       <c r="F10">
-        <v>0.9377667296643805</v>
+        <v>1.003261895840035</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039430079242869</v>
+        <v>1.041771536237087</v>
       </c>
       <c r="J10">
-        <v>1.001436421809725</v>
+        <v>1.009304721471449</v>
       </c>
       <c r="K10">
-        <v>1.032664389694222</v>
+        <v>1.040125012370153</v>
       </c>
       <c r="L10">
-        <v>0.9983270812685281</v>
+        <v>1.005204499344176</v>
       </c>
       <c r="M10">
-        <v>0.9533585222511096</v>
+        <v>1.017572504450642</v>
       </c>
       <c r="N10">
-        <v>1.004515187641832</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.006996192574551</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.022532071430437</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.039478627899516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9688989781372813</v>
+        <v>0.9785118475327751</v>
       </c>
       <c r="D11">
-        <v>1.016923295331665</v>
+        <v>1.025264325324655</v>
       </c>
       <c r="E11">
-        <v>0.9811919845911028</v>
+        <v>0.9894037219925956</v>
       </c>
       <c r="F11">
-        <v>0.9324198064222079</v>
+        <v>1.003833942176129</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038548206518425</v>
+        <v>1.041577416500302</v>
       </c>
       <c r="J11">
-        <v>0.9996253800375889</v>
+        <v>1.008806710756263</v>
       </c>
       <c r="K11">
-        <v>1.031532967527974</v>
+        <v>1.039725018993072</v>
       </c>
       <c r="L11">
-        <v>0.9964775277983616</v>
+        <v>1.004528273963844</v>
       </c>
       <c r="M11">
-        <v>0.94873957423682</v>
+        <v>1.018683916349333</v>
       </c>
       <c r="N11">
-        <v>1.003910654561352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006860718958247</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.023855342793387</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.039228480774762</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9677061094965148</v>
+        <v>0.9781272684850015</v>
       </c>
       <c r="D12">
-        <v>1.01628486062961</v>
+        <v>1.024958812298321</v>
       </c>
       <c r="E12">
-        <v>0.980266097547649</v>
+        <v>0.989180090332944</v>
       </c>
       <c r="F12">
-        <v>0.9304013219137915</v>
+        <v>1.004903213158505</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038214387694913</v>
+        <v>1.041585761996273</v>
       </c>
       <c r="J12">
-        <v>0.9989430015649634</v>
+        <v>1.008887061193521</v>
       </c>
       <c r="K12">
-        <v>1.031106580264738</v>
+        <v>1.039622969153486</v>
       </c>
       <c r="L12">
-        <v>0.9957813918335889</v>
+        <v>1.004517560579304</v>
       </c>
       <c r="M12">
-        <v>0.9469955130271462</v>
+        <v>1.019937074399509</v>
       </c>
       <c r="N12">
-        <v>1.003682881045397</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006915922115012</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.025177638460252</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.039156329006287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9679626943233823</v>
+        <v>0.9787833910364158</v>
       </c>
       <c r="D13">
-        <v>1.016422125443295</v>
+        <v>1.025145867424329</v>
       </c>
       <c r="E13">
-        <v>0.9804651898776118</v>
+        <v>0.9897349986921821</v>
       </c>
       <c r="F13">
-        <v>0.9308358038176087</v>
+        <v>1.006447522519912</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038286280081929</v>
+        <v>1.041758591280705</v>
       </c>
       <c r="J13">
-        <v>0.9990898212955976</v>
+        <v>1.009417614219179</v>
       </c>
       <c r="K13">
-        <v>1.031198323221498</v>
+        <v>1.039764192584954</v>
       </c>
       <c r="L13">
-        <v>0.995931137304512</v>
+        <v>1.00501683322126</v>
       </c>
       <c r="M13">
-        <v>0.9473709414046777</v>
+        <v>1.021408609351669</v>
       </c>
       <c r="N13">
-        <v>1.003731888132511</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007122027154048</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.02662109416135</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.03925369889805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9688006940779549</v>
+        <v>0.9797033402739898</v>
       </c>
       <c r="D14">
-        <v>1.016870665193472</v>
+        <v>1.025502186399921</v>
       </c>
       <c r="E14">
-        <v>0.9811156687903628</v>
+        <v>0.9904669389995052</v>
       </c>
       <c r="F14">
-        <v>0.9322536345277571</v>
+        <v>1.007716317467892</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038520741992606</v>
+        <v>1.041951972585182</v>
       </c>
       <c r="J14">
-        <v>0.9995691751656682</v>
+        <v>1.009982458624983</v>
       </c>
       <c r="K14">
-        <v>1.031497848708413</v>
+        <v>1.039975037863379</v>
       </c>
       <c r="L14">
-        <v>0.9964201743758366</v>
+        <v>1.005588110536183</v>
       </c>
       <c r="M14">
-        <v>0.9485960017867169</v>
+        <v>1.022510947782278</v>
       </c>
       <c r="N14">
-        <v>1.003891893570249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007331173463836</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.027667464889389</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.039404188385308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9693149497976989</v>
+        <v>0.9801631478324573</v>
       </c>
       <c r="D15">
-        <v>1.017146098378676</v>
+        <v>1.025703009264058</v>
       </c>
       <c r="E15">
-        <v>0.9815150372457943</v>
+        <v>0.9908233566738258</v>
       </c>
       <c r="F15">
-        <v>0.933122832669148</v>
+        <v>1.008177103336283</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038664365518764</v>
+        <v>1.04203926472966</v>
       </c>
       <c r="J15">
-        <v>0.9998632214223081</v>
+        <v>1.010228855691031</v>
       </c>
       <c r="K15">
-        <v>1.031681576662158</v>
+        <v>1.040086625367929</v>
       </c>
       <c r="L15">
-        <v>0.9967202602625401</v>
+        <v>1.005847528056675</v>
       </c>
       <c r="M15">
-        <v>0.9493469731564069</v>
+        <v>1.022875361555431</v>
       </c>
       <c r="N15">
-        <v>1.003990045505696</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007418748009985</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.027993351032212</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.039488922404591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9722773508293102</v>
+        <v>0.9824765382836022</v>
       </c>
       <c r="D16">
-        <v>1.018735316647326</v>
+        <v>1.026762421245124</v>
       </c>
       <c r="E16">
-        <v>0.9838184408458828</v>
+        <v>0.9925788733135614</v>
       </c>
       <c r="F16">
-        <v>0.9381171898438687</v>
+        <v>1.009823963144127</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039487743479637</v>
+        <v>1.042425009697288</v>
       </c>
       <c r="J16">
-        <v>1.001555288738671</v>
+        <v>1.011324008783407</v>
       </c>
       <c r="K16">
-        <v>1.032738633285383</v>
+        <v>1.04062940877447</v>
       </c>
       <c r="L16">
-        <v>0.9984485791644517</v>
+        <v>1.00704634780483</v>
       </c>
       <c r="M16">
-        <v>0.9536612103146078</v>
+        <v>1.023981916248106</v>
       </c>
       <c r="N16">
-        <v>1.004554866684492</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007785701393618</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.028828909765735</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.039875840635924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9741092230715998</v>
+        <v>0.983778173361085</v>
       </c>
       <c r="D17">
-        <v>1.019720173171306</v>
+        <v>1.027393367598652</v>
       </c>
       <c r="E17">
-        <v>0.9852452330808976</v>
+        <v>0.9935510796063468</v>
       </c>
       <c r="F17">
-        <v>0.9411951068414227</v>
+        <v>1.010428220396062</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039993357097258</v>
+        <v>1.04262003766039</v>
       </c>
       <c r="J17">
-        <v>1.002600036292542</v>
+        <v>1.011874328822734</v>
       </c>
       <c r="K17">
-        <v>1.033391050900007</v>
+        <v>1.040937554813014</v>
       </c>
       <c r="L17">
-        <v>0.9995170091001101</v>
+        <v>1.007673134548717</v>
       </c>
       <c r="M17">
-        <v>0.9563192331414203</v>
+        <v>1.024255842761432</v>
       </c>
       <c r="N17">
-        <v>1.00490361746001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.007959544460953</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.028915185147962</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.040096287925119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9751685100653829</v>
+        <v>0.9842976645593418</v>
       </c>
       <c r="D18">
-        <v>1.020290385428147</v>
+        <v>1.027696884368621</v>
       </c>
       <c r="E18">
-        <v>0.9860711371632418</v>
+        <v>0.9939069135527084</v>
       </c>
       <c r="F18">
-        <v>0.9429714167692456</v>
+        <v>1.010023632452537</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040284433576854</v>
+        <v>1.042656452970811</v>
       </c>
       <c r="J18">
-        <v>1.003203595074019</v>
+        <v>1.011967299729526</v>
       </c>
       <c r="K18">
-        <v>1.033767836431245</v>
+        <v>1.0410540666348</v>
       </c>
       <c r="L18">
-        <v>1.000134711873749</v>
+        <v>1.007831657042057</v>
       </c>
       <c r="M18">
-        <v>0.9578529262523523</v>
+        <v>1.023671559315838</v>
       </c>
       <c r="N18">
-        <v>1.005105095310361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.007969259938501</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.02821298255775</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.040167088458701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9755281631761659</v>
+        <v>0.9840786322388211</v>
       </c>
       <c r="D19">
-        <v>1.020484102795379</v>
+        <v>1.0277243790892</v>
       </c>
       <c r="E19">
-        <v>0.9863516948371172</v>
+        <v>0.9936786433427239</v>
       </c>
       <c r="F19">
-        <v>0.9435739447673327</v>
+        <v>1.008596705977072</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04038303901703</v>
+        <v>1.042551115479555</v>
       </c>
       <c r="J19">
-        <v>1.003408420778892</v>
+        <v>1.011618689521343</v>
       </c>
       <c r="K19">
-        <v>1.033895680170738</v>
+        <v>1.041019046303812</v>
       </c>
       <c r="L19">
-        <v>1.000344415528493</v>
+        <v>1.007542256414651</v>
       </c>
       <c r="M19">
-        <v>0.9583731071504219</v>
+        <v>1.022204924423172</v>
       </c>
       <c r="N19">
-        <v>1.005173469695654</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.00782418179669</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.026723400766443</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.040148690089966</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9739136397867575</v>
+        <v>0.9817998779032938</v>
       </c>
       <c r="D20">
-        <v>1.019614947781526</v>
+        <v>1.026928794759347</v>
       </c>
       <c r="E20">
-        <v>0.9850928096893358</v>
+        <v>0.991823331788783</v>
       </c>
       <c r="F20">
-        <v>0.940866856878392</v>
+        <v>1.004440370073392</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039939508374257</v>
+        <v>1.042040831826867</v>
       </c>
       <c r="J20">
-        <v>1.002488551033028</v>
+        <v>1.010050871403309</v>
       </c>
       <c r="K20">
-        <v>1.033321443150012</v>
+        <v>1.040514102992507</v>
       </c>
       <c r="L20">
-        <v>0.999402948562548</v>
+        <v>1.006011498129221</v>
       </c>
       <c r="M20">
-        <v>0.9560357932152213</v>
+        <v>1.018405587721274</v>
       </c>
       <c r="N20">
-        <v>1.004866401966284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007251217210858</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.023180626445187</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.039795571677214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9685543556902335</v>
+        <v>0.9772783101832386</v>
       </c>
       <c r="D21">
-        <v>1.016738775090216</v>
+        <v>1.024946983347739</v>
       </c>
       <c r="E21">
-        <v>0.9809244145204489</v>
+        <v>0.9883526368597522</v>
       </c>
       <c r="F21">
-        <v>0.9318370349695327</v>
+        <v>1.000572868263074</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038451873479745</v>
+        <v>1.041247138496058</v>
       </c>
       <c r="J21">
-        <v>0.9994282891715691</v>
+        <v>1.007757721068051</v>
       </c>
       <c r="K21">
-        <v>1.031409817132995</v>
+        <v>1.039470654863868</v>
       </c>
       <c r="L21">
-        <v>0.9962764215519347</v>
+        <v>1.003558083770405</v>
       </c>
       <c r="M21">
-        <v>0.9482360538882186</v>
+        <v>1.015543395601694</v>
       </c>
       <c r="N21">
-        <v>1.003844866443677</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006466179714871</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.020873671063786</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.039061017707326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9650953959892126</v>
+        <v>0.9744260318588094</v>
       </c>
       <c r="D22">
-        <v>1.01489017605468</v>
+        <v>1.023679464960705</v>
       </c>
       <c r="E22">
-        <v>0.9782423747328906</v>
+        <v>0.9861763091149457</v>
       </c>
       <c r="F22">
-        <v>0.9259706980053488</v>
+        <v>0.9982643484039325</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037480227170605</v>
+        <v>1.040740821527404</v>
       </c>
       <c r="J22">
-        <v>0.9974478839418415</v>
+        <v>1.006331225932954</v>
       </c>
       <c r="K22">
-        <v>1.03017231644446</v>
+        <v>1.038795983093308</v>
       </c>
       <c r="L22">
-        <v>0.9942575377058566</v>
+        <v>1.002026681753375</v>
       </c>
       <c r="M22">
-        <v>0.9431666134796536</v>
+        <v>1.013870267483193</v>
       </c>
       <c r="N22">
-        <v>1.003183838109775</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005978951548119</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.019549463640509</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.038570565807132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.966937852341225</v>
+        <v>0.9759425829182289</v>
       </c>
       <c r="D23">
-        <v>1.01587407196043</v>
+        <v>1.024337250271744</v>
       </c>
       <c r="E23">
-        <v>0.9796701947645283</v>
+        <v>0.9873323680677508</v>
       </c>
       <c r="F23">
-        <v>0.9290993895795681</v>
+        <v>0.9994913120214609</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037998845367867</v>
+        <v>1.041006322825537</v>
       </c>
       <c r="J23">
-        <v>0.9985032666917366</v>
+        <v>1.007089384511409</v>
       </c>
       <c r="K23">
-        <v>1.030831800180437</v>
+        <v>1.039139505028723</v>
       </c>
       <c r="L23">
-        <v>0.9953330059493272</v>
+        <v>1.002840280814354</v>
       </c>
       <c r="M23">
-        <v>0.9458704837275416</v>
+        <v>1.01475980753811</v>
       </c>
       <c r="N23">
-        <v>1.003536102914695</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006237367534226</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.020253495852458</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038803870707862</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9740020438589281</v>
+        <v>0.9817931049154149</v>
       </c>
       <c r="D24">
-        <v>1.019662507681095</v>
+        <v>1.026919073061727</v>
       </c>
       <c r="E24">
-        <v>0.9851617027442852</v>
+        <v>0.9918088511645946</v>
       </c>
       <c r="F24">
-        <v>0.941015237394451</v>
+        <v>1.004243087527639</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039963852141111</v>
+        <v>1.042022462087075</v>
       </c>
       <c r="J24">
-        <v>1.002538944383291</v>
+        <v>1.010010487366856</v>
       </c>
       <c r="K24">
-        <v>1.033352907493407</v>
+        <v>1.04048939461369</v>
       </c>
       <c r="L24">
-        <v>0.9994545045511581</v>
+        <v>1.005981355901312</v>
       </c>
       <c r="M24">
-        <v>0.9561639189248652</v>
+        <v>1.018196097286473</v>
       </c>
       <c r="N24">
-        <v>1.00488322403606</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007233742257887</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.022973162587232</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.039750840235056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9818408198973734</v>
+        <v>0.9883455454387594</v>
       </c>
       <c r="D25">
-        <v>1.023893383779977</v>
+        <v>1.029847416452546</v>
       </c>
       <c r="E25">
-        <v>0.991288116489454</v>
+        <v>0.9968535422345319</v>
       </c>
       <c r="F25">
-        <v>0.9541048946324058</v>
+        <v>1.009602372622824</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042094216035494</v>
+        <v>1.043127888109491</v>
       </c>
       <c r="J25">
-        <v>1.006995157617425</v>
+        <v>1.013271596429846</v>
       </c>
       <c r="K25">
-        <v>1.036131772377404</v>
+        <v>1.041999407917226</v>
       </c>
       <c r="L25">
-        <v>1.004023195641612</v>
+        <v>1.009500900071219</v>
       </c>
       <c r="M25">
-        <v>0.9674600640791479</v>
+        <v>1.022053430741498</v>
       </c>
       <c r="N25">
-        <v>1.006370778661645</v>
+        <v>1.008345605319432</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.026026053192876</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.040815643398206</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9933911082959948</v>
+        <v>0.9937414433499568</v>
       </c>
       <c r="D2">
-        <v>1.032083899322637</v>
+        <v>1.029980455224916</v>
       </c>
       <c r="E2">
-        <v>1.000760501312575</v>
+        <v>1.001061667404215</v>
       </c>
       <c r="F2">
-        <v>1.01375927743546</v>
+        <v>1.013911043951403</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.043937669802388</v>
+        <v>1.043333612651786</v>
       </c>
       <c r="J2">
-        <v>1.015771303165718</v>
+        <v>1.01611097186752</v>
       </c>
       <c r="K2">
-        <v>1.043113642610204</v>
+        <v>1.041037336732952</v>
       </c>
       <c r="L2">
-        <v>1.012209251302159</v>
+        <v>1.012506231303028</v>
       </c>
       <c r="M2">
-        <v>1.025030194842544</v>
+        <v>1.025179918936772</v>
       </c>
       <c r="N2">
-        <v>1.009196012097824</v>
+        <v>1.011482145437039</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.028382006929562</v>
+        <v>1.028500505538293</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041555362044879</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040095987077013</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023016040318807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,105 +501,123 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9969609297448403</v>
+        <v>0.997259649134389</v>
       </c>
       <c r="D3">
-        <v>1.03370634943365</v>
+        <v>1.031472683933939</v>
       </c>
       <c r="E3">
-        <v>1.003538033669045</v>
+        <v>1.003794865317428</v>
       </c>
       <c r="F3">
-        <v>1.016715448429185</v>
+        <v>1.016844681448393</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044501666236147</v>
+        <v>1.0438446333334</v>
       </c>
       <c r="J3">
-        <v>1.017534787140668</v>
+        <v>1.017825298675252</v>
       </c>
       <c r="K3">
-        <v>1.043925377663281</v>
+        <v>1.041718100404286</v>
       </c>
       <c r="L3">
-        <v>1.014125843973016</v>
+        <v>1.014379419320687</v>
       </c>
       <c r="M3">
-        <v>1.027138827648739</v>
+        <v>1.027266474319262</v>
       </c>
       <c r="N3">
-        <v>1.009796432437918</v>
+        <v>1.011947174153582</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.030050875088798</v>
+        <v>1.030151900355577</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042126666209907</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040574411264415</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023099223804283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9992285821093561</v>
+        <v>0.9994948222735888</v>
       </c>
       <c r="D4">
-        <v>1.034744297855781</v>
+        <v>1.032427909327087</v>
       </c>
       <c r="E4">
-        <v>1.005308103158728</v>
+        <v>1.005536987448717</v>
       </c>
       <c r="F4">
-        <v>1.018600442319017</v>
+        <v>1.018715525597311</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.04485230702466</v>
+        <v>1.044161542428516</v>
       </c>
       <c r="J4">
-        <v>1.018652041440983</v>
+        <v>1.018911459382627</v>
       </c>
       <c r="K4">
-        <v>1.044440722131699</v>
+        <v>1.042150098511927</v>
       </c>
       <c r="L4">
-        <v>1.015342883443916</v>
+        <v>1.015569042119956</v>
       </c>
       <c r="M4">
-        <v>1.028479442218364</v>
+        <v>1.028593198698955</v>
       </c>
       <c r="N4">
-        <v>1.010176681686491</v>
+        <v>1.012241704397671</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.031111896503692</v>
+        <v>1.0312019283181</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042491946432192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040880845718124</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023149570200447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000172591338621</v>
+        <v>1.000425351912877</v>
       </c>
       <c r="D5">
-        <v>1.035183509259187</v>
+        <v>1.032832391997293</v>
       </c>
       <c r="E5">
-        <v>1.006046408483589</v>
+        <v>1.006263679885777</v>
       </c>
       <c r="F5">
-        <v>1.019386635373802</v>
+        <v>1.019495853099408</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044998126084028</v>
+        <v>1.044293218856934</v>
       </c>
       <c r="J5">
-        <v>1.019116662092976</v>
+        <v>1.01936313867639</v>
       </c>
       <c r="K5">
-        <v>1.044660630559592</v>
+        <v>1.042334988361233</v>
       </c>
       <c r="L5">
-        <v>1.015849619022928</v>
+        <v>1.016064372495224</v>
       </c>
       <c r="M5">
-        <v>1.029037699360175</v>
+        <v>1.029145691685383</v>
       </c>
       <c r="N5">
-        <v>1.010334919261608</v>
+        <v>1.012364266783605</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.031553725315866</v>
+        <v>1.031639195073716</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042654582902106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041019440643999</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023171352414972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000331157101231</v>
+        <v>1.000581623794158</v>
       </c>
       <c r="D6">
-        <v>1.035263966009281</v>
+        <v>1.032906658297507</v>
       </c>
       <c r="E6">
-        <v>1.006170621300924</v>
+        <v>1.006385911683622</v>
       </c>
       <c r="F6">
-        <v>1.019518538275606</v>
+        <v>1.019626758355478</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.045024589583244</v>
+        <v>1.044317206520185</v>
       </c>
       <c r="J6">
-        <v>1.019194965695306</v>
+        <v>1.019439237289072</v>
       </c>
       <c r="K6">
-        <v>1.044704218375016</v>
+        <v>1.042372338996701</v>
       </c>
       <c r="L6">
-        <v>1.015934996562134</v>
+        <v>1.016147803465452</v>
       </c>
       <c r="M6">
-        <v>1.029131380750933</v>
+        <v>1.029238392215758</v>
       </c>
       <c r="N6">
-        <v>1.010361762540965</v>
+        <v>1.01238504706662</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.031627868787014</v>
+        <v>1.031712562240935</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042694116270506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041055441193229</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023176713264073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.999242902582263</v>
+        <v>0.9995172220317539</v>
       </c>
       <c r="D7">
-        <v>1.034768561412117</v>
+        <v>1.032452267817383</v>
       </c>
       <c r="E7">
-        <v>1.005319625908527</v>
+        <v>1.005555718095194</v>
       </c>
       <c r="F7">
-        <v>1.018611693836624</v>
+        <v>1.01873026884672</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044860068550938</v>
+        <v>1.044171367839632</v>
       </c>
       <c r="J7">
-        <v>1.018659897046968</v>
+        <v>1.018927190171264</v>
       </c>
       <c r="K7">
-        <v>1.044461849693928</v>
+        <v>1.042171309879557</v>
       </c>
       <c r="L7">
-        <v>1.015351288902558</v>
+        <v>1.015584570690322</v>
       </c>
       <c r="M7">
-        <v>1.028487636157768</v>
+        <v>1.028604844614197</v>
       </c>
       <c r="N7">
-        <v>1.010179840559518</v>
+        <v>1.012272263546827</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.031118381543244</v>
+        <v>1.031211145400058</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042526922866692</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040917899154671</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023154971061682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9946084235004341</v>
+        <v>0.9949668529206621</v>
       </c>
       <c r="D8">
-        <v>1.032657222221902</v>
+        <v>1.03051307010266</v>
       </c>
       <c r="E8">
-        <v>1.001706852303998</v>
+        <v>1.00201586217644</v>
       </c>
       <c r="F8">
-        <v>1.014765052529865</v>
+        <v>1.014920254819251</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04413825739027</v>
+        <v>1.043523717212382</v>
       </c>
       <c r="J8">
-        <v>1.016374188375087</v>
+        <v>1.016722070349593</v>
       </c>
       <c r="K8">
-        <v>1.043412280091141</v>
+        <v>1.041294995657374</v>
       </c>
       <c r="L8">
-        <v>1.012863752724349</v>
+        <v>1.013168596393468</v>
       </c>
       <c r="M8">
-        <v>1.025748668166878</v>
+        <v>1.02590184448362</v>
       </c>
       <c r="N8">
-        <v>1.009401940123837</v>
+        <v>1.011727252745635</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.028950639934244</v>
+        <v>1.029071870692261</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041789333818629</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040303273459524</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023051887441927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9861023737622271</v>
+        <v>0.9865899401525531</v>
       </c>
       <c r="D9">
-        <v>1.028814544350317</v>
+        <v>1.026982548382374</v>
       </c>
       <c r="E9">
-        <v>0.9951222102146497</v>
+        <v>0.9955419766168623</v>
       </c>
       <c r="F9">
-        <v>1.007763891849143</v>
+        <v>1.007975681267593</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042745942601685</v>
+        <v>1.042258796409021</v>
       </c>
       <c r="J9">
-        <v>1.012155622056283</v>
+        <v>1.012625294438685</v>
       </c>
       <c r="K9">
-        <v>1.041456805545996</v>
+        <v>1.039652512264036</v>
       </c>
       <c r="L9">
-        <v>1.008294925021111</v>
+        <v>1.008707798612735</v>
       </c>
       <c r="M9">
-        <v>1.020732248803885</v>
+        <v>1.020940670498885</v>
       </c>
       <c r="N9">
-        <v>1.007964347299179</v>
+        <v>1.010624637862892</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.024980403907032</v>
+        <v>1.025145359339044</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040403546499868</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039138490428493</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022834596977278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9802865249794535</v>
+        <v>0.9809018545630379</v>
       </c>
       <c r="D10">
-        <v>1.026213451954382</v>
+        <v>1.024601999523818</v>
       </c>
       <c r="E10">
-        <v>0.9906646209521998</v>
+        <v>0.9911949416732099</v>
       </c>
       <c r="F10">
-        <v>1.003261895840035</v>
+        <v>1.003529485540559</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041771536237087</v>
+        <v>1.041382785274983</v>
       </c>
       <c r="J10">
-        <v>1.009304721471449</v>
+        <v>1.00989424058685</v>
       </c>
       <c r="K10">
-        <v>1.040125012370153</v>
+        <v>1.038540824319971</v>
       </c>
       <c r="L10">
-        <v>1.005204499344176</v>
+        <v>1.005725015086057</v>
       </c>
       <c r="M10">
-        <v>1.017572504450642</v>
+        <v>1.017835305113673</v>
       </c>
       <c r="N10">
-        <v>1.006996192574551</v>
+        <v>1.010003490918102</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.022532071430437</v>
+        <v>1.022740052383027</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039478627899516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038370878117131</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022679020500115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9785118475327751</v>
+        <v>0.9792245149041293</v>
       </c>
       <c r="D11">
-        <v>1.025264325324655</v>
+        <v>1.023732979118436</v>
       </c>
       <c r="E11">
-        <v>0.9894037219925956</v>
+        <v>0.990019578600257</v>
       </c>
       <c r="F11">
-        <v>1.003833942176129</v>
+        <v>1.004141483259694</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041577416500302</v>
+        <v>1.041238044794296</v>
       </c>
       <c r="J11">
-        <v>1.008806710756263</v>
+        <v>1.009487867514965</v>
       </c>
       <c r="K11">
-        <v>1.039725018993072</v>
+        <v>1.038220787995624</v>
       </c>
       <c r="L11">
-        <v>1.004528273963844</v>
+        <v>1.005132197773681</v>
       </c>
       <c r="M11">
-        <v>1.018683916349333</v>
+        <v>1.01898571762658</v>
       </c>
       <c r="N11">
-        <v>1.006860718958247</v>
+        <v>1.010149240285066</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.023855342793387</v>
+        <v>1.024094064256052</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.039228480774762</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038180500143876</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022652518733939</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9781272684850015</v>
+        <v>0.9788741145826013</v>
       </c>
       <c r="D12">
-        <v>1.024958812298321</v>
+        <v>1.023448781634134</v>
       </c>
       <c r="E12">
-        <v>0.989180090332944</v>
+        <v>0.9898257955731022</v>
       </c>
       <c r="F12">
-        <v>1.004903213158505</v>
+        <v>1.005223679961142</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041585761996273</v>
+        <v>1.041261970705875</v>
       </c>
       <c r="J12">
-        <v>1.008887061193521</v>
+        <v>1.009600273939943</v>
       </c>
       <c r="K12">
-        <v>1.039622969153486</v>
+        <v>1.038140118690895</v>
       </c>
       <c r="L12">
-        <v>1.004517560579304</v>
+        <v>1.005150548062056</v>
       </c>
       <c r="M12">
-        <v>1.019937074399509</v>
+        <v>1.020251482147205</v>
       </c>
       <c r="N12">
-        <v>1.006915922115012</v>
+        <v>1.010303267534095</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.025177638460252</v>
+        <v>1.025426244862621</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039156329006287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038123465978836</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022652185598117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9787833910364158</v>
+        <v>0.9795063704896922</v>
       </c>
       <c r="D13">
-        <v>1.025145867424329</v>
+        <v>1.023610078995138</v>
       </c>
       <c r="E13">
-        <v>0.9897349986921821</v>
+        <v>0.9903594033090876</v>
       </c>
       <c r="F13">
-        <v>1.006447522519912</v>
+        <v>1.00675633968148</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041758591280705</v>
+        <v>1.041421592064032</v>
       </c>
       <c r="J13">
-        <v>1.009417614219179</v>
+        <v>1.010108216034239</v>
       </c>
       <c r="K13">
-        <v>1.039764192584954</v>
+        <v>1.038255943565621</v>
       </c>
       <c r="L13">
-        <v>1.00501683322126</v>
+        <v>1.005628998762364</v>
       </c>
       <c r="M13">
-        <v>1.021408609351669</v>
+        <v>1.021711630518912</v>
       </c>
       <c r="N13">
-        <v>1.007122027154048</v>
+        <v>1.010437717140282</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.02662109416135</v>
+        <v>1.026860635550574</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03925369889805</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038202632583978</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022677803924285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9797033402739898</v>
+        <v>0.980384348063951</v>
       </c>
       <c r="D14">
-        <v>1.025502186399921</v>
+        <v>1.023927361662805</v>
       </c>
       <c r="E14">
-        <v>0.9904669389995052</v>
+        <v>0.9910542981147866</v>
       </c>
       <c r="F14">
-        <v>1.007716317467892</v>
+        <v>1.008006454193007</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041951972585182</v>
+        <v>1.041593132613309</v>
       </c>
       <c r="J14">
-        <v>1.009982458624983</v>
+        <v>1.010633415729516</v>
       </c>
       <c r="K14">
-        <v>1.039975037863379</v>
+        <v>1.038428119268326</v>
       </c>
       <c r="L14">
-        <v>1.005588110536183</v>
+        <v>1.006164105630735</v>
       </c>
       <c r="M14">
-        <v>1.022510947782278</v>
+        <v>1.022795716628686</v>
       </c>
       <c r="N14">
-        <v>1.007331173463836</v>
+        <v>1.010521575165026</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.027667464889389</v>
+        <v>1.027892546829736</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039404188385308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038325919192846</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022707996705869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9801631478324573</v>
+        <v>0.9808221790942925</v>
       </c>
       <c r="D15">
-        <v>1.025703009264058</v>
+        <v>1.024108101194002</v>
       </c>
       <c r="E15">
-        <v>0.9908233566738258</v>
+        <v>0.9913914147235331</v>
       </c>
       <c r="F15">
-        <v>1.008177103336283</v>
+        <v>1.008457726147699</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04203926472966</v>
+        <v>1.041669027526354</v>
       </c>
       <c r="J15">
-        <v>1.010228855691031</v>
+        <v>1.010859062239523</v>
       </c>
       <c r="K15">
-        <v>1.040086625367929</v>
+        <v>1.038519773155932</v>
       </c>
       <c r="L15">
-        <v>1.005847528056675</v>
+        <v>1.006404681175099</v>
       </c>
       <c r="M15">
-        <v>1.022875361555431</v>
+        <v>1.023150834140323</v>
       </c>
       <c r="N15">
-        <v>1.007418748009985</v>
+        <v>1.01054372831233</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.027993351032212</v>
+        <v>1.028211079407893</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.039488922404591</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038397134157352</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022722855902971</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9824765382836022</v>
+        <v>0.9830310670748982</v>
       </c>
       <c r="D16">
-        <v>1.026762421245124</v>
+        <v>1.02506915682495</v>
       </c>
       <c r="E16">
-        <v>0.9925788733135614</v>
+        <v>0.9930556074220243</v>
       </c>
       <c r="F16">
-        <v>1.009823963144127</v>
+        <v>1.010060161857512</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042425009697288</v>
+        <v>1.041999268522181</v>
       </c>
       <c r="J16">
-        <v>1.011324008783407</v>
+        <v>1.011855496997651</v>
       </c>
       <c r="K16">
-        <v>1.04062940877447</v>
+        <v>1.038964672831198</v>
       </c>
       <c r="L16">
-        <v>1.00704634780483</v>
+        <v>1.007514337140115</v>
       </c>
       <c r="M16">
-        <v>1.023981916248106</v>
+        <v>1.024213970650694</v>
       </c>
       <c r="N16">
-        <v>1.007785701393618</v>
+        <v>1.010602042293636</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028828909765735</v>
+        <v>1.029012326525447</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.039875840635924</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038715152402622</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022786206650286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.983778173361085</v>
+        <v>0.9842835034916471</v>
       </c>
       <c r="D17">
-        <v>1.027393367598652</v>
+        <v>1.025646353700017</v>
       </c>
       <c r="E17">
-        <v>0.9935510796063468</v>
+        <v>0.993984976718198</v>
       </c>
       <c r="F17">
-        <v>1.010428220396062</v>
+        <v>1.010643803970603</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04262003766039</v>
+        <v>1.042165631370178</v>
       </c>
       <c r="J17">
-        <v>1.011874328822734</v>
+        <v>1.012359334977517</v>
       </c>
       <c r="K17">
-        <v>1.040937554813014</v>
+        <v>1.039219171162054</v>
       </c>
       <c r="L17">
-        <v>1.007673134548717</v>
+        <v>1.008099299504116</v>
       </c>
       <c r="M17">
-        <v>1.024255842761432</v>
+        <v>1.024467747503004</v>
       </c>
       <c r="N17">
-        <v>1.007959544460953</v>
+        <v>1.010633700449212</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.028915185147962</v>
+        <v>1.029082692443003</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.040096287925119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038897921190806</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022819149332468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9842976645593418</v>
+        <v>0.9847853011146905</v>
       </c>
       <c r="D18">
-        <v>1.027696884368621</v>
+        <v>1.02592886745126</v>
       </c>
       <c r="E18">
-        <v>0.9939069135527084</v>
+        <v>0.9943254742174583</v>
       </c>
       <c r="F18">
-        <v>1.010023632452537</v>
+        <v>1.010232366521517</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042656452970811</v>
+        <v>1.042190723605688</v>
       </c>
       <c r="J18">
-        <v>1.011967299729526</v>
+        <v>1.012435685293767</v>
       </c>
       <c r="K18">
-        <v>1.0410540666348</v>
+        <v>1.039314556714637</v>
       </c>
       <c r="L18">
-        <v>1.007831657042057</v>
+        <v>1.008242881571782</v>
       </c>
       <c r="M18">
-        <v>1.023671559315838</v>
+        <v>1.023876782932479</v>
       </c>
       <c r="N18">
-        <v>1.007969259938501</v>
+        <v>1.010596137789156</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.02821298255775</v>
+        <v>1.028375242986737</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.040167088458701</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038952641321005</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022824341035956</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9840786322388211</v>
+        <v>0.9845711596727</v>
       </c>
       <c r="D19">
-        <v>1.0277243790892</v>
+        <v>1.025962762034721</v>
       </c>
       <c r="E19">
-        <v>0.9936786433427239</v>
+        <v>0.9941014953508104</v>
       </c>
       <c r="F19">
-        <v>1.008596705977072</v>
+        <v>1.008808644386354</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042551115479555</v>
+        <v>1.042087762927442</v>
       </c>
       <c r="J19">
-        <v>1.011618689521343</v>
+        <v>1.012091875055128</v>
       </c>
       <c r="K19">
-        <v>1.041019046303812</v>
+        <v>1.039285679565826</v>
       </c>
       <c r="L19">
-        <v>1.007542256414651</v>
+        <v>1.00795773259307</v>
       </c>
       <c r="M19">
-        <v>1.022204924423172</v>
+        <v>1.022413304642513</v>
       </c>
       <c r="N19">
-        <v>1.00782418179669</v>
+        <v>1.010470600485255</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.026723400766443</v>
+        <v>1.026888212201953</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040148690089966</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038939214996931</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022809920220833</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9817998779032938</v>
+        <v>0.9823578682273945</v>
       </c>
       <c r="D20">
-        <v>1.026928794759347</v>
+        <v>1.025252701213411</v>
       </c>
       <c r="E20">
-        <v>0.991823331788783</v>
+        <v>0.9923033166294197</v>
       </c>
       <c r="F20">
-        <v>1.004440370073392</v>
+        <v>1.004682943610868</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042040831826867</v>
+        <v>1.041618326541321</v>
       </c>
       <c r="J20">
-        <v>1.010050871403309</v>
+        <v>1.010586222345405</v>
       </c>
       <c r="K20">
-        <v>1.040514102992507</v>
+        <v>1.038865585075029</v>
       </c>
       <c r="L20">
-        <v>1.006011498129221</v>
+        <v>1.006482866653685</v>
       </c>
       <c r="M20">
-        <v>1.018405587721274</v>
+        <v>1.018643945889504</v>
       </c>
       <c r="N20">
-        <v>1.007251217210858</v>
+        <v>1.010093092145012</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.023180626445187</v>
+        <v>1.0233692658952</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.039795571677214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.038646474742041</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.0227300713541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9772783101832386</v>
+        <v>0.9780529611086677</v>
       </c>
       <c r="D21">
-        <v>1.024946983347739</v>
+        <v>1.023464831884115</v>
       </c>
       <c r="E21">
-        <v>0.9883526368597522</v>
+        <v>0.9890236933424331</v>
       </c>
       <c r="F21">
-        <v>1.000572868263074</v>
+        <v>1.000910450485661</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041247138496058</v>
+        <v>1.040937271661393</v>
       </c>
       <c r="J21">
-        <v>1.007757721068051</v>
+        <v>1.0084978268134</v>
       </c>
       <c r="K21">
-        <v>1.039470654863868</v>
+        <v>1.038014886974722</v>
       </c>
       <c r="L21">
-        <v>1.003558083770405</v>
+        <v>1.004216042395151</v>
       </c>
       <c r="M21">
-        <v>1.015543395601694</v>
+        <v>1.015874594608991</v>
       </c>
       <c r="N21">
-        <v>1.006466179714871</v>
+        <v>1.009942758308071</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.020873671063786</v>
+        <v>1.021135800221536</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.039061017707326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038048522211415</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022604650315082</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9744260318588094</v>
+        <v>0.9753378877455959</v>
       </c>
       <c r="D22">
-        <v>1.023679464960705</v>
+        <v>1.02232108641696</v>
       </c>
       <c r="E22">
-        <v>0.9861763091149457</v>
+        <v>0.9869685643083558</v>
       </c>
       <c r="F22">
-        <v>0.9982643484039325</v>
+        <v>0.998662131647838</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040740821527404</v>
+        <v>1.040502837800968</v>
       </c>
       <c r="J22">
-        <v>1.006331225932954</v>
+        <v>1.007200029279108</v>
       </c>
       <c r="K22">
-        <v>1.038795983093308</v>
+        <v>1.037462958503441</v>
       </c>
       <c r="L22">
-        <v>1.002026681753375</v>
+        <v>1.002802673460078</v>
       </c>
       <c r="M22">
-        <v>1.013870267483193</v>
+        <v>1.014260138643074</v>
       </c>
       <c r="N22">
-        <v>1.005978951548119</v>
+        <v>1.009848904154541</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.019549463640509</v>
+        <v>1.019858029775107</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038570565807132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037643537629751</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022519936568441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9759425829182289</v>
+        <v>0.9767675897483216</v>
       </c>
       <c r="D23">
-        <v>1.024337250271744</v>
+        <v>1.022911341015281</v>
       </c>
       <c r="E23">
-        <v>0.9873323680677508</v>
+        <v>0.9880476674601886</v>
       </c>
       <c r="F23">
-        <v>0.9994913120214609</v>
+        <v>0.9998510120622395</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041006322825537</v>
+        <v>1.040725976584883</v>
       </c>
       <c r="J23">
-        <v>1.007089384511409</v>
+        <v>1.007876591945073</v>
       </c>
       <c r="K23">
-        <v>1.039139505028723</v>
+        <v>1.037739555988864</v>
       </c>
       <c r="L23">
-        <v>1.002840280814354</v>
+        <v>1.003541280960327</v>
       </c>
       <c r="M23">
-        <v>1.01475980753811</v>
+        <v>1.015112541066536</v>
       </c>
       <c r="N23">
-        <v>1.006237367534226</v>
+        <v>1.009855407430581</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.020253495852458</v>
+        <v>1.020532668872567</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038803870707862</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037828577662828</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022560731896245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9817931049154149</v>
+        <v>0.9823508473209496</v>
       </c>
       <c r="D24">
-        <v>1.026919073061727</v>
+        <v>1.025244368494233</v>
       </c>
       <c r="E24">
-        <v>0.9918088511645946</v>
+        <v>0.9922886383442292</v>
       </c>
       <c r="F24">
-        <v>1.004243087527639</v>
+        <v>1.004485744528067</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042022462087075</v>
+        <v>1.041600199149145</v>
       </c>
       <c r="J24">
-        <v>1.010010487366856</v>
+        <v>1.010545631942162</v>
       </c>
       <c r="K24">
-        <v>1.04048939461369</v>
+        <v>1.038842208187145</v>
       </c>
       <c r="L24">
-        <v>1.005981355901312</v>
+        <v>1.006452541116875</v>
       </c>
       <c r="M24">
-        <v>1.018196097286473</v>
+        <v>1.018434540756263</v>
       </c>
       <c r="N24">
-        <v>1.007233742257887</v>
+        <v>1.010075211282031</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.022973162587232</v>
+        <v>1.023161879319646</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039750840235056</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.038599991048059</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022722140720254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9883455454387594</v>
+        <v>0.9887882540837771</v>
       </c>
       <c r="D25">
-        <v>1.029847416452546</v>
+        <v>1.027929518050903</v>
       </c>
       <c r="E25">
-        <v>0.9968535422345319</v>
+        <v>0.9972344962144166</v>
       </c>
       <c r="F25">
-        <v>1.009602372622824</v>
+        <v>1.009794517167256</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043127888109491</v>
+        <v>1.04260355541515</v>
       </c>
       <c r="J25">
-        <v>1.013271596429846</v>
+        <v>1.013698920459794</v>
       </c>
       <c r="K25">
-        <v>1.041999407917226</v>
+        <v>1.040109201044993</v>
       </c>
       <c r="L25">
-        <v>1.009500900071219</v>
+        <v>1.009875895303872</v>
       </c>
       <c r="M25">
-        <v>1.022053430741498</v>
+        <v>1.0222426650562</v>
       </c>
       <c r="N25">
-        <v>1.008345605319432</v>
+        <v>1.010883769803958</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026026053192876</v>
+        <v>1.026175822537391</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040815643398206</v>
+        <v>1.039492673454114</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022900479896582</v>
       </c>
     </row>
   </sheetData>
